--- a/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8973414722850049</v>
+        <v>0.8973414722850079</v>
       </c>
       <c r="D2">
-        <v>0.9134433151471469</v>
+        <v>0.91344331514715</v>
       </c>
       <c r="E2">
-        <v>0.9173651546217462</v>
+        <v>0.9173651546217489</v>
       </c>
       <c r="F2">
-        <v>0.9057036879511038</v>
+        <v>0.9057036879511069</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028144740797516</v>
+        <v>1.028144740797517</v>
       </c>
       <c r="J2">
-        <v>0.92309546005842</v>
+        <v>0.9230954600584229</v>
       </c>
       <c r="K2">
-        <v>0.9262564974721212</v>
+        <v>0.926256497472124</v>
       </c>
       <c r="L2">
-        <v>0.9301098448640261</v>
+        <v>0.9301098448640291</v>
       </c>
       <c r="M2">
-        <v>0.9186542983764175</v>
+        <v>0.9186542983764207</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9194967600990996</v>
+        <v>0.9194967600991003</v>
       </c>
       <c r="D3">
-        <v>0.9333897191556138</v>
+        <v>0.9333897191556143</v>
       </c>
       <c r="E3">
-        <v>0.9364308062654246</v>
+        <v>0.9364308062654252</v>
       </c>
       <c r="F3">
-        <v>0.9276651065279103</v>
+        <v>0.927665106527911</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.032457438349522</v>
       </c>
       <c r="J3">
-        <v>0.9424515825236864</v>
+        <v>0.9424515825236872</v>
       </c>
       <c r="K3">
-        <v>0.9449523435967684</v>
+        <v>0.9449523435967687</v>
       </c>
       <c r="L3">
-        <v>0.9479473149783605</v>
+        <v>0.9479473149783613</v>
       </c>
       <c r="M3">
-        <v>0.9393155878347094</v>
+        <v>0.93931558783471</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9324772345327792</v>
+        <v>0.9324772345327788</v>
       </c>
       <c r="D4">
-        <v>0.9450924196164672</v>
+        <v>0.9450924196164666</v>
       </c>
       <c r="E4">
-        <v>0.9476222429358754</v>
+        <v>0.947622242935875</v>
       </c>
       <c r="F4">
         <v>0.9405569043596299</v>
@@ -515,16 +515,16 @@
         <v>1.034951299338122</v>
       </c>
       <c r="J4">
-        <v>0.9537814602183762</v>
+        <v>0.9537814602183756</v>
       </c>
       <c r="K4">
-        <v>0.9559020450831953</v>
+        <v>0.955902045083195</v>
       </c>
       <c r="L4">
-        <v>0.9583968183084804</v>
+        <v>0.9583968183084799</v>
       </c>
       <c r="M4">
-        <v>0.9514299645991757</v>
+        <v>0.9514299645991754</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,10 +538,10 @@
         <v>0.9376658227013205</v>
       </c>
       <c r="D5">
-        <v>0.9497734252496973</v>
+        <v>0.9497734252496974</v>
       </c>
       <c r="E5">
-        <v>0.9520999025230766</v>
+        <v>0.9520999025230769</v>
       </c>
       <c r="F5">
         <v>0.9457154896418183</v>
@@ -553,16 +553,16 @@
         <v>1.035939067365254</v>
       </c>
       <c r="J5">
-        <v>0.9583072551846125</v>
+        <v>0.9583072551846123</v>
       </c>
       <c r="K5">
-        <v>0.9602774315159576</v>
+        <v>0.9602774315159578</v>
       </c>
       <c r="L5">
-        <v>0.9625728765883009</v>
+        <v>0.9625728765883008</v>
       </c>
       <c r="M5">
-        <v>0.9562740830416359</v>
+        <v>0.956274083041636</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9385225861253477</v>
+        <v>0.9385225861253503</v>
       </c>
       <c r="D6">
-        <v>0.9505465432846698</v>
+        <v>0.9505465432846721</v>
       </c>
       <c r="E6">
-        <v>0.9528395001384745</v>
+        <v>0.9528395001384767</v>
       </c>
       <c r="F6">
-        <v>0.946567606950519</v>
+        <v>0.9465676069505214</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.036101606932731</v>
       </c>
       <c r="J6">
-        <v>0.9590543865316845</v>
+        <v>0.9590543865316871</v>
       </c>
       <c r="K6">
-        <v>0.960999817407013</v>
+        <v>0.9609998174070153</v>
       </c>
       <c r="L6">
-        <v>0.9632623836704578</v>
+        <v>0.96326238367046</v>
       </c>
       <c r="M6">
-        <v>0.9570740565285129</v>
+        <v>0.9570740565285154</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9325475579274578</v>
+        <v>0.9325475579274564</v>
       </c>
       <c r="D7">
-        <v>0.9451558516474396</v>
+        <v>0.9451558516474378</v>
       </c>
       <c r="E7">
-        <v>0.9476829149853708</v>
+        <v>0.9476829149853691</v>
       </c>
       <c r="F7">
-        <v>0.9406267999085773</v>
+        <v>0.9406267999085756</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034964724808488</v>
+        <v>1.034964724808487</v>
       </c>
       <c r="J7">
-        <v>0.9538428130517577</v>
+        <v>0.9538428130517558</v>
       </c>
       <c r="K7">
-        <v>0.9559613531735833</v>
+        <v>0.9559613531735817</v>
       </c>
       <c r="L7">
-        <v>0.9584534224007927</v>
+        <v>0.9584534224007911</v>
       </c>
       <c r="M7">
-        <v>0.9514956128462222</v>
+        <v>0.9514956128462206</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9051498092296055</v>
+        <v>0.9051498092296038</v>
       </c>
       <c r="D8">
-        <v>0.9204689599594069</v>
+        <v>0.9204689599594049</v>
       </c>
       <c r="E8">
-        <v>0.9240792446702685</v>
+        <v>0.9240792446702665</v>
       </c>
       <c r="F8">
-        <v>0.9134377859249615</v>
+        <v>0.9134377859249592</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.029671079625921</v>
       </c>
       <c r="J8">
-        <v>0.9299192517324013</v>
+        <v>0.9299192517323995</v>
       </c>
       <c r="K8">
-        <v>0.9328460758044134</v>
+        <v>0.9328460758044114</v>
       </c>
       <c r="L8">
-        <v>0.9363962713172337</v>
+        <v>0.9363962713172317</v>
       </c>
       <c r="M8">
-        <v>0.9259336887948857</v>
+        <v>0.9259336887948834</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8422773561314537</v>
+        <v>0.8422773561314542</v>
       </c>
       <c r="D9">
-        <v>0.8640455707891066</v>
+        <v>0.8640455707891072</v>
       </c>
       <c r="E9">
-        <v>0.870198702574002</v>
+        <v>0.8701987025740022</v>
       </c>
       <c r="F9">
-        <v>0.8513337742799678</v>
+        <v>0.8513337742799681</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.017304896171681</v>
       </c>
       <c r="J9">
-        <v>0.8749609191281209</v>
+        <v>0.8749609191281212</v>
       </c>
       <c r="K9">
-        <v>0.879810966008825</v>
+        <v>0.8798109660088254</v>
       </c>
       <c r="L9">
-        <v>0.8858189751258947</v>
+        <v>0.8858189751258952</v>
       </c>
       <c r="M9">
-        <v>0.8674079366028239</v>
+        <v>0.8674079366028246</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7765316484715507</v>
+        <v>0.7765316484715483</v>
       </c>
       <c r="D10">
-        <v>0.8054808414918405</v>
+        <v>0.8054808414918385</v>
       </c>
       <c r="E10">
-        <v>0.8143755980432194</v>
+        <v>0.8143755980432175</v>
       </c>
       <c r="F10">
-        <v>0.7867894570243184</v>
+        <v>0.786789457024316</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.004547530111936</v>
       </c>
       <c r="J10">
-        <v>0.8176232674508273</v>
+        <v>0.8176232674508249</v>
       </c>
       <c r="K10">
-        <v>0.8245484222752272</v>
+        <v>0.8245484222752248</v>
       </c>
       <c r="L10">
-        <v>0.8331603773124128</v>
+        <v>0.8331603773124109</v>
       </c>
       <c r="M10">
-        <v>0.8064804610394375</v>
+        <v>0.8064804610394354</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7268116544731272</v>
+        <v>0.7268116544731305</v>
       </c>
       <c r="D11">
-        <v>0.7615894397609544</v>
+        <v>0.7615894397609576</v>
       </c>
       <c r="E11">
-        <v>0.7726153783779314</v>
+        <v>0.7726153783779344</v>
       </c>
       <c r="F11">
-        <v>0.7382558886041503</v>
+        <v>0.7382558886041536</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9953047471734793</v>
+        <v>0.9953047471734796</v>
       </c>
       <c r="J11">
-        <v>0.7745159620852426</v>
+        <v>0.7745159620852456</v>
       </c>
       <c r="K11">
-        <v>0.7830320368199667</v>
+        <v>0.7830320368199697</v>
       </c>
       <c r="L11">
-        <v>0.7936303529489696</v>
+        <v>0.7936303529489722</v>
       </c>
       <c r="M11">
-        <v>0.7606637983408687</v>
+        <v>0.7606637983408718</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6915557464983914</v>
+        <v>0.6915557464983932</v>
       </c>
       <c r="D12">
-        <v>0.7307364354343279</v>
+        <v>0.7307364354343296</v>
       </c>
       <c r="E12">
-        <v>0.7433055916984779</v>
+        <v>0.7433055916984794</v>
       </c>
       <c r="F12">
-        <v>0.7040048753114292</v>
+        <v>0.7040048753114312</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9890644994096366</v>
+        <v>0.9890644994096367</v>
       </c>
       <c r="J12">
-        <v>0.7441629477480453</v>
+        <v>0.744162947748047</v>
       </c>
       <c r="K12">
-        <v>0.7538104062402076</v>
+        <v>0.7538104062402089</v>
       </c>
       <c r="L12">
-        <v>0.7658238910730496</v>
+        <v>0.7658238910730512</v>
       </c>
       <c r="M12">
-        <v>0.7283566808792892</v>
+        <v>0.7283566808792911</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7016475233521516</v>
+        <v>0.7016475233521492</v>
       </c>
       <c r="D13">
-        <v>0.7395417365156042</v>
+        <v>0.7395417365156021</v>
       </c>
       <c r="E13">
-        <v>0.7516663463900525</v>
+        <v>0.7516663463900504</v>
       </c>
       <c r="F13">
-        <v>0.7137938530452136</v>
+        <v>0.7137938530452114</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9908202026367201</v>
+        <v>0.9908202026367198</v>
       </c>
       <c r="J13">
-        <v>0.7528292607128647</v>
+        <v>0.7528292607128625</v>
       </c>
       <c r="K13">
-        <v>0.762152904603608</v>
+        <v>0.762152904603606</v>
       </c>
       <c r="L13">
-        <v>0.7737608415108151</v>
+        <v>0.7737608415108131</v>
       </c>
       <c r="M13">
-        <v>0.7375866177407564</v>
+        <v>0.737586617740754</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.724631415604693</v>
+        <v>0.7246314156046942</v>
       </c>
       <c r="D14">
-        <v>0.7596743591130568</v>
+        <v>0.7596743591130577</v>
       </c>
       <c r="E14">
-        <v>0.7707949416721743</v>
+        <v>0.7707949416721751</v>
       </c>
       <c r="F14">
-        <v>0.7361336205204205</v>
+        <v>0.7361336205204215</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.994910513598009</v>
+        <v>0.9949105135980093</v>
       </c>
       <c r="J14">
-        <v>0.7726330219628356</v>
+        <v>0.7726330219628365</v>
       </c>
       <c r="K14">
-        <v>0.7812190454075003</v>
+        <v>0.7812190454075013</v>
       </c>
       <c r="L14">
-        <v>0.7919047350801688</v>
+        <v>0.7919047350801695</v>
       </c>
       <c r="M14">
-        <v>0.758661100074368</v>
+        <v>0.7586611000743694</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7353301969245361</v>
+        <v>0.7353301969245341</v>
       </c>
       <c r="D15">
-        <v>0.7690802536239882</v>
+        <v>0.7690802536239865</v>
       </c>
       <c r="E15">
-        <v>0.7797373800256362</v>
+        <v>0.779737380025635</v>
       </c>
       <c r="F15">
-        <v>0.7465529192522031</v>
+        <v>0.7465529192522012</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9968547970565439</v>
+        <v>0.996854797056544</v>
       </c>
       <c r="J15">
-        <v>0.7818795301531589</v>
+        <v>0.7818795301531571</v>
       </c>
       <c r="K15">
-        <v>0.7901223904586515</v>
+        <v>0.7901223904586496</v>
       </c>
       <c r="L15">
-        <v>0.8003795234688351</v>
+        <v>0.8003795234688337</v>
       </c>
       <c r="M15">
-        <v>0.7684942212800975</v>
+        <v>0.7684942212800955</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7790363141030128</v>
+        <v>0.7790363141030111</v>
       </c>
       <c r="D16">
-        <v>0.8077019377732967</v>
+        <v>0.8077019377732951</v>
       </c>
       <c r="E16">
-        <v>0.8164906805051331</v>
+        <v>0.8164906805051318</v>
       </c>
       <c r="F16">
-        <v>0.7892409054887639</v>
+        <v>0.789240905488762</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.005024365246814</v>
       </c>
       <c r="J16">
-        <v>0.8198019889894883</v>
+        <v>0.8198019889894866</v>
       </c>
       <c r="K16">
-        <v>0.8266473390848976</v>
+        <v>0.8266473390848958</v>
       </c>
       <c r="L16">
-        <v>0.8351595789294797</v>
+        <v>0.8351595789294785</v>
       </c>
       <c r="M16">
-        <v>0.8087951240333321</v>
+        <v>0.8087951240333304</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7989882241228006</v>
+        <v>0.7989882241227969</v>
       </c>
       <c r="D17">
-        <v>0.8254252941902354</v>
+        <v>0.8254252941902318</v>
       </c>
       <c r="E17">
-        <v>0.8333740277695205</v>
+        <v>0.8333740277695171</v>
       </c>
       <c r="F17">
-        <v>0.8087902620325431</v>
+        <v>0.8087902620325395</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.008853731792836</v>
+        <v>1.008853731792835</v>
       </c>
       <c r="J17">
-        <v>0.8371764842408369</v>
+        <v>0.8371764842408332</v>
       </c>
       <c r="K17">
-        <v>0.8433878604370881</v>
+        <v>0.8433878604370846</v>
       </c>
       <c r="L17">
-        <v>0.8511071337114248</v>
+        <v>0.8511071337114214</v>
       </c>
       <c r="M17">
-        <v>0.8272532172424201</v>
+        <v>0.8272532172424163</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8092117404247677</v>
+        <v>0.8092117404247668</v>
       </c>
       <c r="D18">
-        <v>0.8345266514622774</v>
+        <v>0.8345266514622767</v>
       </c>
       <c r="E18">
-        <v>0.8420480164566284</v>
+        <v>0.8420480164566275</v>
       </c>
       <c r="F18">
-        <v>0.8188220163601254</v>
+        <v>0.818822016360124</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010834729026523</v>
+        <v>1.010834729026522</v>
       </c>
       <c r="J18">
-        <v>0.8460907766455301</v>
+        <v>0.8460907766455291</v>
       </c>
       <c r="K18">
-        <v>0.8519786915314235</v>
+        <v>0.8519786915314225</v>
       </c>
       <c r="L18">
-        <v>0.8592926262907086</v>
+        <v>0.8592926262907078</v>
       </c>
       <c r="M18">
-        <v>0.8367240582940065</v>
+        <v>0.8367240582940053</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8125121132367752</v>
+        <v>0.8125121132367749</v>
       </c>
       <c r="D19">
-        <v>0.8374674710804095</v>
+        <v>0.8374674710804092</v>
       </c>
       <c r="E19">
-        <v>0.8448513109115312</v>
+        <v>0.8448513109115309</v>
       </c>
       <c r="F19">
-        <v>0.8220625611369082</v>
+        <v>0.8220625611369073</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.011476572631804</v>
       </c>
       <c r="J19">
-        <v>0.8489699242598865</v>
+        <v>0.8489699242598858</v>
       </c>
       <c r="K19">
-        <v>0.854753649580259</v>
+        <v>0.8547536495802588</v>
       </c>
       <c r="L19">
-        <v>0.8619368823847853</v>
+        <v>0.8619368823847848</v>
       </c>
       <c r="M19">
-        <v>0.839783184487808</v>
+        <v>0.8397831844878073</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.797008741370137</v>
+        <v>0.7970087413701409</v>
       </c>
       <c r="D20">
-        <v>0.8236645859682716</v>
+        <v>0.8236645859682751</v>
       </c>
       <c r="E20">
-        <v>0.8316963051866093</v>
+        <v>0.8316963051866129</v>
       </c>
       <c r="F20">
-        <v>0.8068490369761707</v>
+        <v>0.8068490369761746</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.008471531904948</v>
       </c>
       <c r="J20">
-        <v>0.8354513221488058</v>
+        <v>0.8354513221488095</v>
       </c>
       <c r="K20">
-        <v>0.8417254445040099</v>
+        <v>0.8417254445040133</v>
       </c>
       <c r="L20">
-        <v>0.8495232789066481</v>
+        <v>0.8495232789066518</v>
       </c>
       <c r="M20">
-        <v>0.8254204337310256</v>
+        <v>0.825420433731029</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7188084246521275</v>
+        <v>0.7188084246521235</v>
       </c>
       <c r="D21">
-        <v>0.7545639218012825</v>
+        <v>0.7545639218012788</v>
       </c>
       <c r="E21">
-        <v>0.7659377831728785</v>
+        <v>0.7659377831728746</v>
       </c>
       <c r="F21">
-        <v>0.7304680593944068</v>
+        <v>0.7304680593944028</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9938627208162626</v>
+        <v>0.9938627208162616</v>
       </c>
       <c r="J21">
-        <v>0.7676075984224998</v>
+        <v>0.7676075984224962</v>
       </c>
       <c r="K21">
-        <v>0.7763804725769461</v>
+        <v>0.7763804725769429</v>
       </c>
       <c r="L21">
-        <v>0.7872996178021169</v>
+        <v>0.7872996178021132</v>
       </c>
       <c r="M21">
-        <v>0.7533152243287619</v>
+        <v>0.7533152243287581</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7188084246521275</v>
+        <v>0.7188084246521235</v>
       </c>
       <c r="D22">
-        <v>0.7545639218012825</v>
+        <v>0.7545639218012788</v>
       </c>
       <c r="E22">
-        <v>0.7659377831728785</v>
+        <v>0.7659377831728746</v>
       </c>
       <c r="F22">
-        <v>0.7304680593944068</v>
+        <v>0.7304680593944028</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9938627208162626</v>
+        <v>0.9938627208162616</v>
       </c>
       <c r="J22">
-        <v>0.7676075984224998</v>
+        <v>0.7676075984224962</v>
       </c>
       <c r="K22">
-        <v>0.7763804725769461</v>
+        <v>0.7763804725769429</v>
       </c>
       <c r="L22">
-        <v>0.7872996178021169</v>
+        <v>0.7872996178021132</v>
       </c>
       <c r="M22">
-        <v>0.7533152243287619</v>
+        <v>0.7533152243287581</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7188084246521275</v>
+        <v>0.7188084246521235</v>
       </c>
       <c r="D23">
-        <v>0.7545639218012825</v>
+        <v>0.7545639218012788</v>
       </c>
       <c r="E23">
-        <v>0.7659377831728785</v>
+        <v>0.7659377831728746</v>
       </c>
       <c r="F23">
-        <v>0.7304680593944068</v>
+        <v>0.7304680593944028</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9938627208162626</v>
+        <v>0.9938627208162616</v>
       </c>
       <c r="J23">
-        <v>0.7676075984224998</v>
+        <v>0.7676075984224962</v>
       </c>
       <c r="K23">
-        <v>0.7763804725769461</v>
+        <v>0.7763804725769429</v>
       </c>
       <c r="L23">
-        <v>0.7872996178021169</v>
+        <v>0.7872996178021132</v>
       </c>
       <c r="M23">
-        <v>0.7533152243287619</v>
+        <v>0.7533152243287581</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7188084246521275</v>
+        <v>0.7188084246521235</v>
       </c>
       <c r="D24">
-        <v>0.7545639218012825</v>
+        <v>0.7545639218012788</v>
       </c>
       <c r="E24">
-        <v>0.7659377831728785</v>
+        <v>0.7659377831728746</v>
       </c>
       <c r="F24">
-        <v>0.7304680593944068</v>
+        <v>0.7304680593944028</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9938627208162626</v>
+        <v>0.9938627208162616</v>
       </c>
       <c r="J24">
-        <v>0.7676075984224998</v>
+        <v>0.7676075984224962</v>
       </c>
       <c r="K24">
-        <v>0.7763804725769461</v>
+        <v>0.7763804725769429</v>
       </c>
       <c r="L24">
-        <v>0.7872996178021169</v>
+        <v>0.7872996178021132</v>
       </c>
       <c r="M24">
-        <v>0.7533152243287619</v>
+        <v>0.7533152243287581</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7188084246521275</v>
+        <v>0.7188084246521235</v>
       </c>
       <c r="D25">
-        <v>0.7545639218012825</v>
+        <v>0.7545639218012788</v>
       </c>
       <c r="E25">
-        <v>0.7659377831728785</v>
+        <v>0.7659377831728746</v>
       </c>
       <c r="F25">
-        <v>0.7304680593944068</v>
+        <v>0.7304680593944028</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9938627208162626</v>
+        <v>0.9938627208162616</v>
       </c>
       <c r="J25">
-        <v>0.7676075984224998</v>
+        <v>0.7676075984224962</v>
       </c>
       <c r="K25">
-        <v>0.7763804725769461</v>
+        <v>0.7763804725769429</v>
       </c>
       <c r="L25">
-        <v>0.7872996178021169</v>
+        <v>0.7872996178021132</v>
       </c>
       <c r="M25">
-        <v>0.7533152243287619</v>
+        <v>0.7533152243287581</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8973414722850079</v>
+        <v>0.8973414722850049</v>
       </c>
       <c r="D2">
-        <v>0.91344331514715</v>
+        <v>0.9134433151471469</v>
       </c>
       <c r="E2">
-        <v>0.9173651546217489</v>
+        <v>0.9173651546217462</v>
       </c>
       <c r="F2">
-        <v>0.9057036879511069</v>
+        <v>0.9057036879511038</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028144740797517</v>
+        <v>1.028144740797516</v>
       </c>
       <c r="J2">
-        <v>0.9230954600584229</v>
+        <v>0.92309546005842</v>
       </c>
       <c r="K2">
-        <v>0.926256497472124</v>
+        <v>0.9262564974721212</v>
       </c>
       <c r="L2">
-        <v>0.9301098448640291</v>
+        <v>0.9301098448640261</v>
       </c>
       <c r="M2">
-        <v>0.9186542983764207</v>
+        <v>0.9186542983764175</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9194967600991003</v>
+        <v>0.9194967600990996</v>
       </c>
       <c r="D3">
-        <v>0.9333897191556143</v>
+        <v>0.9333897191556138</v>
       </c>
       <c r="E3">
-        <v>0.9364308062654252</v>
+        <v>0.9364308062654246</v>
       </c>
       <c r="F3">
-        <v>0.927665106527911</v>
+        <v>0.9276651065279103</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.032457438349522</v>
       </c>
       <c r="J3">
-        <v>0.9424515825236872</v>
+        <v>0.9424515825236864</v>
       </c>
       <c r="K3">
-        <v>0.9449523435967687</v>
+        <v>0.9449523435967684</v>
       </c>
       <c r="L3">
-        <v>0.9479473149783613</v>
+        <v>0.9479473149783605</v>
       </c>
       <c r="M3">
-        <v>0.93931558783471</v>
+        <v>0.9393155878347094</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,13 +497,13 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9324772345327788</v>
+        <v>0.9324772345327792</v>
       </c>
       <c r="D4">
-        <v>0.9450924196164666</v>
+        <v>0.9450924196164672</v>
       </c>
       <c r="E4">
-        <v>0.947622242935875</v>
+        <v>0.9476222429358754</v>
       </c>
       <c r="F4">
         <v>0.9405569043596299</v>
@@ -515,16 +515,16 @@
         <v>1.034951299338122</v>
       </c>
       <c r="J4">
-        <v>0.9537814602183756</v>
+        <v>0.9537814602183762</v>
       </c>
       <c r="K4">
-        <v>0.955902045083195</v>
+        <v>0.9559020450831953</v>
       </c>
       <c r="L4">
-        <v>0.9583968183084799</v>
+        <v>0.9583968183084804</v>
       </c>
       <c r="M4">
-        <v>0.9514299645991754</v>
+        <v>0.9514299645991757</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -538,10 +538,10 @@
         <v>0.9376658227013205</v>
       </c>
       <c r="D5">
-        <v>0.9497734252496974</v>
+        <v>0.9497734252496973</v>
       </c>
       <c r="E5">
-        <v>0.9520999025230769</v>
+        <v>0.9520999025230766</v>
       </c>
       <c r="F5">
         <v>0.9457154896418183</v>
@@ -553,16 +553,16 @@
         <v>1.035939067365254</v>
       </c>
       <c r="J5">
-        <v>0.9583072551846123</v>
+        <v>0.9583072551846125</v>
       </c>
       <c r="K5">
-        <v>0.9602774315159578</v>
+        <v>0.9602774315159576</v>
       </c>
       <c r="L5">
-        <v>0.9625728765883008</v>
+        <v>0.9625728765883009</v>
       </c>
       <c r="M5">
-        <v>0.956274083041636</v>
+        <v>0.9562740830416359</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9385225861253503</v>
+        <v>0.9385225861253477</v>
       </c>
       <c r="D6">
-        <v>0.9505465432846721</v>
+        <v>0.9505465432846698</v>
       </c>
       <c r="E6">
-        <v>0.9528395001384767</v>
+        <v>0.9528395001384745</v>
       </c>
       <c r="F6">
-        <v>0.9465676069505214</v>
+        <v>0.946567606950519</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.036101606932731</v>
       </c>
       <c r="J6">
-        <v>0.9590543865316871</v>
+        <v>0.9590543865316845</v>
       </c>
       <c r="K6">
-        <v>0.9609998174070153</v>
+        <v>0.960999817407013</v>
       </c>
       <c r="L6">
-        <v>0.96326238367046</v>
+        <v>0.9632623836704578</v>
       </c>
       <c r="M6">
-        <v>0.9570740565285154</v>
+        <v>0.9570740565285129</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9325475579274564</v>
+        <v>0.9325475579274578</v>
       </c>
       <c r="D7">
-        <v>0.9451558516474378</v>
+        <v>0.9451558516474396</v>
       </c>
       <c r="E7">
-        <v>0.9476829149853691</v>
+        <v>0.9476829149853708</v>
       </c>
       <c r="F7">
-        <v>0.9406267999085756</v>
+        <v>0.9406267999085773</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034964724808487</v>
+        <v>1.034964724808488</v>
       </c>
       <c r="J7">
-        <v>0.9538428130517558</v>
+        <v>0.9538428130517577</v>
       </c>
       <c r="K7">
-        <v>0.9559613531735817</v>
+        <v>0.9559613531735833</v>
       </c>
       <c r="L7">
-        <v>0.9584534224007911</v>
+        <v>0.9584534224007927</v>
       </c>
       <c r="M7">
-        <v>0.9514956128462206</v>
+        <v>0.9514956128462222</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,16 +649,16 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9051498092296038</v>
+        <v>0.9051498092296055</v>
       </c>
       <c r="D8">
-        <v>0.9204689599594049</v>
+        <v>0.9204689599594069</v>
       </c>
       <c r="E8">
-        <v>0.9240792446702665</v>
+        <v>0.9240792446702685</v>
       </c>
       <c r="F8">
-        <v>0.9134377859249592</v>
+        <v>0.9134377859249615</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>1.029671079625921</v>
       </c>
       <c r="J8">
-        <v>0.9299192517323995</v>
+        <v>0.9299192517324013</v>
       </c>
       <c r="K8">
-        <v>0.9328460758044114</v>
+        <v>0.9328460758044134</v>
       </c>
       <c r="L8">
-        <v>0.9363962713172317</v>
+        <v>0.9363962713172337</v>
       </c>
       <c r="M8">
-        <v>0.9259336887948834</v>
+        <v>0.9259336887948857</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8422773561314542</v>
+        <v>0.8422773561314537</v>
       </c>
       <c r="D9">
-        <v>0.8640455707891072</v>
+        <v>0.8640455707891066</v>
       </c>
       <c r="E9">
-        <v>0.8701987025740022</v>
+        <v>0.870198702574002</v>
       </c>
       <c r="F9">
-        <v>0.8513337742799681</v>
+        <v>0.8513337742799678</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.017304896171681</v>
       </c>
       <c r="J9">
-        <v>0.8749609191281212</v>
+        <v>0.8749609191281209</v>
       </c>
       <c r="K9">
-        <v>0.8798109660088254</v>
+        <v>0.879810966008825</v>
       </c>
       <c r="L9">
-        <v>0.8858189751258952</v>
+        <v>0.8858189751258947</v>
       </c>
       <c r="M9">
-        <v>0.8674079366028246</v>
+        <v>0.8674079366028239</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,16 +725,16 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7765316484715483</v>
+        <v>0.7765316484715507</v>
       </c>
       <c r="D10">
-        <v>0.8054808414918385</v>
+        <v>0.8054808414918405</v>
       </c>
       <c r="E10">
-        <v>0.8143755980432175</v>
+        <v>0.8143755980432194</v>
       </c>
       <c r="F10">
-        <v>0.786789457024316</v>
+        <v>0.7867894570243184</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.004547530111936</v>
       </c>
       <c r="J10">
-        <v>0.8176232674508249</v>
+        <v>0.8176232674508273</v>
       </c>
       <c r="K10">
-        <v>0.8245484222752248</v>
+        <v>0.8245484222752272</v>
       </c>
       <c r="L10">
-        <v>0.8331603773124109</v>
+        <v>0.8331603773124128</v>
       </c>
       <c r="M10">
-        <v>0.8064804610394354</v>
+        <v>0.8064804610394375</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7268116544731305</v>
+        <v>0.7268116544731272</v>
       </c>
       <c r="D11">
-        <v>0.7615894397609576</v>
+        <v>0.7615894397609544</v>
       </c>
       <c r="E11">
-        <v>0.7726153783779344</v>
+        <v>0.7726153783779314</v>
       </c>
       <c r="F11">
-        <v>0.7382558886041536</v>
+        <v>0.7382558886041503</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9953047471734796</v>
+        <v>0.9953047471734793</v>
       </c>
       <c r="J11">
-        <v>0.7745159620852456</v>
+        <v>0.7745159620852426</v>
       </c>
       <c r="K11">
-        <v>0.7830320368199697</v>
+        <v>0.7830320368199667</v>
       </c>
       <c r="L11">
-        <v>0.7936303529489722</v>
+        <v>0.7936303529489696</v>
       </c>
       <c r="M11">
-        <v>0.7606637983408718</v>
+        <v>0.7606637983408687</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6915557464983932</v>
+        <v>0.6915557464983914</v>
       </c>
       <c r="D12">
-        <v>0.7307364354343296</v>
+        <v>0.7307364354343279</v>
       </c>
       <c r="E12">
-        <v>0.7433055916984794</v>
+        <v>0.7433055916984779</v>
       </c>
       <c r="F12">
-        <v>0.7040048753114312</v>
+        <v>0.7040048753114292</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9890644994096367</v>
+        <v>0.9890644994096366</v>
       </c>
       <c r="J12">
-        <v>0.744162947748047</v>
+        <v>0.7441629477480453</v>
       </c>
       <c r="K12">
-        <v>0.7538104062402089</v>
+        <v>0.7538104062402076</v>
       </c>
       <c r="L12">
-        <v>0.7658238910730512</v>
+        <v>0.7658238910730496</v>
       </c>
       <c r="M12">
-        <v>0.7283566808792911</v>
+        <v>0.7283566808792892</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7016475233521492</v>
+        <v>0.7016475233521516</v>
       </c>
       <c r="D13">
-        <v>0.7395417365156021</v>
+        <v>0.7395417365156042</v>
       </c>
       <c r="E13">
-        <v>0.7516663463900504</v>
+        <v>0.7516663463900525</v>
       </c>
       <c r="F13">
-        <v>0.7137938530452114</v>
+        <v>0.7137938530452136</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9908202026367198</v>
+        <v>0.9908202026367201</v>
       </c>
       <c r="J13">
-        <v>0.7528292607128625</v>
+        <v>0.7528292607128647</v>
       </c>
       <c r="K13">
-        <v>0.762152904603606</v>
+        <v>0.762152904603608</v>
       </c>
       <c r="L13">
-        <v>0.7737608415108131</v>
+        <v>0.7737608415108151</v>
       </c>
       <c r="M13">
-        <v>0.737586617740754</v>
+        <v>0.7375866177407564</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7246314156046942</v>
+        <v>0.724631415604693</v>
       </c>
       <c r="D14">
-        <v>0.7596743591130577</v>
+        <v>0.7596743591130568</v>
       </c>
       <c r="E14">
-        <v>0.7707949416721751</v>
+        <v>0.7707949416721743</v>
       </c>
       <c r="F14">
-        <v>0.7361336205204215</v>
+        <v>0.7361336205204205</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9949105135980093</v>
+        <v>0.994910513598009</v>
       </c>
       <c r="J14">
-        <v>0.7726330219628365</v>
+        <v>0.7726330219628356</v>
       </c>
       <c r="K14">
-        <v>0.7812190454075013</v>
+        <v>0.7812190454075003</v>
       </c>
       <c r="L14">
-        <v>0.7919047350801695</v>
+        <v>0.7919047350801688</v>
       </c>
       <c r="M14">
-        <v>0.7586611000743694</v>
+        <v>0.758661100074368</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7353301969245341</v>
+        <v>0.7353301969245361</v>
       </c>
       <c r="D15">
-        <v>0.7690802536239865</v>
+        <v>0.7690802536239882</v>
       </c>
       <c r="E15">
-        <v>0.779737380025635</v>
+        <v>0.7797373800256362</v>
       </c>
       <c r="F15">
-        <v>0.7465529192522012</v>
+        <v>0.7465529192522031</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.996854797056544</v>
+        <v>0.9968547970565439</v>
       </c>
       <c r="J15">
-        <v>0.7818795301531571</v>
+        <v>0.7818795301531589</v>
       </c>
       <c r="K15">
-        <v>0.7901223904586496</v>
+        <v>0.7901223904586515</v>
       </c>
       <c r="L15">
-        <v>0.8003795234688337</v>
+        <v>0.8003795234688351</v>
       </c>
       <c r="M15">
-        <v>0.7684942212800955</v>
+        <v>0.7684942212800975</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7790363141030111</v>
+        <v>0.7790363141030128</v>
       </c>
       <c r="D16">
-        <v>0.8077019377732951</v>
+        <v>0.8077019377732967</v>
       </c>
       <c r="E16">
-        <v>0.8164906805051318</v>
+        <v>0.8164906805051331</v>
       </c>
       <c r="F16">
-        <v>0.789240905488762</v>
+        <v>0.7892409054887639</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.005024365246814</v>
       </c>
       <c r="J16">
-        <v>0.8198019889894866</v>
+        <v>0.8198019889894883</v>
       </c>
       <c r="K16">
-        <v>0.8266473390848958</v>
+        <v>0.8266473390848976</v>
       </c>
       <c r="L16">
-        <v>0.8351595789294785</v>
+        <v>0.8351595789294797</v>
       </c>
       <c r="M16">
-        <v>0.8087951240333304</v>
+        <v>0.8087951240333321</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7989882241227969</v>
+        <v>0.7989882241228006</v>
       </c>
       <c r="D17">
-        <v>0.8254252941902318</v>
+        <v>0.8254252941902354</v>
       </c>
       <c r="E17">
-        <v>0.8333740277695171</v>
+        <v>0.8333740277695205</v>
       </c>
       <c r="F17">
-        <v>0.8087902620325395</v>
+        <v>0.8087902620325431</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.008853731792835</v>
+        <v>1.008853731792836</v>
       </c>
       <c r="J17">
-        <v>0.8371764842408332</v>
+        <v>0.8371764842408369</v>
       </c>
       <c r="K17">
-        <v>0.8433878604370846</v>
+        <v>0.8433878604370881</v>
       </c>
       <c r="L17">
-        <v>0.8511071337114214</v>
+        <v>0.8511071337114248</v>
       </c>
       <c r="M17">
-        <v>0.8272532172424163</v>
+        <v>0.8272532172424201</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8092117404247668</v>
+        <v>0.8092117404247677</v>
       </c>
       <c r="D18">
-        <v>0.8345266514622767</v>
+        <v>0.8345266514622774</v>
       </c>
       <c r="E18">
-        <v>0.8420480164566275</v>
+        <v>0.8420480164566284</v>
       </c>
       <c r="F18">
-        <v>0.818822016360124</v>
+        <v>0.8188220163601254</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010834729026522</v>
+        <v>1.010834729026523</v>
       </c>
       <c r="J18">
-        <v>0.8460907766455291</v>
+        <v>0.8460907766455301</v>
       </c>
       <c r="K18">
-        <v>0.8519786915314225</v>
+        <v>0.8519786915314235</v>
       </c>
       <c r="L18">
-        <v>0.8592926262907078</v>
+        <v>0.8592926262907086</v>
       </c>
       <c r="M18">
-        <v>0.8367240582940053</v>
+        <v>0.8367240582940065</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8125121132367749</v>
+        <v>0.8125121132367752</v>
       </c>
       <c r="D19">
-        <v>0.8374674710804092</v>
+        <v>0.8374674710804095</v>
       </c>
       <c r="E19">
-        <v>0.8448513109115309</v>
+        <v>0.8448513109115312</v>
       </c>
       <c r="F19">
-        <v>0.8220625611369073</v>
+        <v>0.8220625611369082</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.011476572631804</v>
       </c>
       <c r="J19">
-        <v>0.8489699242598858</v>
+        <v>0.8489699242598865</v>
       </c>
       <c r="K19">
-        <v>0.8547536495802588</v>
+        <v>0.854753649580259</v>
       </c>
       <c r="L19">
-        <v>0.8619368823847848</v>
+        <v>0.8619368823847853</v>
       </c>
       <c r="M19">
-        <v>0.8397831844878073</v>
+        <v>0.839783184487808</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.7970087413701409</v>
+        <v>0.797008741370137</v>
       </c>
       <c r="D20">
-        <v>0.8236645859682751</v>
+        <v>0.8236645859682716</v>
       </c>
       <c r="E20">
-        <v>0.8316963051866129</v>
+        <v>0.8316963051866093</v>
       </c>
       <c r="F20">
-        <v>0.8068490369761746</v>
+        <v>0.8068490369761707</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.008471531904948</v>
       </c>
       <c r="J20">
-        <v>0.8354513221488095</v>
+        <v>0.8354513221488058</v>
       </c>
       <c r="K20">
-        <v>0.8417254445040133</v>
+        <v>0.8417254445040099</v>
       </c>
       <c r="L20">
-        <v>0.8495232789066518</v>
+        <v>0.8495232789066481</v>
       </c>
       <c r="M20">
-        <v>0.825420433731029</v>
+        <v>0.8254204337310256</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7188084246521235</v>
+        <v>0.7188084246521275</v>
       </c>
       <c r="D21">
-        <v>0.7545639218012788</v>
+        <v>0.7545639218012825</v>
       </c>
       <c r="E21">
-        <v>0.7659377831728746</v>
+        <v>0.7659377831728785</v>
       </c>
       <c r="F21">
-        <v>0.7304680593944028</v>
+        <v>0.7304680593944068</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9938627208162616</v>
+        <v>0.9938627208162626</v>
       </c>
       <c r="J21">
-        <v>0.7676075984224962</v>
+        <v>0.7676075984224998</v>
       </c>
       <c r="K21">
-        <v>0.7763804725769429</v>
+        <v>0.7763804725769461</v>
       </c>
       <c r="L21">
-        <v>0.7872996178021132</v>
+        <v>0.7872996178021169</v>
       </c>
       <c r="M21">
-        <v>0.7533152243287581</v>
+        <v>0.7533152243287619</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7188084246521235</v>
+        <v>0.7188084246521275</v>
       </c>
       <c r="D22">
-        <v>0.7545639218012788</v>
+        <v>0.7545639218012825</v>
       </c>
       <c r="E22">
-        <v>0.7659377831728746</v>
+        <v>0.7659377831728785</v>
       </c>
       <c r="F22">
-        <v>0.7304680593944028</v>
+        <v>0.7304680593944068</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9938627208162616</v>
+        <v>0.9938627208162626</v>
       </c>
       <c r="J22">
-        <v>0.7676075984224962</v>
+        <v>0.7676075984224998</v>
       </c>
       <c r="K22">
-        <v>0.7763804725769429</v>
+        <v>0.7763804725769461</v>
       </c>
       <c r="L22">
-        <v>0.7872996178021132</v>
+        <v>0.7872996178021169</v>
       </c>
       <c r="M22">
-        <v>0.7533152243287581</v>
+        <v>0.7533152243287619</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7188084246521235</v>
+        <v>0.7188084246521275</v>
       </c>
       <c r="D23">
-        <v>0.7545639218012788</v>
+        <v>0.7545639218012825</v>
       </c>
       <c r="E23">
-        <v>0.7659377831728746</v>
+        <v>0.7659377831728785</v>
       </c>
       <c r="F23">
-        <v>0.7304680593944028</v>
+        <v>0.7304680593944068</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9938627208162616</v>
+        <v>0.9938627208162626</v>
       </c>
       <c r="J23">
-        <v>0.7676075984224962</v>
+        <v>0.7676075984224998</v>
       </c>
       <c r="K23">
-        <v>0.7763804725769429</v>
+        <v>0.7763804725769461</v>
       </c>
       <c r="L23">
-        <v>0.7872996178021132</v>
+        <v>0.7872996178021169</v>
       </c>
       <c r="M23">
-        <v>0.7533152243287581</v>
+        <v>0.7533152243287619</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7188084246521235</v>
+        <v>0.7188084246521275</v>
       </c>
       <c r="D24">
-        <v>0.7545639218012788</v>
+        <v>0.7545639218012825</v>
       </c>
       <c r="E24">
-        <v>0.7659377831728746</v>
+        <v>0.7659377831728785</v>
       </c>
       <c r="F24">
-        <v>0.7304680593944028</v>
+        <v>0.7304680593944068</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9938627208162616</v>
+        <v>0.9938627208162626</v>
       </c>
       <c r="J24">
-        <v>0.7676075984224962</v>
+        <v>0.7676075984224998</v>
       </c>
       <c r="K24">
-        <v>0.7763804725769429</v>
+        <v>0.7763804725769461</v>
       </c>
       <c r="L24">
-        <v>0.7872996178021132</v>
+        <v>0.7872996178021169</v>
       </c>
       <c r="M24">
-        <v>0.7533152243287581</v>
+        <v>0.7533152243287619</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7188084246521235</v>
+        <v>0.7188084246521275</v>
       </c>
       <c r="D25">
-        <v>0.7545639218012788</v>
+        <v>0.7545639218012825</v>
       </c>
       <c r="E25">
-        <v>0.7659377831728746</v>
+        <v>0.7659377831728785</v>
       </c>
       <c r="F25">
-        <v>0.7304680593944028</v>
+        <v>0.7304680593944068</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9938627208162616</v>
+        <v>0.9938627208162626</v>
       </c>
       <c r="J25">
-        <v>0.7676075984224962</v>
+        <v>0.7676075984224998</v>
       </c>
       <c r="K25">
-        <v>0.7763804725769429</v>
+        <v>0.7763804725769461</v>
       </c>
       <c r="L25">
-        <v>0.7872996178021132</v>
+        <v>0.7872996178021169</v>
       </c>
       <c r="M25">
-        <v>0.7533152243287581</v>
+        <v>0.7533152243287619</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.8973414722850049</v>
+        <v>0.9012820936580068</v>
       </c>
       <c r="D2">
-        <v>0.9134433151471469</v>
+        <v>0.9170669119048299</v>
       </c>
       <c r="E2">
-        <v>0.9173651546217462</v>
+        <v>0.9207845327675894</v>
       </c>
       <c r="F2">
-        <v>0.9057036879511038</v>
+        <v>0.9094907705285099</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028144740797516</v>
+        <v>1.028729219882775</v>
       </c>
       <c r="J2">
-        <v>0.92309546005842</v>
+        <v>0.9268775439651176</v>
       </c>
       <c r="K2">
-        <v>0.9262564974721212</v>
+        <v>0.9298167840998142</v>
       </c>
       <c r="L2">
-        <v>0.9301098448640261</v>
+        <v>0.9334701216047111</v>
       </c>
       <c r="M2">
-        <v>0.9186542983764175</v>
+        <v>0.922373756695552</v>
+      </c>
+      <c r="N2">
+        <v>0.9281938163918879</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9194967600990996</v>
+        <v>0.9232859824658755</v>
       </c>
       <c r="D3">
-        <v>0.9333897191556138</v>
+        <v>0.9368834168117518</v>
       </c>
       <c r="E3">
-        <v>0.9364308062654246</v>
+        <v>0.9397263887182963</v>
       </c>
       <c r="F3">
-        <v>0.9276651065279103</v>
+        <v>0.9313036360750886</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032457438349522</v>
+        <v>1.033014415830445</v>
       </c>
       <c r="J3">
-        <v>0.9424515825236864</v>
+        <v>0.9461113535974627</v>
       </c>
       <c r="K3">
-        <v>0.9449523435967684</v>
+        <v>0.9483930946316769</v>
       </c>
       <c r="L3">
-        <v>0.9479473149783605</v>
+        <v>0.9511933512747487</v>
       </c>
       <c r="M3">
-        <v>0.9393155878347094</v>
+        <v>0.9428981165123748</v>
+      </c>
+      <c r="N3">
+        <v>0.9474549402400603</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9324772345327792</v>
+        <v>0.9361923126464609</v>
       </c>
       <c r="D4">
-        <v>0.9450924196164672</v>
+        <v>0.9485226853479759</v>
       </c>
       <c r="E4">
-        <v>0.9476222429358754</v>
+        <v>0.950857320552403</v>
       </c>
       <c r="F4">
-        <v>0.9405569043596299</v>
+        <v>0.9441224461130584</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034951299338122</v>
+        <v>1.035494702184601</v>
       </c>
       <c r="J4">
-        <v>0.9537814602183762</v>
+        <v>0.9573821295178282</v>
       </c>
       <c r="K4">
-        <v>0.9559020450831953</v>
+        <v>0.9592848421708116</v>
       </c>
       <c r="L4">
-        <v>0.9583968183084804</v>
+        <v>0.9615874169738752</v>
       </c>
       <c r="M4">
-        <v>0.9514299645991757</v>
+        <v>0.9549455731958095</v>
+      </c>
+      <c r="N4">
+        <v>0.9587417219550087</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9376658227013205</v>
+        <v>0.9413538812370954</v>
       </c>
       <c r="D5">
-        <v>0.9497734252496973</v>
+        <v>0.9531806176019334</v>
       </c>
       <c r="E5">
-        <v>0.9520999025230766</v>
+        <v>0.9553129604668141</v>
       </c>
       <c r="F5">
-        <v>0.9457154896418183</v>
+        <v>0.9492543810806569</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035939067365254</v>
+        <v>1.036477508717604</v>
       </c>
       <c r="J5">
-        <v>0.9583072551846125</v>
+        <v>0.9618865648980549</v>
       </c>
       <c r="K5">
-        <v>0.9602774315159576</v>
+        <v>0.9636392409874751</v>
       </c>
       <c r="L5">
-        <v>0.9625728765883009</v>
+        <v>0.9657433881736777</v>
       </c>
       <c r="M5">
-        <v>0.9562740830416359</v>
+        <v>0.9597653367981525</v>
+      </c>
+      <c r="N5">
+        <v>0.9632525541501411</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9385225861253477</v>
+        <v>0.9422063183001692</v>
       </c>
       <c r="D6">
-        <v>0.9505465432846698</v>
+        <v>0.9539500436237015</v>
       </c>
       <c r="E6">
-        <v>0.9528395001384745</v>
+        <v>0.9560490340616484</v>
       </c>
       <c r="F6">
-        <v>0.946567606950519</v>
+        <v>0.9501022281620531</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036101606932731</v>
+        <v>1.036639253263153</v>
       </c>
       <c r="J6">
-        <v>0.9590543865316845</v>
+        <v>0.9626302864424273</v>
       </c>
       <c r="K6">
-        <v>0.960999817407013</v>
+        <v>0.9643582739907655</v>
       </c>
       <c r="L6">
-        <v>0.9632623836704578</v>
+        <v>0.9664296856305871</v>
       </c>
       <c r="M6">
-        <v>0.9570740565285129</v>
+        <v>0.9605614124848207</v>
+      </c>
+      <c r="N6">
+        <v>0.9639973318644128</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9325475579274578</v>
+        <v>0.9362622602566488</v>
       </c>
       <c r="D7">
-        <v>0.9451558516474396</v>
+        <v>0.9485857963035298</v>
       </c>
       <c r="E7">
-        <v>0.9476829149853708</v>
+        <v>0.9509176862329168</v>
       </c>
       <c r="F7">
-        <v>0.9406267999085773</v>
+        <v>0.9441919712242154</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034964724808488</v>
+        <v>1.035508058698515</v>
       </c>
       <c r="J7">
-        <v>0.9538428130517577</v>
+        <v>0.9574431845611683</v>
       </c>
       <c r="K7">
-        <v>0.9559613531735833</v>
+        <v>0.9593438578312614</v>
       </c>
       <c r="L7">
-        <v>0.9584534224007927</v>
+        <v>0.9616437412267255</v>
       </c>
       <c r="M7">
-        <v>0.9514956128462222</v>
+        <v>0.9550108825871991</v>
+      </c>
+      <c r="N7">
+        <v>0.9588028637035136</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9051498092296055</v>
+        <v>0.9090331373633712</v>
       </c>
       <c r="D8">
-        <v>0.9204689599594069</v>
+        <v>0.9240433527173614</v>
       </c>
       <c r="E8">
-        <v>0.9240792446702685</v>
+        <v>0.9274517455260749</v>
       </c>
       <c r="F8">
-        <v>0.9134377859249615</v>
+        <v>0.9171687155409439</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029671079625921</v>
+        <v>1.030245186905923</v>
       </c>
       <c r="J8">
-        <v>0.9299192517324013</v>
+        <v>0.933654839164259</v>
       </c>
       <c r="K8">
-        <v>0.9328460758044134</v>
+        <v>0.9363609737715998</v>
       </c>
       <c r="L8">
-        <v>0.9363962713172337</v>
+        <v>0.9397131840613432</v>
       </c>
       <c r="M8">
-        <v>0.9259336887948857</v>
+        <v>0.9296012942249156</v>
+      </c>
+      <c r="N8">
+        <v>0.9349807361275794</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8422773561314537</v>
+        <v>0.8467903562429783</v>
       </c>
       <c r="D9">
-        <v>0.8640455707891066</v>
+        <v>0.8681623015913157</v>
       </c>
       <c r="E9">
-        <v>0.870198702574002</v>
+        <v>0.8740872632691803</v>
       </c>
       <c r="F9">
-        <v>0.8513337742799678</v>
+        <v>0.8556793728304067</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017304896171681</v>
+        <v>1.017990954593382</v>
       </c>
       <c r="J9">
-        <v>0.8749609191281209</v>
+        <v>0.879215333559817</v>
       </c>
       <c r="K9">
-        <v>0.879810966008825</v>
+        <v>0.8838302979230857</v>
       </c>
       <c r="L9">
-        <v>0.8858189751258947</v>
+        <v>0.8896172317296742</v>
       </c>
       <c r="M9">
-        <v>0.8674079366028239</v>
+        <v>0.8716465927630568</v>
+      </c>
+      <c r="N9">
+        <v>0.8804639201808804</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7765316484715507</v>
+        <v>0.7824972663241203</v>
       </c>
       <c r="D10">
-        <v>0.8054808414918405</v>
+        <v>0.8108523218249669</v>
       </c>
       <c r="E10">
-        <v>0.8143755980432194</v>
+        <v>0.8194557211197432</v>
       </c>
       <c r="F10">
-        <v>0.7867894570243184</v>
+        <v>0.7925444561012539</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.004547530111936</v>
+        <v>1.005482060766481</v>
       </c>
       <c r="J10">
-        <v>0.8176232674508273</v>
+        <v>0.8230986922083305</v>
       </c>
       <c r="K10">
-        <v>0.8245484222752272</v>
+        <v>0.829748093907169</v>
       </c>
       <c r="L10">
-        <v>0.8331603773124128</v>
+        <v>0.8380827796037699</v>
       </c>
       <c r="M10">
-        <v>0.8064804610394375</v>
+        <v>0.8120391447425608</v>
+      </c>
+      <c r="N10">
+        <v>0.8242675867620057</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7268116544731272</v>
+        <v>0.7356142467337687</v>
       </c>
       <c r="D11">
-        <v>0.7615894397609544</v>
+        <v>0.7694115839214405</v>
       </c>
       <c r="E11">
-        <v>0.7726153783779314</v>
+        <v>0.7800201031556353</v>
       </c>
       <c r="F11">
-        <v>0.7382558886041503</v>
+        <v>0.7467541157599094</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9953047471734793</v>
+        <v>0.9967112850636908</v>
       </c>
       <c r="J11">
-        <v>0.7745159620852426</v>
+        <v>0.7823952915948444</v>
       </c>
       <c r="K11">
-        <v>0.7830320368199667</v>
+        <v>0.7905490297175457</v>
       </c>
       <c r="L11">
-        <v>0.7936303529489696</v>
+        <v>0.8007574256009986</v>
       </c>
       <c r="M11">
-        <v>0.7606637983408687</v>
+        <v>0.768800508240592</v>
+      </c>
+      <c r="N11">
+        <v>0.7835063826509034</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.6915557464983914</v>
+        <v>0.7060022776632726</v>
       </c>
       <c r="D12">
-        <v>0.7307364354343279</v>
+        <v>0.743430747226811</v>
       </c>
       <c r="E12">
-        <v>0.7433055916984779</v>
+        <v>0.7553295428728578</v>
       </c>
       <c r="F12">
-        <v>0.7040048753114292</v>
+        <v>0.7179516060437031</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9890644994096366</v>
+        <v>0.9913971016285983</v>
       </c>
       <c r="J12">
-        <v>0.7441629477480453</v>
+        <v>0.7568364008868222</v>
       </c>
       <c r="K12">
-        <v>0.7538104062402076</v>
+        <v>0.7659436483053516</v>
       </c>
       <c r="L12">
-        <v>0.7658238910730496</v>
+        <v>0.7773408087422377</v>
       </c>
       <c r="M12">
-        <v>0.7283566808792892</v>
+        <v>0.7416196238628568</v>
+      </c>
+      <c r="N12">
+        <v>0.75791119538643</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7016475233521516</v>
+        <v>0.7138154986280569</v>
       </c>
       <c r="D13">
-        <v>0.7395417365156042</v>
+        <v>0.7502694295228092</v>
       </c>
       <c r="E13">
-        <v>0.7516663463900525</v>
+        <v>0.7618259338552025</v>
       </c>
       <c r="F13">
-        <v>0.7137938530452136</v>
+        <v>0.7255415844413992</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9908202026367201</v>
+        <v>0.9927798615498457</v>
       </c>
       <c r="J13">
-        <v>0.7528292607128647</v>
+        <v>0.7635666378172291</v>
       </c>
       <c r="K13">
-        <v>0.762152904603608</v>
+        <v>0.7724222416518857</v>
       </c>
       <c r="L13">
-        <v>0.7737608415108151</v>
+        <v>0.7835054032620505</v>
       </c>
       <c r="M13">
-        <v>0.7375866177407564</v>
+        <v>0.7487802924014989</v>
+      </c>
+      <c r="N13">
+        <v>0.7646509900252472</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.724631415604693</v>
+        <v>0.7336428364448189</v>
       </c>
       <c r="D14">
-        <v>0.7596743591130568</v>
+        <v>0.7676768409181622</v>
       </c>
       <c r="E14">
-        <v>0.7707949416721743</v>
+        <v>0.7783706745115762</v>
       </c>
       <c r="F14">
-        <v>0.7361336205204205</v>
+        <v>0.744833577905138</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.994910513598009</v>
+        <v>0.9963515060101574</v>
       </c>
       <c r="J14">
-        <v>0.7726330219628356</v>
+        <v>0.7806895969704771</v>
       </c>
       <c r="K14">
-        <v>0.7812190454075003</v>
+        <v>0.7889067788881059</v>
       </c>
       <c r="L14">
-        <v>0.7919047350801688</v>
+        <v>0.7991942023483767</v>
       </c>
       <c r="M14">
-        <v>0.758661100074368</v>
+        <v>0.7669875339896548</v>
+      </c>
+      <c r="N14">
+        <v>0.7817982657445237</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7353301969245361</v>
+        <v>0.7434149599920329</v>
       </c>
       <c r="D15">
-        <v>0.7690802536239882</v>
+        <v>0.7762824488879216</v>
       </c>
       <c r="E15">
-        <v>0.7797373800256362</v>
+        <v>0.7865541908867919</v>
       </c>
       <c r="F15">
-        <v>0.7465529192522031</v>
+        <v>0.7543575726312551</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9968547970565439</v>
+        <v>0.998142690256228</v>
       </c>
       <c r="J15">
-        <v>0.7818795301531589</v>
+        <v>0.789149780081723</v>
       </c>
       <c r="K15">
-        <v>0.7901223904586515</v>
+        <v>0.7970525735138723</v>
       </c>
       <c r="L15">
-        <v>0.8003795234688351</v>
+        <v>0.8069484379016129</v>
       </c>
       <c r="M15">
-        <v>0.7684942212800975</v>
+        <v>0.7759787292153613</v>
+      </c>
+      <c r="N15">
+        <v>0.7902704632861839</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7790363141030128</v>
+        <v>0.7849174391879169</v>
       </c>
       <c r="D16">
-        <v>0.8077019377732967</v>
+        <v>0.8130004128583977</v>
       </c>
       <c r="E16">
-        <v>0.8164906805051331</v>
+        <v>0.8215015179956016</v>
       </c>
       <c r="F16">
-        <v>0.7892409054887639</v>
+        <v>0.7949140755639105</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.005024365246814</v>
+        <v>1.005944650386003</v>
       </c>
       <c r="J16">
-        <v>0.8198019889894883</v>
+        <v>0.8252060457935647</v>
       </c>
       <c r="K16">
-        <v>0.8266473390848976</v>
+        <v>0.8317781294891461</v>
       </c>
       <c r="L16">
-        <v>0.8351595789294797</v>
+        <v>0.8400164174612607</v>
       </c>
       <c r="M16">
-        <v>0.8087951240333321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8142770123572435</v>
+      </c>
+      <c r="N16">
+        <v>0.826377933031048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.7989882241228006</v>
+        <v>0.8043023135774547</v>
       </c>
       <c r="D17">
-        <v>0.8254252941902354</v>
+        <v>0.8302338426222237</v>
       </c>
       <c r="E17">
-        <v>0.8333740277695205</v>
+        <v>0.8379197950188118</v>
       </c>
       <c r="F17">
-        <v>0.8087902620325431</v>
+        <v>0.8139139057919536</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.008853731792836</v>
+        <v>1.009677888550618</v>
       </c>
       <c r="J17">
-        <v>0.8371764842408369</v>
+        <v>0.8421023665246442</v>
       </c>
       <c r="K17">
-        <v>0.8433878604370881</v>
+        <v>0.8480568788165846</v>
       </c>
       <c r="L17">
-        <v>0.8511071337114248</v>
+        <v>0.8555243476188666</v>
       </c>
       <c r="M17">
-        <v>0.8272532172424201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8322197356158648</v>
+      </c>
+      <c r="N17">
+        <v>0.8432982484756008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8092117404247677</v>
+        <v>0.8142935466752763</v>
       </c>
       <c r="D18">
-        <v>0.8345266514622774</v>
+        <v>0.8391345324074735</v>
       </c>
       <c r="E18">
-        <v>0.8420480164566284</v>
+        <v>0.846403229416524</v>
       </c>
       <c r="F18">
-        <v>0.8188220163601254</v>
+        <v>0.8237203154807067</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.010834729026523</v>
+        <v>1.011619179658756</v>
       </c>
       <c r="J18">
-        <v>0.8460907766455301</v>
+        <v>0.8508213088231406</v>
       </c>
       <c r="K18">
-        <v>0.8519786915314235</v>
+        <v>0.8564588912660155</v>
       </c>
       <c r="L18">
-        <v>0.8592926262907086</v>
+        <v>0.8635300181171619</v>
       </c>
       <c r="M18">
-        <v>0.8367240582940065</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8414794771303999</v>
+      </c>
+      <c r="N18">
+        <v>0.8520295726722377</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8125121132367752</v>
+        <v>0.8175256523139829</v>
       </c>
       <c r="D19">
-        <v>0.8374674710804095</v>
+        <v>0.8420163832226434</v>
       </c>
       <c r="E19">
-        <v>0.8448513109115312</v>
+        <v>0.8491505173951093</v>
       </c>
       <c r="F19">
-        <v>0.8220625611369082</v>
+        <v>0.8268945992477326</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011476572631804</v>
+        <v>1.012249308833997</v>
       </c>
       <c r="J19">
-        <v>0.8489699242598865</v>
+        <v>0.8536431237048602</v>
       </c>
       <c r="K19">
-        <v>0.854753649580259</v>
+        <v>0.8591784089107206</v>
       </c>
       <c r="L19">
-        <v>0.8619368823847853</v>
+        <v>0.8661214668921068</v>
       </c>
       <c r="M19">
-        <v>0.839783184487808</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.844476566619756</v>
+      </c>
+      <c r="N19">
+        <v>0.8548553948547558</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.797008741370137</v>
+        <v>0.8023718197057911</v>
       </c>
       <c r="D20">
-        <v>0.8236645859682716</v>
+        <v>0.8285154587546685</v>
       </c>
       <c r="E20">
-        <v>0.8316963051866093</v>
+        <v>0.8362822579652595</v>
       </c>
       <c r="F20">
-        <v>0.8068490369761707</v>
+        <v>0.8120201863363398</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.008471531904948</v>
+        <v>1.009304035244338</v>
       </c>
       <c r="J20">
-        <v>0.8354513221488058</v>
+        <v>0.8404184509298992</v>
       </c>
       <c r="K20">
-        <v>0.8417254445040099</v>
+        <v>0.846434315655904</v>
       </c>
       <c r="L20">
-        <v>0.8495232789066481</v>
+        <v>0.8539784416440551</v>
       </c>
       <c r="M20">
-        <v>0.8254204337310256</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8304314755888017</v>
+      </c>
+      <c r="N20">
+        <v>0.8416119415275632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7188084246521275</v>
+        <v>0.7284382748883603</v>
       </c>
       <c r="D21">
-        <v>0.7545639218012825</v>
+        <v>0.7631004208602193</v>
       </c>
       <c r="E21">
-        <v>0.7659377831728785</v>
+        <v>0.7740198830867351</v>
       </c>
       <c r="F21">
-        <v>0.7304680593944068</v>
+        <v>0.7397653332761659</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9938627208162626</v>
+        <v>0.9954056148848245</v>
       </c>
       <c r="J21">
-        <v>0.7676075984224998</v>
+        <v>0.7761891818909494</v>
       </c>
       <c r="K21">
-        <v>0.7763804725769461</v>
+        <v>0.7845738950364074</v>
       </c>
       <c r="L21">
-        <v>0.7872996178021169</v>
+        <v>0.79507003541876</v>
       </c>
       <c r="M21">
-        <v>0.7533152243287619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.7622034808162557</v>
+      </c>
+      <c r="N21">
+        <v>0.7772914595593784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7188084246521275</v>
+        <v>0.7284382748883603</v>
       </c>
       <c r="D22">
-        <v>0.7545639218012825</v>
+        <v>0.7631004208602193</v>
       </c>
       <c r="E22">
-        <v>0.7659377831728785</v>
+        <v>0.7740198830867351</v>
       </c>
       <c r="F22">
-        <v>0.7304680593944068</v>
+        <v>0.7397653332761659</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9938627208162626</v>
+        <v>0.9954056148848245</v>
       </c>
       <c r="J22">
-        <v>0.7676075984224998</v>
+        <v>0.7761891818909494</v>
       </c>
       <c r="K22">
-        <v>0.7763804725769461</v>
+        <v>0.7845738950364074</v>
       </c>
       <c r="L22">
-        <v>0.7872996178021169</v>
+        <v>0.79507003541876</v>
       </c>
       <c r="M22">
-        <v>0.7533152243287619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.7622034808162557</v>
+      </c>
+      <c r="N22">
+        <v>0.7772914595593784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7188084246521275</v>
+        <v>0.7284382748883603</v>
       </c>
       <c r="D23">
-        <v>0.7545639218012825</v>
+        <v>0.7631004208602193</v>
       </c>
       <c r="E23">
-        <v>0.7659377831728785</v>
+        <v>0.7740198830867351</v>
       </c>
       <c r="F23">
-        <v>0.7304680593944068</v>
+        <v>0.7397653332761659</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9938627208162626</v>
+        <v>0.9954056148848245</v>
       </c>
       <c r="J23">
-        <v>0.7676075984224998</v>
+        <v>0.7761891818909494</v>
       </c>
       <c r="K23">
-        <v>0.7763804725769461</v>
+        <v>0.7845738950364074</v>
       </c>
       <c r="L23">
-        <v>0.7872996178021169</v>
+        <v>0.79507003541876</v>
       </c>
       <c r="M23">
-        <v>0.7533152243287619</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.7622034808162557</v>
+      </c>
+      <c r="N23">
+        <v>0.7772914595593784</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7188084246521275</v>
+        <v>0.7284382748883603</v>
       </c>
       <c r="D24">
-        <v>0.7545639218012825</v>
+        <v>0.7631004208602193</v>
       </c>
       <c r="E24">
-        <v>0.7659377831728785</v>
+        <v>0.7740198830867351</v>
       </c>
       <c r="F24">
-        <v>0.7304680593944068</v>
+        <v>0.7397653332761659</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9938627208162626</v>
+        <v>0.9954056148848245</v>
       </c>
       <c r="J24">
-        <v>0.7676075984224998</v>
+        <v>0.7761891818909494</v>
       </c>
       <c r="K24">
-        <v>0.7763804725769461</v>
+        <v>0.7845738950364074</v>
       </c>
       <c r="L24">
-        <v>0.7872996178021169</v>
+        <v>0.79507003541876</v>
       </c>
       <c r="M24">
-        <v>0.7533152243287619</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.7622034808162557</v>
+      </c>
+      <c r="N24">
+        <v>0.7772914595593784</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7188084246521275</v>
+        <v>0.7284382748883603</v>
       </c>
       <c r="D25">
-        <v>0.7545639218012825</v>
+        <v>0.7631004208602193</v>
       </c>
       <c r="E25">
-        <v>0.7659377831728785</v>
+        <v>0.7740198830867351</v>
       </c>
       <c r="F25">
-        <v>0.7304680593944068</v>
+        <v>0.7397653332761659</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9938627208162626</v>
+        <v>0.9954056148848245</v>
       </c>
       <c r="J25">
-        <v>0.7676075984224998</v>
+        <v>0.7761891818909494</v>
       </c>
       <c r="K25">
-        <v>0.7763804725769461</v>
+        <v>0.7845738950364074</v>
       </c>
       <c r="L25">
-        <v>0.7872996178021169</v>
+        <v>0.79507003541876</v>
       </c>
       <c r="M25">
-        <v>0.7533152243287619</v>
+        <v>0.7622034808162557</v>
+      </c>
+      <c r="N25">
+        <v>0.7772914595593784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9012820936580068</v>
+        <v>0.9482210080082195</v>
       </c>
       <c r="D2">
-        <v>0.9170669119048299</v>
+        <v>0.9636389392192464</v>
       </c>
       <c r="E2">
-        <v>0.9207845327675894</v>
+        <v>0.9587964557572044</v>
       </c>
       <c r="F2">
-        <v>0.9094907705285099</v>
+        <v>0.9704876761789145</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028729219882775</v>
+        <v>1.0352056069079</v>
       </c>
       <c r="J2">
-        <v>0.9268775439651176</v>
+        <v>0.9720689713785287</v>
       </c>
       <c r="K2">
-        <v>0.9298167840998142</v>
+        <v>0.9756292112267504</v>
       </c>
       <c r="L2">
-        <v>0.9334701216047111</v>
+        <v>0.9708613175428069</v>
       </c>
       <c r="M2">
-        <v>0.922373756695552</v>
+        <v>0.9823740736167493</v>
       </c>
       <c r="N2">
-        <v>0.9281938163918879</v>
+        <v>0.9734494208157557</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9232859824658755</v>
+        <v>0.9687563029258098</v>
       </c>
       <c r="D3">
-        <v>0.9368834168117518</v>
+        <v>0.9832504123417717</v>
       </c>
       <c r="E3">
-        <v>0.9397263887182963</v>
+        <v>0.9766035799264565</v>
       </c>
       <c r="F3">
-        <v>0.9313036360750886</v>
+        <v>0.9898234314747039</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033014415830445</v>
+        <v>1.038476867354432</v>
       </c>
       <c r="J3">
-        <v>0.9461113535974627</v>
+        <v>0.9901365216004462</v>
       </c>
       <c r="K3">
-        <v>0.9483930946316769</v>
+        <v>0.9941021902779654</v>
       </c>
       <c r="L3">
-        <v>0.9511933512747487</v>
+        <v>0.9875448416668573</v>
       </c>
       <c r="M3">
-        <v>0.9428981165123748</v>
+        <v>1.0005882009756</v>
       </c>
       <c r="N3">
-        <v>0.9474549402400603</v>
+        <v>0.9915426290313649</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9361923126464609</v>
+        <v>0.9810088981850941</v>
       </c>
       <c r="D4">
-        <v>0.9485226853479759</v>
+        <v>0.9949630159429579</v>
       </c>
       <c r="E4">
-        <v>0.950857320552403</v>
+        <v>0.987238801492041</v>
       </c>
       <c r="F4">
-        <v>0.9441224461130584</v>
+        <v>1.001371582228785</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035494702184601</v>
+        <v>1.040409061540707</v>
       </c>
       <c r="J4">
-        <v>0.9573821295178282</v>
+        <v>1.000911198010771</v>
       </c>
       <c r="K4">
-        <v>0.9592848421708116</v>
+        <v>1.005122615498915</v>
       </c>
       <c r="L4">
-        <v>0.9615874169738752</v>
+        <v>0.9974937227215169</v>
       </c>
       <c r="M4">
-        <v>0.9549455731958095</v>
+        <v>1.011453481601425</v>
       </c>
       <c r="N4">
-        <v>0.9587417219550087</v>
+        <v>1.002332606718066</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9413538812370954</v>
+        <v>0.9859491255424443</v>
       </c>
       <c r="D5">
-        <v>0.9531806176019334</v>
+        <v>0.9996877050301853</v>
       </c>
       <c r="E5">
-        <v>0.9553129604668141</v>
+        <v>0.9915287932890721</v>
       </c>
       <c r="F5">
-        <v>0.9492543810806569</v>
+        <v>1.006029837393349</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036477508717604</v>
+        <v>1.041183019623572</v>
       </c>
       <c r="J5">
-        <v>0.9618865648980549</v>
+        <v>1.005253844737433</v>
       </c>
       <c r="K5">
-        <v>0.9636392409874751</v>
+        <v>1.009565205774069</v>
       </c>
       <c r="L5">
-        <v>0.9657433881736777</v>
+        <v>1.001503347843905</v>
       </c>
       <c r="M5">
-        <v>0.9597653367981525</v>
+        <v>1.015833240028055</v>
       </c>
       <c r="N5">
-        <v>0.9632525541501411</v>
+        <v>1.006681420501187</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9422063183001692</v>
+        <v>0.9867671530445155</v>
       </c>
       <c r="D6">
-        <v>0.9539500436237015</v>
+        <v>1.000470158914489</v>
       </c>
       <c r="E6">
-        <v>0.9560490340616484</v>
+        <v>0.9922392476828943</v>
       </c>
       <c r="F6">
-        <v>0.9501022281620531</v>
+        <v>1.006801279859662</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036639253263153</v>
+        <v>1.041310865050086</v>
       </c>
       <c r="J6">
-        <v>0.9626302864424273</v>
+        <v>1.005972813629471</v>
       </c>
       <c r="K6">
-        <v>0.9643582739907655</v>
+        <v>1.010300772749875</v>
       </c>
       <c r="L6">
-        <v>0.9664296856305871</v>
+        <v>1.002167168229455</v>
       </c>
       <c r="M6">
-        <v>0.9605614124848207</v>
+        <v>1.016558383873908</v>
       </c>
       <c r="N6">
-        <v>0.9639973318644128</v>
+        <v>1.007401410411519</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9362622602566488</v>
+        <v>0.9810756960462576</v>
       </c>
       <c r="D7">
-        <v>0.9485857963035298</v>
+        <v>0.995026891321485</v>
       </c>
       <c r="E7">
-        <v>0.9509176862329168</v>
+        <v>0.987296800548887</v>
       </c>
       <c r="F7">
-        <v>0.9441919712242154</v>
+        <v>1.001434560009734</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.035508058698515</v>
+        <v>1.040419547222619</v>
       </c>
       <c r="J7">
-        <v>0.9574431845611683</v>
+        <v>1.000969923008142</v>
       </c>
       <c r="K7">
-        <v>0.9593438578312614</v>
+        <v>1.005182688503163</v>
       </c>
       <c r="L7">
-        <v>0.9616437412267255</v>
+        <v>0.9975479451805321</v>
       </c>
       <c r="M7">
-        <v>0.9550108825871991</v>
+        <v>1.011512706281065</v>
       </c>
       <c r="N7">
-        <v>0.9588028637035136</v>
+        <v>1.002391415111668</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9090331373633712</v>
+        <v>0.9554011125220551</v>
       </c>
       <c r="D8">
-        <v>0.9240433527173614</v>
+        <v>0.9704932121357071</v>
       </c>
       <c r="E8">
-        <v>0.9274517455260749</v>
+        <v>0.9650199377471224</v>
       </c>
       <c r="F8">
-        <v>0.9171687155409439</v>
+        <v>0.9772454302667212</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030245186905923</v>
+        <v>1.036353406508504</v>
       </c>
       <c r="J8">
-        <v>0.933654839164259</v>
+        <v>0.9783871728775287</v>
       </c>
       <c r="K8">
-        <v>0.9363609737715998</v>
+        <v>0.982088282954318</v>
       </c>
       <c r="L8">
-        <v>0.9397131840613432</v>
+        <v>0.9766955523056884</v>
       </c>
       <c r="M8">
-        <v>0.9296012942249156</v>
+        <v>0.9887427109525662</v>
       </c>
       <c r="N8">
-        <v>0.9349807361275794</v>
+        <v>0.979776594885592</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8467903562429783</v>
+        <v>0.8997304495344437</v>
       </c>
       <c r="D9">
-        <v>0.8681623015913157</v>
+        <v>0.9174394246693545</v>
       </c>
       <c r="E9">
-        <v>0.8740872632691803</v>
+        <v>0.916861230558262</v>
       </c>
       <c r="F9">
-        <v>0.8556793728304067</v>
+        <v>0.9249501679958799</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.017990954593382</v>
+        <v>1.027383831835705</v>
       </c>
       <c r="J9">
-        <v>0.879215333559817</v>
+        <v>0.9293988535398573</v>
       </c>
       <c r="K9">
-        <v>0.8838302979230857</v>
+        <v>0.9320308742296148</v>
       </c>
       <c r="L9">
-        <v>0.8896172317296742</v>
+        <v>0.9314644279782913</v>
       </c>
       <c r="M9">
-        <v>0.8716465927630568</v>
+        <v>0.9393907668186504</v>
       </c>
       <c r="N9">
-        <v>0.8804639201808804</v>
+        <v>0.9307187065154222</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7824972663241203</v>
+        <v>0.8491642758419263</v>
       </c>
       <c r="D10">
-        <v>0.8108523218249669</v>
+        <v>0.8694649246172789</v>
       </c>
       <c r="E10">
-        <v>0.8194557211197432</v>
+        <v>0.8733606323476465</v>
       </c>
       <c r="F10">
-        <v>0.7925444561012539</v>
+        <v>0.8777028161036515</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.005482060766481</v>
+        <v>1.019194241152499</v>
       </c>
       <c r="J10">
-        <v>0.8230986922083305</v>
+        <v>0.8849687950681716</v>
       </c>
       <c r="K10">
-        <v>0.829748093907169</v>
+        <v>0.8866723553308478</v>
       </c>
       <c r="L10">
-        <v>0.8380827796037699</v>
+        <v>0.8904667022260623</v>
       </c>
       <c r="M10">
-        <v>0.8120391447425608</v>
+        <v>0.8946973416041025</v>
       </c>
       <c r="N10">
-        <v>0.8242675867620057</v>
+        <v>0.8862255522645077</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7356142467337687</v>
+        <v>0.8202825188101188</v>
       </c>
       <c r="D11">
-        <v>0.7694115839214405</v>
+        <v>0.8421778390806425</v>
       </c>
       <c r="E11">
-        <v>0.7800201031556353</v>
+        <v>0.8486520079986696</v>
       </c>
       <c r="F11">
-        <v>0.7467541157599094</v>
+        <v>0.850857299110663</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9967112850636908</v>
+        <v>1.014544037812164</v>
       </c>
       <c r="J11">
-        <v>0.7823952915948444</v>
+        <v>0.8596575413753839</v>
       </c>
       <c r="K11">
-        <v>0.7905490297175457</v>
+        <v>0.8608478569103629</v>
       </c>
       <c r="L11">
-        <v>0.8007574256009986</v>
+        <v>0.8671305320423291</v>
       </c>
       <c r="M11">
-        <v>0.768800508240592</v>
+        <v>0.8692715068416684</v>
       </c>
       <c r="N11">
-        <v>0.7835063826509034</v>
+        <v>0.860878353688235</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7060022776632726</v>
+        <v>0.8075818387859759</v>
       </c>
       <c r="D12">
-        <v>0.743430747226811</v>
+        <v>0.8302089194907435</v>
       </c>
       <c r="E12">
-        <v>0.7553295428728578</v>
+        <v>0.8378241430425006</v>
       </c>
       <c r="F12">
-        <v>0.7179516060437031</v>
+        <v>0.83909015514844</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9913971016285983</v>
+        <v>1.012511119334252</v>
       </c>
       <c r="J12">
-        <v>0.7568364008868222</v>
+        <v>0.8485479799323755</v>
       </c>
       <c r="K12">
-        <v>0.7659436483053516</v>
+        <v>0.8495164857932749</v>
       </c>
       <c r="L12">
-        <v>0.7773408087422377</v>
+        <v>0.8568939589586209</v>
       </c>
       <c r="M12">
-        <v>0.7416196238628568</v>
+        <v>0.858121022457717</v>
       </c>
       <c r="N12">
-        <v>0.75791119538643</v>
+        <v>0.8497530153936932</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7138154986280569</v>
+        <v>0.8104265410229409</v>
       </c>
       <c r="D13">
-        <v>0.7502694295228092</v>
+        <v>0.8328879980778743</v>
       </c>
       <c r="E13">
-        <v>0.7618259338552025</v>
+        <v>0.8402472230529898</v>
       </c>
       <c r="F13">
-        <v>0.7255415844413992</v>
+        <v>0.8417236009046765</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9927798615498457</v>
+        <v>1.012965703529613</v>
       </c>
       <c r="J13">
-        <v>0.7635666378172291</v>
+        <v>0.8510350532580614</v>
       </c>
       <c r="K13">
-        <v>0.7724222416518857</v>
+        <v>0.8520530327603481</v>
       </c>
       <c r="L13">
-        <v>0.7835054032620505</v>
+        <v>0.8591852380260365</v>
       </c>
       <c r="M13">
-        <v>0.7487802924014989</v>
+        <v>0.8606167304072404</v>
       </c>
       <c r="N13">
-        <v>0.7646509900252472</v>
+        <v>0.8522436206487729</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7336428364448189</v>
+        <v>0.8192832129030608</v>
       </c>
       <c r="D14">
-        <v>0.7676768409181622</v>
+        <v>0.8412354004578908</v>
       </c>
       <c r="E14">
-        <v>0.7783706745115762</v>
+        <v>0.8477991760748824</v>
       </c>
       <c r="F14">
-        <v>0.744833577905138</v>
+        <v>0.849930556798011</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9963515060101574</v>
+        <v>1.014383782926418</v>
       </c>
       <c r="J14">
-        <v>0.7806895969704771</v>
+        <v>0.8587829185960069</v>
       </c>
       <c r="K14">
-        <v>0.7889067788881059</v>
+        <v>0.8599556955250125</v>
       </c>
       <c r="L14">
-        <v>0.7991942023483767</v>
+        <v>0.8663244903418928</v>
       </c>
       <c r="M14">
-        <v>0.7669875339896548</v>
+        <v>0.8683934454319724</v>
       </c>
       <c r="N14">
-        <v>0.7817982657445237</v>
+        <v>0.8600024888441906</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7434149599920329</v>
+        <v>0.8244294542105395</v>
       </c>
       <c r="D15">
-        <v>0.7762824488879216</v>
+        <v>0.8460900437575631</v>
       </c>
       <c r="E15">
-        <v>0.7865541908867919</v>
+        <v>0.8521926625169155</v>
       </c>
       <c r="F15">
-        <v>0.7543575726312551</v>
+        <v>0.8547046829617172</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.998142690256228</v>
+        <v>1.015209581115633</v>
       </c>
       <c r="J15">
-        <v>0.789149780081723</v>
+        <v>0.8632879471811148</v>
       </c>
       <c r="K15">
-        <v>0.7970525735138723</v>
+        <v>0.8645512018534942</v>
       </c>
       <c r="L15">
-        <v>0.8069484379016129</v>
+        <v>0.8704765252265209</v>
       </c>
       <c r="M15">
-        <v>0.7759787292153613</v>
+        <v>0.8729165718947912</v>
       </c>
       <c r="N15">
-        <v>0.7902704632861839</v>
+        <v>0.8645139150866236</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7849174391879169</v>
+        <v>0.8508785382279954</v>
       </c>
       <c r="D16">
-        <v>0.8130004128583977</v>
+        <v>0.8710873593105636</v>
       </c>
       <c r="E16">
-        <v>0.8215015179956016</v>
+        <v>0.8748306481739975</v>
       </c>
       <c r="F16">
-        <v>0.7949140755639105</v>
+        <v>0.8792997227190481</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.005944650386003</v>
+        <v>1.019471195522692</v>
       </c>
       <c r="J16">
-        <v>0.8252060457935647</v>
+        <v>0.8864729403637466</v>
       </c>
       <c r="K16">
-        <v>0.8317781294891461</v>
+        <v>0.8882073499381525</v>
       </c>
       <c r="L16">
-        <v>0.8400164174612607</v>
+        <v>0.8918540071982943</v>
       </c>
       <c r="M16">
-        <v>0.8142770123572435</v>
+        <v>0.8962091692463419</v>
       </c>
       <c r="N16">
-        <v>0.826377933031048</v>
+        <v>0.8877318336189304</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8043023135774547</v>
+        <v>0.8652238055535676</v>
       </c>
       <c r="D17">
-        <v>0.8302338426222237</v>
+        <v>0.8846757202246109</v>
       </c>
       <c r="E17">
-        <v>0.8379197950188118</v>
+        <v>0.8871458885080311</v>
       </c>
       <c r="F17">
-        <v>0.8139139057919536</v>
+        <v>0.8926771222095868</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.009677888550618</v>
+        <v>1.021791730309457</v>
       </c>
       <c r="J17">
-        <v>0.8421023665246442</v>
+        <v>0.8990666123035443</v>
       </c>
       <c r="K17">
-        <v>0.8480568788165846</v>
+        <v>0.9010608796147137</v>
       </c>
       <c r="L17">
-        <v>0.8555243476188666</v>
+        <v>0.9034714220255651</v>
       </c>
       <c r="M17">
-        <v>0.8322197356158648</v>
+        <v>0.9088707446034011</v>
       </c>
       <c r="N17">
-        <v>0.8432982484756008</v>
+        <v>0.9003433900173969</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8142935466752763</v>
+        <v>0.872998384486263</v>
       </c>
       <c r="D18">
-        <v>0.8391345324074735</v>
+        <v>0.8920483627140522</v>
       </c>
       <c r="E18">
-        <v>0.846403229416524</v>
+        <v>0.8938301501276278</v>
       </c>
       <c r="F18">
-        <v>0.8237203154807067</v>
+        <v>0.8999372900919338</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011619179658756</v>
+        <v>1.023051038462659</v>
       </c>
       <c r="J18">
-        <v>0.8508213088231406</v>
+        <v>0.9058964127609669</v>
       </c>
       <c r="K18">
-        <v>0.8564588912660155</v>
+        <v>0.9080327934519132</v>
       </c>
       <c r="L18">
-        <v>0.8635300181171619</v>
+        <v>0.9097731504204516</v>
       </c>
       <c r="M18">
-        <v>0.8414794771303999</v>
+        <v>0.9157399473929245</v>
       </c>
       <c r="N18">
-        <v>0.8520295726722377</v>
+        <v>0.9071828895748582</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8175256523139829</v>
+        <v>0.8755627040752516</v>
       </c>
       <c r="D19">
-        <v>0.8420163832226434</v>
+        <v>0.8944813356980975</v>
       </c>
       <c r="E19">
-        <v>0.8491505173951093</v>
+        <v>0.8960362945442609</v>
       </c>
       <c r="F19">
-        <v>0.8268945992477326</v>
+        <v>0.9023334310482595</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.012249308833997</v>
+        <v>1.023466572144677</v>
       </c>
       <c r="J19">
-        <v>0.8536431237048602</v>
+        <v>0.9081497315375141</v>
       </c>
       <c r="K19">
-        <v>0.8591784089107206</v>
+        <v>0.9103331850311083</v>
       </c>
       <c r="L19">
-        <v>0.8661214668921068</v>
+        <v>0.9118524370130378</v>
       </c>
       <c r="M19">
-        <v>0.844476566619756</v>
+        <v>0.91800664796925</v>
       </c>
       <c r="N19">
-        <v>0.8548553948547558</v>
+        <v>0.9094394083225275</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8023718197057911</v>
+        <v>0.8637496127699267</v>
       </c>
       <c r="D20">
-        <v>0.8285154587546685</v>
+        <v>0.8832783840033748</v>
       </c>
       <c r="E20">
-        <v>0.8362822579652595</v>
+        <v>0.8858792015030995</v>
       </c>
       <c r="F20">
-        <v>0.8120201863363398</v>
+        <v>0.8913012549056557</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009304035244338</v>
+        <v>1.021553053606453</v>
       </c>
       <c r="J20">
-        <v>0.8404184509298992</v>
+        <v>0.8977719030916289</v>
       </c>
       <c r="K20">
-        <v>0.846434315655904</v>
+        <v>0.8997393251918383</v>
       </c>
       <c r="L20">
-        <v>0.8539784416440551</v>
+        <v>0.9022769215940021</v>
       </c>
       <c r="M20">
-        <v>0.8304314755888017</v>
+        <v>0.9075687661098768</v>
       </c>
       <c r="N20">
-        <v>0.8416119415275632</v>
+        <v>0.8990468421698958</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7284382748883603</v>
+        <v>0.8167438940689096</v>
       </c>
       <c r="D21">
-        <v>0.7631004208602193</v>
+        <v>0.8388411224555715</v>
       </c>
       <c r="E21">
-        <v>0.7740198830867351</v>
+        <v>0.8456327256609453</v>
       </c>
       <c r="F21">
-        <v>0.7397653332761659</v>
+        <v>0.8475762997332967</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9954056148848245</v>
+        <v>1.013976785986294</v>
       </c>
       <c r="J21">
-        <v>0.7761891818909494</v>
+        <v>0.8565608100235683</v>
       </c>
       <c r="K21">
-        <v>0.7845738950364074</v>
+        <v>0.8576890861436725</v>
       </c>
       <c r="L21">
-        <v>0.79507003541876</v>
+        <v>0.8642767320112359</v>
       </c>
       <c r="M21">
-        <v>0.7622034808162557</v>
+        <v>0.8661627648883437</v>
       </c>
       <c r="N21">
-        <v>0.7772914595593784</v>
+        <v>0.8577772246227002</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7284382748883603</v>
+        <v>0.773405044020502</v>
       </c>
       <c r="D22">
-        <v>0.7631004208602193</v>
+        <v>0.7981060564825847</v>
       </c>
       <c r="E22">
-        <v>0.7740198830867351</v>
+        <v>0.8088185501140216</v>
       </c>
       <c r="F22">
-        <v>0.7397653332761659</v>
+        <v>0.8075573871992309</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9954056148848245</v>
+        <v>1.007089127869019</v>
       </c>
       <c r="J22">
-        <v>0.7761891818909494</v>
+        <v>0.8187319015223917</v>
       </c>
       <c r="K22">
-        <v>0.7845738950364074</v>
+        <v>0.8191155164106394</v>
       </c>
       <c r="L22">
-        <v>0.79507003541876</v>
+        <v>0.8294435184438068</v>
       </c>
       <c r="M22">
-        <v>0.7622034808162557</v>
+        <v>0.8282268797860682</v>
       </c>
       <c r="N22">
-        <v>0.7772914595593784</v>
+        <v>0.8198945947324154</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7284382748883603</v>
+        <v>0.798623826157753</v>
       </c>
       <c r="D23">
-        <v>0.7631004208602193</v>
+        <v>0.8217791934084018</v>
       </c>
       <c r="E23">
-        <v>0.7740198830867351</v>
+        <v>0.8302022569029981</v>
       </c>
       <c r="F23">
-        <v>0.7397653332761659</v>
+        <v>0.8308058607014193</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9954056148848245</v>
+        <v>1.01108267667108</v>
       </c>
       <c r="J23">
-        <v>0.7761891818909494</v>
+        <v>0.8407211511934861</v>
       </c>
       <c r="K23">
-        <v>0.7845738950364074</v>
+        <v>0.8415346498630646</v>
       </c>
       <c r="L23">
-        <v>0.79507003541876</v>
+        <v>0.8496847343913733</v>
       </c>
       <c r="M23">
-        <v>0.7622034808162557</v>
+        <v>0.8502690705020338</v>
       </c>
       <c r="N23">
-        <v>0.7772914595593784</v>
+        <v>0.8419150716602448</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7284382748883603</v>
+        <v>0.8644175209362939</v>
       </c>
       <c r="D24">
-        <v>0.7631004208602193</v>
+        <v>0.8839114452596053</v>
       </c>
       <c r="E24">
-        <v>0.7740198830867351</v>
+        <v>0.8864530649774424</v>
       </c>
       <c r="F24">
-        <v>0.7397653332761659</v>
+        <v>0.8919245835565214</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9954056148848245</v>
+        <v>1.021661185217093</v>
       </c>
       <c r="J24">
-        <v>0.7761891818909494</v>
+        <v>0.8983584792916678</v>
       </c>
       <c r="K24">
-        <v>0.7845738950364074</v>
+        <v>0.9003380600583578</v>
       </c>
       <c r="L24">
-        <v>0.79507003541876</v>
+        <v>0.9028180933487902</v>
       </c>
       <c r="M24">
-        <v>0.7622034808162557</v>
+        <v>0.9081586276915187</v>
       </c>
       <c r="N24">
-        <v>0.7772914595593784</v>
+        <v>0.8996342513754197</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7284382748883603</v>
+        <v>0.9158121319954371</v>
       </c>
       <c r="D25">
-        <v>0.7631004208602193</v>
+        <v>0.9327425385070505</v>
       </c>
       <c r="E25">
-        <v>0.7740198830867351</v>
+        <v>0.9307485390303619</v>
       </c>
       <c r="F25">
-        <v>0.7397653332761659</v>
+        <v>0.940031040495294</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9954056148848245</v>
+        <v>1.029987194557571</v>
       </c>
       <c r="J25">
-        <v>0.7761891818909494</v>
+        <v>0.943547566044336</v>
       </c>
       <c r="K25">
-        <v>0.7845738950364074</v>
+        <v>0.9464831264409959</v>
       </c>
       <c r="L25">
-        <v>0.79507003541876</v>
+        <v>0.9445262809402586</v>
       </c>
       <c r="M25">
-        <v>0.7622034808162557</v>
+        <v>0.9536375676546193</v>
       </c>
       <c r="N25">
-        <v>0.7772914595593784</v>
+        <v>0.9448875118145376</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9482210080082195</v>
+        <v>0.9735446214542708</v>
       </c>
       <c r="D2">
-        <v>0.9636389392192464</v>
+        <v>0.9874799495658062</v>
       </c>
       <c r="E2">
-        <v>0.9587964557572044</v>
+        <v>0.9834235466018303</v>
       </c>
       <c r="F2">
-        <v>0.9704876761789145</v>
+        <v>0.9884683372424657</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0352056069079</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0.9720689713785287</v>
+        <v>0.996546464487682</v>
       </c>
       <c r="K2">
-        <v>0.9756292112267504</v>
+        <v>0.9991165089657444</v>
       </c>
       <c r="L2">
-        <v>0.9708613175428069</v>
+        <v>0.9951187525523234</v>
       </c>
       <c r="M2">
-        <v>0.9823740736167493</v>
+        <v>1.000090699106877</v>
       </c>
       <c r="N2">
-        <v>0.9734494208157557</v>
+        <v>1.002372208457872</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9687563029258098</v>
+        <v>0.9788202229049473</v>
       </c>
       <c r="D3">
-        <v>0.9832504123417717</v>
+        <v>0.9920777337129936</v>
       </c>
       <c r="E3">
-        <v>0.9766035799264565</v>
+        <v>0.9876816226186598</v>
       </c>
       <c r="F3">
-        <v>0.9898234314747039</v>
+        <v>0.9937424874211305</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038476867354432</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>0.9901365216004462</v>
+        <v>0.9999054084118827</v>
       </c>
       <c r="K3">
-        <v>0.9941021902779654</v>
+        <v>1.002812995164703</v>
       </c>
       <c r="L3">
-        <v>0.9875448416668573</v>
+        <v>0.9984745841596475</v>
       </c>
       <c r="M3">
-        <v>1.0005882009756</v>
+        <v>1.004456065413566</v>
       </c>
       <c r="N3">
-        <v>0.9915426290313649</v>
+        <v>1.003558554998295</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9810088981850941</v>
+        <v>0.9821593503715633</v>
       </c>
       <c r="D4">
-        <v>0.9949630159429579</v>
+        <v>0.9949942506821635</v>
       </c>
       <c r="E4">
-        <v>0.987238801492041</v>
+        <v>0.9903835016516713</v>
       </c>
       <c r="F4">
-        <v>1.001371582228785</v>
+        <v>0.9970884736324745</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040409061540707</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.000911198010771</v>
+        <v>1.002030699970784</v>
       </c>
       <c r="K4">
-        <v>1.005122615498915</v>
+        <v>1.005153468517407</v>
       </c>
       <c r="L4">
-        <v>0.9974937227215169</v>
+        <v>1.000599391914977</v>
       </c>
       <c r="M4">
-        <v>1.011453481601425</v>
+        <v>1.0072221656951</v>
       </c>
       <c r="N4">
-        <v>1.002332606718066</v>
+        <v>1.004308015316331</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9859491255424443</v>
+        <v>0.9835460396878459</v>
       </c>
       <c r="D5">
-        <v>0.9996877050301853</v>
+        <v>0.9962069182345045</v>
       </c>
       <c r="E5">
-        <v>0.9915287932890721</v>
+        <v>0.9915071117202447</v>
       </c>
       <c r="F5">
-        <v>1.006029837393349</v>
+        <v>0.9984798393107769</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041183019623572</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.005253844737433</v>
+        <v>1.002913087237574</v>
       </c>
       <c r="K5">
-        <v>1.009565205774069</v>
+        <v>1.006125583492017</v>
       </c>
       <c r="L5">
-        <v>1.001503347843905</v>
+        <v>1.001481926827066</v>
       </c>
       <c r="M5">
-        <v>1.015833240028055</v>
+        <v>1.008371584255836</v>
       </c>
       <c r="N5">
-        <v>1.006681420501187</v>
+        <v>1.004618884358318</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9867671530445155</v>
+        <v>0.9837778907679596</v>
       </c>
       <c r="D6">
-        <v>1.000470158914489</v>
+        <v>0.9964097588753095</v>
       </c>
       <c r="E6">
-        <v>0.9922392476828943</v>
+        <v>0.9916950664405154</v>
       </c>
       <c r="F6">
-        <v>1.006801279859662</v>
+        <v>0.9987125786659747</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041310865050086</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.005972813629471</v>
+        <v>1.003060606407633</v>
       </c>
       <c r="K6">
-        <v>1.010300772749875</v>
+        <v>1.006288126341671</v>
       </c>
       <c r="L6">
-        <v>1.002167168229455</v>
+        <v>1.001629490948561</v>
       </c>
       <c r="M6">
-        <v>1.016558383873908</v>
+        <v>1.008563804089365</v>
       </c>
       <c r="N6">
-        <v>1.007401410411519</v>
+        <v>1.00467083829684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9810756960462576</v>
+        <v>0.9821779455146267</v>
       </c>
       <c r="D7">
-        <v>0.995026891321485</v>
+        <v>0.9950105064532681</v>
       </c>
       <c r="E7">
-        <v>0.987296800548887</v>
+        <v>0.9903985628905241</v>
       </c>
       <c r="F7">
-        <v>1.001434560009734</v>
+        <v>0.9971071243098405</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040419547222619</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.000969923008142</v>
+        <v>1.002042533457592</v>
       </c>
       <c r="K7">
-        <v>1.005182688503163</v>
+        <v>1.005166503787479</v>
       </c>
       <c r="L7">
-        <v>0.9975479451805321</v>
+        <v>1.00061122601467</v>
       </c>
       <c r="M7">
-        <v>1.011512706281065</v>
+        <v>1.007237576394115</v>
       </c>
       <c r="N7">
-        <v>1.002391415111668</v>
+        <v>1.004312185491038</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9554011125220551</v>
+        <v>0.9753434446742334</v>
       </c>
       <c r="D8">
-        <v>0.9704932121357071</v>
+        <v>0.9890462781381784</v>
       </c>
       <c r="E8">
-        <v>0.9650199377471224</v>
+        <v>0.9848739584483246</v>
       </c>
       <c r="F8">
-        <v>0.9772454302667212</v>
+        <v>0.9902650091538059</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036353406508504</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>0.9783871728775287</v>
+        <v>0.997691886376061</v>
       </c>
       <c r="K8">
-        <v>0.982088282954318</v>
+        <v>1.000376697742519</v>
       </c>
       <c r="L8">
-        <v>0.9766955523056884</v>
+        <v>0.9962627962640933</v>
       </c>
       <c r="M8">
-        <v>0.9887427109525662</v>
+        <v>1.001578482040074</v>
       </c>
       <c r="N8">
-        <v>0.979776594885592</v>
+        <v>1.00277699799884</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8997304495344437</v>
+        <v>0.9626924558234521</v>
       </c>
       <c r="D9">
-        <v>0.9174394246693545</v>
+        <v>0.9780601020365114</v>
       </c>
       <c r="E9">
-        <v>0.916861230558262</v>
+        <v>0.9747051310544108</v>
       </c>
       <c r="F9">
-        <v>0.9249501679958799</v>
+        <v>0.977663955647327</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.027383831835705</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.9293988535398573</v>
+        <v>0.9896350969595025</v>
       </c>
       <c r="K9">
-        <v>0.9320308742296148</v>
+        <v>0.9915194595796466</v>
       </c>
       <c r="L9">
-        <v>0.9314644279782913</v>
+        <v>0.98822237965353</v>
       </c>
       <c r="M9">
-        <v>0.9393907668186504</v>
+        <v>0.9911301220727589</v>
       </c>
       <c r="N9">
-        <v>0.9307187065154222</v>
+        <v>0.9999253346224944</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8491642758419263</v>
+        <v>0.9537941700790297</v>
       </c>
       <c r="D10">
-        <v>0.8694649246172789</v>
+        <v>0.9703735135185181</v>
       </c>
       <c r="E10">
-        <v>0.8733606323476465</v>
+        <v>0.9675967347950301</v>
       </c>
       <c r="F10">
-        <v>0.8777028161036515</v>
+        <v>0.9688471708311367</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.019194241152499</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>0.8849687950681716</v>
+        <v>0.983969040290596</v>
       </c>
       <c r="K10">
-        <v>0.8866723553308478</v>
+        <v>0.9852991108448336</v>
       </c>
       <c r="L10">
-        <v>0.8904667022260623</v>
+        <v>0.9825767690028789</v>
       </c>
       <c r="M10">
-        <v>0.8946973416041025</v>
+        <v>0.9838026403944828</v>
       </c>
       <c r="N10">
-        <v>0.8862255522645077</v>
+        <v>0.9979149010947286</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8202825188101188</v>
+        <v>0.9498171955291401</v>
       </c>
       <c r="D11">
-        <v>0.8421778390806425</v>
+        <v>0.9669487733868496</v>
       </c>
       <c r="E11">
-        <v>0.8486520079986696</v>
+        <v>0.9644313995220543</v>
       </c>
       <c r="F11">
-        <v>0.850857299110663</v>
+        <v>0.9649183551573525</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.014544037812164</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.8596575413753839</v>
+        <v>0.9814376410504243</v>
       </c>
       <c r="K11">
-        <v>0.8608478569103629</v>
+        <v>0.9825221151708429</v>
       </c>
       <c r="L11">
-        <v>0.8671305320423291</v>
+        <v>0.9800567751515229</v>
       </c>
       <c r="M11">
-        <v>0.8692715068416684</v>
+        <v>0.9805336374954988</v>
       </c>
       <c r="N11">
-        <v>0.860878353688235</v>
+        <v>0.997015751452799</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8075818387859759</v>
+        <v>0.9483200516702742</v>
       </c>
       <c r="D12">
-        <v>0.8302089194907435</v>
+        <v>0.965661218186166</v>
       </c>
       <c r="E12">
-        <v>0.8378241430425006</v>
+        <v>0.9632416654018298</v>
       </c>
       <c r="F12">
-        <v>0.83909015514844</v>
+        <v>0.9634411707859438</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.012511119334252</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.8485479799323755</v>
+        <v>0.9804849053455055</v>
       </c>
       <c r="K12">
-        <v>0.8495164857932749</v>
+        <v>0.9814772515407248</v>
       </c>
       <c r="L12">
-        <v>0.8568939589586209</v>
+        <v>0.9791086872174244</v>
       </c>
       <c r="M12">
-        <v>0.858121022457717</v>
+        <v>0.9793039755001774</v>
       </c>
       <c r="N12">
-        <v>0.8497530153936932</v>
+        <v>0.9966772166563753</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8104265410229409</v>
+        <v>0.9486421175089638</v>
       </c>
       <c r="D13">
-        <v>0.8328879980778743</v>
+        <v>0.9659381189917341</v>
       </c>
       <c r="E13">
-        <v>0.8402472230529898</v>
+        <v>0.9634975150488442</v>
       </c>
       <c r="F13">
-        <v>0.8417236009046765</v>
+        <v>0.9637588591482279</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.012965703529613</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>0.8510350532580614</v>
+        <v>0.9806898470168964</v>
       </c>
       <c r="K13">
-        <v>0.8520530327603481</v>
+        <v>0.9817019968801601</v>
       </c>
       <c r="L13">
-        <v>0.8591852380260365</v>
+        <v>0.9793126128348155</v>
       </c>
       <c r="M13">
-        <v>0.8606167304072404</v>
+        <v>0.9795684558107354</v>
       </c>
       <c r="N13">
-        <v>0.8522436206487729</v>
+        <v>0.9967500437080791</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8192832129030608</v>
+        <v>0.9496938553740533</v>
       </c>
       <c r="D14">
-        <v>0.8412354004578908</v>
+        <v>0.9668426648447681</v>
       </c>
       <c r="E14">
-        <v>0.8477991760748824</v>
+        <v>0.9643333463250152</v>
       </c>
       <c r="F14">
-        <v>0.849930556798011</v>
+        <v>0.9647966217595528</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.014383782926418</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.8587829185960069</v>
+        <v>0.9813591463840687</v>
       </c>
       <c r="K14">
-        <v>0.8599556955250125</v>
+        <v>0.9824360239771657</v>
       </c>
       <c r="L14">
-        <v>0.8663244903418928</v>
+        <v>0.9799786561095143</v>
       </c>
       <c r="M14">
-        <v>0.8683934454319724</v>
+        <v>0.9804323134429951</v>
       </c>
       <c r="N14">
-        <v>0.8600024888441906</v>
+        <v>0.9969878624185919</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8244294542105395</v>
+        <v>0.9503391857329812</v>
       </c>
       <c r="D15">
-        <v>0.8460900437575631</v>
+        <v>0.9673979071061809</v>
       </c>
       <c r="E15">
-        <v>0.8521926625169155</v>
+        <v>0.9648464489938795</v>
       </c>
       <c r="F15">
-        <v>0.8547046829617172</v>
+        <v>0.9654336203221532</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015209581115633</v>
+        <v>1.044439407833787</v>
       </c>
       <c r="J15">
-        <v>0.8632879471811148</v>
+        <v>0.9817698490877276</v>
       </c>
       <c r="K15">
-        <v>0.8645512018534942</v>
+        <v>0.9828864859981169</v>
       </c>
       <c r="L15">
-        <v>0.8704765252265209</v>
+        <v>0.9803874080110351</v>
       </c>
       <c r="M15">
-        <v>0.8729165718947912</v>
+        <v>0.9809624926491798</v>
       </c>
       <c r="N15">
-        <v>0.8645139150866236</v>
+        <v>0.9971337795098896</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8508785382279954</v>
+        <v>0.9540553891308843</v>
       </c>
       <c r="D16">
-        <v>0.8710873593105636</v>
+        <v>0.970598690177424</v>
       </c>
       <c r="E16">
-        <v>0.8748306481739975</v>
+        <v>0.9678048951346626</v>
       </c>
       <c r="F16">
-        <v>0.8792997227190481</v>
+        <v>0.9691054762905543</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019471195522692</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>0.8864729403637466</v>
+        <v>0.9841353359274948</v>
       </c>
       <c r="K16">
-        <v>0.8882073499381525</v>
+        <v>0.9854815829495321</v>
       </c>
       <c r="L16">
-        <v>0.8918540071982943</v>
+        <v>0.9827423637868733</v>
       </c>
       <c r="M16">
-        <v>0.8962091692463419</v>
+        <v>0.9840174871557814</v>
       </c>
       <c r="N16">
-        <v>0.8877318336189304</v>
+        <v>0.9979739507925511</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8652238055535676</v>
+        <v>0.9563523987172474</v>
       </c>
       <c r="D17">
-        <v>0.8846757202246109</v>
+        <v>0.9725799878846497</v>
       </c>
       <c r="E17">
-        <v>0.8871458885080311</v>
+        <v>0.9696366756965953</v>
       </c>
       <c r="F17">
-        <v>0.8926771222095868</v>
+        <v>0.9713782059169702</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021791730309457</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>0.8990666123035443</v>
+        <v>0.9855977623508424</v>
       </c>
       <c r="K17">
-        <v>0.9010608796147137</v>
+        <v>0.9870864994095546</v>
       </c>
       <c r="L17">
-        <v>0.9034714220255651</v>
+        <v>0.984198886429692</v>
       </c>
       <c r="M17">
-        <v>0.9088707446034011</v>
+        <v>0.9859074066603489</v>
       </c>
       <c r="N17">
-        <v>0.9003433900173969</v>
+        <v>0.9984931354001366</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.872998384486263</v>
+        <v>0.9576803386370552</v>
       </c>
       <c r="D18">
-        <v>0.8920483627140522</v>
+        <v>0.9737264142511376</v>
       </c>
       <c r="E18">
-        <v>0.8938301501276278</v>
+        <v>0.9706967560552859</v>
       </c>
       <c r="F18">
-        <v>0.8999372900919338</v>
+        <v>0.9726932153062608</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023051038462659</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>0.9058964127609669</v>
+        <v>0.9864433028242079</v>
       </c>
       <c r="K18">
-        <v>0.9080327934519132</v>
+        <v>0.9880146176564123</v>
       </c>
       <c r="L18">
-        <v>0.9097731504204516</v>
+        <v>0.985041227542665</v>
       </c>
       <c r="M18">
-        <v>0.9157399473929245</v>
+        <v>0.9870005563530323</v>
       </c>
       <c r="N18">
-        <v>0.9071828895748582</v>
+        <v>0.9987932237507071</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8755627040752516</v>
+        <v>0.958131156508393</v>
       </c>
       <c r="D19">
-        <v>0.8944813356980975</v>
+        <v>0.9741157784592441</v>
       </c>
       <c r="E19">
-        <v>0.8960362945442609</v>
+        <v>0.9710568220756435</v>
       </c>
       <c r="F19">
-        <v>0.9023334310482595</v>
+        <v>0.9731398291459729</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023466572144677</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>0.9081497315375141</v>
+        <v>0.9867303652674506</v>
       </c>
       <c r="K19">
-        <v>0.9103331850311083</v>
+        <v>0.9883297482129307</v>
       </c>
       <c r="L19">
-        <v>0.9118524370130378</v>
+        <v>0.9853272397091446</v>
       </c>
       <c r="M19">
-        <v>0.91800664796925</v>
+        <v>0.9873717581640221</v>
       </c>
       <c r="N19">
-        <v>0.9094394083225275</v>
+        <v>0.9988950880988408</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8637496127699267</v>
+        <v>0.9561071877777916</v>
       </c>
       <c r="D20">
-        <v>0.8832783840033748</v>
+        <v>0.9723683749668438</v>
       </c>
       <c r="E20">
-        <v>0.8858792015030995</v>
+        <v>0.9694410143534813</v>
       </c>
       <c r="F20">
-        <v>0.8913012549056557</v>
+        <v>0.9711354716524411</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.021553053606453</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>0.8977719030916289</v>
+        <v>0.9854416355078344</v>
       </c>
       <c r="K20">
-        <v>0.8997393251918383</v>
+        <v>0.9869151404370625</v>
       </c>
       <c r="L20">
-        <v>0.9022769215940021</v>
+        <v>0.9840433675538237</v>
       </c>
       <c r="M20">
-        <v>0.9075687661098768</v>
+        <v>0.985705595346548</v>
       </c>
       <c r="N20">
-        <v>0.8990468421698958</v>
+        <v>0.9984377172982768</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8167438940689096</v>
+        <v>0.9493847056070744</v>
       </c>
       <c r="D21">
-        <v>0.8388411224555715</v>
+        <v>0.9665767334665977</v>
       </c>
       <c r="E21">
-        <v>0.8456327256609453</v>
+        <v>0.9640876082771811</v>
       </c>
       <c r="F21">
-        <v>0.8475762997332967</v>
+        <v>0.9644915290017572</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.013976785986294</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.8565608100235683</v>
+        <v>0.9811624047314856</v>
       </c>
       <c r="K21">
-        <v>0.8576890861436725</v>
+        <v>0.9822202470701313</v>
       </c>
       <c r="L21">
-        <v>0.8642767320112359</v>
+        <v>0.97978286170276</v>
       </c>
       <c r="M21">
-        <v>0.8661627648883437</v>
+        <v>0.9801783624024608</v>
       </c>
       <c r="N21">
-        <v>0.8577772246227002</v>
+        <v>0.9969179584774349</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.773405044020502</v>
+        <v>0.9450420451654913</v>
       </c>
       <c r="D22">
-        <v>0.7981060564825847</v>
+        <v>0.9628453420562834</v>
       </c>
       <c r="E22">
-        <v>0.8088185501140216</v>
+        <v>0.9606402987854504</v>
       </c>
       <c r="F22">
-        <v>0.8075573871992309</v>
+        <v>0.9602103119055564</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.007089127869019</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.8187319015223917</v>
+        <v>0.9783993661549293</v>
       </c>
       <c r="K22">
-        <v>0.8191155164106394</v>
+        <v>0.9791906081511651</v>
       </c>
       <c r="L22">
-        <v>0.8294435184438068</v>
+        <v>0.9770339918731323</v>
       </c>
       <c r="M22">
-        <v>0.8282268797860682</v>
+        <v>0.9766134828012198</v>
       </c>
       <c r="N22">
-        <v>0.8198945947324154</v>
+        <v>0.9959359571153863</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.798623826157753</v>
+        <v>0.9473556271784235</v>
       </c>
       <c r="D23">
-        <v>0.8217791934084018</v>
+        <v>0.9648322966144413</v>
       </c>
       <c r="E23">
-        <v>0.8302022569029981</v>
+        <v>0.9624758074414901</v>
       </c>
       <c r="F23">
-        <v>0.8308058607014193</v>
+        <v>0.9624901282506712</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01108267667108</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.8407211511934861</v>
+        <v>0.979871246100509</v>
       </c>
       <c r="K23">
-        <v>0.8415346498630646</v>
+        <v>0.9808043388524867</v>
       </c>
       <c r="L23">
-        <v>0.8496847343913733</v>
+        <v>0.9784981235371294</v>
       </c>
       <c r="M23">
-        <v>0.8502690705020338</v>
+        <v>0.9785121378374962</v>
       </c>
       <c r="N23">
-        <v>0.8419150716602448</v>
+        <v>0.9964591330809281</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8644175209362939</v>
+        <v>0.9562180246232251</v>
       </c>
       <c r="D24">
-        <v>0.8839114452596053</v>
+        <v>0.9724640221911033</v>
       </c>
       <c r="E24">
-        <v>0.8864530649774424</v>
+        <v>0.969529451083231</v>
       </c>
       <c r="F24">
-        <v>0.8919245835565214</v>
+        <v>0.9712451855996271</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.021661185217093</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>0.8983584792916678</v>
+        <v>0.9855122055314856</v>
       </c>
       <c r="K24">
-        <v>0.9003380600583578</v>
+        <v>0.9869925948507334</v>
       </c>
       <c r="L24">
-        <v>0.9028180933487902</v>
+        <v>0.9841136621107073</v>
       </c>
       <c r="M24">
-        <v>0.9081586276915187</v>
+        <v>0.9857968135783324</v>
       </c>
       <c r="N24">
-        <v>0.8996342513754197</v>
+        <v>0.9984627668121149</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9158121319954371</v>
+        <v>0.9660405238700763</v>
       </c>
       <c r="D25">
-        <v>0.9327425385070505</v>
+        <v>0.9809608956940088</v>
       </c>
       <c r="E25">
-        <v>0.9307485390303619</v>
+        <v>0.9773891125394343</v>
       </c>
       <c r="F25">
-        <v>0.940031040495294</v>
+        <v>0.9809910620619161</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029987194557571</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>0.943547566044336</v>
+        <v>0.9917674159135292</v>
       </c>
       <c r="K25">
-        <v>0.9464831264409959</v>
+        <v>0.9938621390658112</v>
       </c>
       <c r="L25">
-        <v>0.9445262809402586</v>
+        <v>0.9903488768430061</v>
       </c>
       <c r="M25">
-        <v>0.9536375676546193</v>
+        <v>0.9938918135127982</v>
       </c>
       <c r="N25">
-        <v>0.9448875118145376</v>
+        <v>1.000680980906285</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9735446214542708</v>
+        <v>1.02020935029036</v>
       </c>
       <c r="D2">
-        <v>0.9874799495658062</v>
+        <v>1.028186279667556</v>
       </c>
       <c r="E2">
-        <v>0.9834235466018303</v>
+        <v>1.021220136258266</v>
       </c>
       <c r="F2">
-        <v>0.9884683372424657</v>
+        <v>1.035130770811575</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.023594999628091</v>
       </c>
       <c r="J2">
-        <v>0.996546464487682</v>
+        <v>1.025407753437642</v>
       </c>
       <c r="K2">
-        <v>0.9991165089657444</v>
+        <v>1.031003829276111</v>
       </c>
       <c r="L2">
-        <v>0.9951187525523234</v>
+        <v>1.024058110239224</v>
       </c>
       <c r="M2">
-        <v>1.000090699106877</v>
+        <v>1.037928256868433</v>
       </c>
       <c r="N2">
-        <v>1.002372208457872</v>
+        <v>1.012452158818634</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9788202229049473</v>
+        <v>1.02132920632262</v>
       </c>
       <c r="D3">
-        <v>0.9920777337129936</v>
+        <v>1.029220324904256</v>
       </c>
       <c r="E3">
-        <v>0.9876816226186598</v>
+        <v>1.02217679549443</v>
       </c>
       <c r="F3">
-        <v>0.9937424874211305</v>
+        <v>1.036329240208038</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.023504579208683</v>
       </c>
       <c r="J3">
-        <v>0.9999054084118827</v>
+        <v>1.026163808921131</v>
       </c>
       <c r="K3">
-        <v>1.002812995164703</v>
+        <v>1.031845146685901</v>
       </c>
       <c r="L3">
-        <v>0.9984745841596475</v>
+        <v>1.02482076425516</v>
       </c>
       <c r="M3">
-        <v>1.004456065413566</v>
+        <v>1.038935022641682</v>
       </c>
       <c r="N3">
-        <v>1.003558554998295</v>
+        <v>1.012711453180477</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9821593503715633</v>
+        <v>1.022054374107675</v>
       </c>
       <c r="D4">
-        <v>0.9949942506821635</v>
+        <v>1.02989025789283</v>
       </c>
       <c r="E4">
-        <v>0.9903835016516713</v>
+        <v>1.022796603130266</v>
       </c>
       <c r="F4">
-        <v>0.9970884736324745</v>
+        <v>1.037105892393236</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.023443335729026</v>
       </c>
       <c r="J4">
-        <v>1.002030699970784</v>
+        <v>1.026653067329835</v>
       </c>
       <c r="K4">
-        <v>1.005153468517407</v>
+        <v>1.032389772332395</v>
       </c>
       <c r="L4">
-        <v>1.000599391914977</v>
+        <v>1.025314422923699</v>
       </c>
       <c r="M4">
-        <v>1.0072221656951</v>
+        <v>1.039587063615902</v>
       </c>
       <c r="N4">
-        <v>1.004308015316331</v>
+        <v>1.012879013867214</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9835460396878459</v>
+        <v>1.022359366053031</v>
       </c>
       <c r="D5">
-        <v>0.9962069182345045</v>
+        <v>1.03017209807532</v>
       </c>
       <c r="E5">
-        <v>0.9915071117202447</v>
+        <v>1.023057358075439</v>
       </c>
       <c r="F5">
-        <v>0.9984798393107769</v>
+        <v>1.037432675626427</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.023416932628374</v>
       </c>
       <c r="J5">
-        <v>1.002913087237574</v>
+        <v>1.026858761222235</v>
       </c>
       <c r="K5">
-        <v>1.006125583492017</v>
+        <v>1.032618789809561</v>
       </c>
       <c r="L5">
-        <v>1.001481926827066</v>
+        <v>1.02552199781915</v>
       </c>
       <c r="M5">
-        <v>1.008371584255836</v>
+        <v>1.03986132463169</v>
       </c>
       <c r="N5">
-        <v>1.004618884358318</v>
+        <v>1.012949403544407</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9837778907679596</v>
+        <v>1.022410583268608</v>
       </c>
       <c r="D6">
-        <v>0.9964097588753095</v>
+        <v>1.030219432033327</v>
       </c>
       <c r="E6">
-        <v>0.9916950664405154</v>
+        <v>1.023101150987447</v>
       </c>
       <c r="F6">
-        <v>0.9987125786659747</v>
+        <v>1.03748756032105</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.023412460900047</v>
       </c>
       <c r="J6">
-        <v>1.003060606407633</v>
+        <v>1.026893298700969</v>
       </c>
       <c r="K6">
-        <v>1.006288126341671</v>
+        <v>1.032657246189084</v>
       </c>
       <c r="L6">
-        <v>1.001629490948561</v>
+        <v>1.025556852948643</v>
       </c>
       <c r="M6">
-        <v>1.008563804089365</v>
+        <v>1.039907382655753</v>
       </c>
       <c r="N6">
-        <v>1.00467083829684</v>
+        <v>1.012961219178527</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9821779455146267</v>
+        <v>1.022058448907757</v>
       </c>
       <c r="D7">
-        <v>0.9950105064532681</v>
+        <v>1.029894023067784</v>
       </c>
       <c r="E7">
-        <v>0.9903985628905241</v>
+        <v>1.022800086612803</v>
       </c>
       <c r="F7">
-        <v>0.9971071243098405</v>
+        <v>1.037110257791373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874439</v>
+        <v>1.023442985510381</v>
       </c>
       <c r="J7">
-        <v>1.002042533457592</v>
+        <v>1.026655815783625</v>
       </c>
       <c r="K7">
-        <v>1.005166503787479</v>
+        <v>1.032392832251586</v>
       </c>
       <c r="L7">
-        <v>1.00061122601467</v>
+        <v>1.025317196389367</v>
       </c>
       <c r="M7">
-        <v>1.007237576394115</v>
+        <v>1.03959072774283</v>
       </c>
       <c r="N7">
-        <v>1.004312185491038</v>
+        <v>1.012879954625311</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9753434446742334</v>
+        <v>1.020587698224991</v>
       </c>
       <c r="D8">
-        <v>0.9890462781381784</v>
+        <v>1.028535566922472</v>
       </c>
       <c r="E8">
-        <v>0.9848739584483246</v>
+        <v>1.02154328106708</v>
       </c>
       <c r="F8">
-        <v>0.9902650091538059</v>
+        <v>1.035535558714178</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.023565007130014</v>
       </c>
       <c r="J8">
-        <v>0.997691886376061</v>
+        <v>1.02566325770935</v>
       </c>
       <c r="K8">
-        <v>1.000376697742519</v>
+        <v>1.031288107421598</v>
       </c>
       <c r="L8">
-        <v>0.9962627962640933</v>
+        <v>1.024315817406213</v>
       </c>
       <c r="M8">
-        <v>1.001578482040074</v>
+        <v>1.038268374782371</v>
       </c>
       <c r="N8">
-        <v>1.00277699799884</v>
+        <v>1.012539834050499</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9626924558234521</v>
+        <v>1.018000199174954</v>
       </c>
       <c r="D9">
-        <v>0.9780601020365114</v>
+        <v>1.026148197175385</v>
       </c>
       <c r="E9">
-        <v>0.9747051310544108</v>
+        <v>1.019334648703178</v>
       </c>
       <c r="F9">
-        <v>0.977663955647327</v>
+        <v>1.032769622552555</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.023759139049229</v>
       </c>
       <c r="J9">
-        <v>0.9896350969595025</v>
+        <v>1.023914545290446</v>
       </c>
       <c r="K9">
-        <v>0.9915194595796466</v>
+        <v>1.029343251318956</v>
       </c>
       <c r="L9">
-        <v>0.98822237965353</v>
+        <v>1.022552566921314</v>
       </c>
       <c r="M9">
-        <v>0.9911301220727589</v>
+        <v>1.035942774372515</v>
       </c>
       <c r="N9">
-        <v>0.9999253346224944</v>
+        <v>1.01193881860297</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9537941700790297</v>
+        <v>1.01627794640003</v>
       </c>
       <c r="D10">
-        <v>0.9703735135185181</v>
+        <v>1.024560915205688</v>
       </c>
       <c r="E10">
-        <v>0.9675967347950301</v>
+        <v>1.017866280673537</v>
       </c>
       <c r="F10">
-        <v>0.9688471708311367</v>
+        <v>1.030931612079897</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.023874603872166</v>
       </c>
       <c r="J10">
-        <v>0.983969040290596</v>
+        <v>1.022748931942025</v>
       </c>
       <c r="K10">
-        <v>0.9852991108448336</v>
+        <v>1.02804788840283</v>
       </c>
       <c r="L10">
-        <v>0.9825767690028789</v>
+        <v>1.021377945132637</v>
       </c>
       <c r="M10">
-        <v>0.9838026403944828</v>
+        <v>1.034395417686236</v>
       </c>
       <c r="N10">
-        <v>0.9979149010947286</v>
+        <v>1.011537020073727</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9498171955291401</v>
+        <v>1.015532832793117</v>
       </c>
       <c r="D11">
-        <v>0.9669487733868496</v>
+        <v>1.023874621531023</v>
       </c>
       <c r="E11">
-        <v>0.9644313995220543</v>
+        <v>1.017231423147907</v>
       </c>
       <c r="F11">
-        <v>0.9649183551573525</v>
+        <v>1.030137137101096</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.023921309042974</v>
       </c>
       <c r="J11">
-        <v>0.9814376410504243</v>
+        <v>1.022244252338499</v>
       </c>
       <c r="K11">
-        <v>0.9825221151708429</v>
+        <v>1.027487265712157</v>
       </c>
       <c r="L11">
-        <v>0.9800567751515229</v>
+        <v>1.020869528558607</v>
       </c>
       <c r="M11">
-        <v>0.9805336374954988</v>
+        <v>1.033726112216236</v>
       </c>
       <c r="N11">
-        <v>0.997015751452799</v>
+        <v>1.011362772239941</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9483200516702742</v>
+        <v>1.015256158558723</v>
       </c>
       <c r="D12">
-        <v>0.965661218186166</v>
+        <v>1.02361985292866</v>
       </c>
       <c r="E12">
-        <v>0.9632416654018298</v>
+        <v>1.016995752314614</v>
       </c>
       <c r="F12">
-        <v>0.9634411707859438</v>
+        <v>1.029842242742463</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.023938164268129</v>
       </c>
       <c r="J12">
-        <v>0.9804849053455055</v>
+        <v>1.022056797388697</v>
       </c>
       <c r="K12">
-        <v>0.9814772515407248</v>
+        <v>1.027279066933559</v>
       </c>
       <c r="L12">
-        <v>0.9791086872174244</v>
+        <v>1.020680710271985</v>
       </c>
       <c r="M12">
-        <v>0.9793039755001774</v>
+        <v>1.033477608559682</v>
       </c>
       <c r="N12">
-        <v>0.9966772166563753</v>
+        <v>1.011298008889888</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9486421175089638</v>
+        <v>1.015315501877299</v>
       </c>
       <c r="D13">
-        <v>0.9659381189917341</v>
+        <v>1.023674494811126</v>
       </c>
       <c r="E13">
-        <v>0.9634975150488442</v>
+        <v>1.017046298014399</v>
       </c>
       <c r="F13">
-        <v>0.9637588591482279</v>
+        <v>1.029905489135307</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.023934571058996</v>
       </c>
       <c r="J13">
-        <v>0.9806898470168964</v>
+        <v>1.022097006866215</v>
       </c>
       <c r="K13">
-        <v>0.9817019968801601</v>
+        <v>1.027323724407619</v>
       </c>
       <c r="L13">
-        <v>0.9793126128348155</v>
+        <v>1.020721211068086</v>
       </c>
       <c r="M13">
-        <v>0.9795684558107354</v>
+        <v>1.033530908639985</v>
       </c>
       <c r="N13">
-        <v>0.9967500437080791</v>
+        <v>1.011311902654673</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9496938553740533</v>
+        <v>1.015509960899997</v>
       </c>
       <c r="D14">
-        <v>0.9668426648447681</v>
+        <v>1.023853559191552</v>
       </c>
       <c r="E14">
-        <v>0.9643333463250152</v>
+        <v>1.017211939595774</v>
       </c>
       <c r="F14">
-        <v>0.9647966217595528</v>
+        <v>1.030112756781235</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012188</v>
+        <v>1.023922712353276</v>
       </c>
       <c r="J14">
-        <v>0.9813591463840687</v>
+        <v>1.022228757142771</v>
       </c>
       <c r="K14">
-        <v>0.9824360239771657</v>
+        <v>1.027470055092403</v>
       </c>
       <c r="L14">
-        <v>0.9799786561095143</v>
+        <v>1.020853920163529</v>
       </c>
       <c r="M14">
-        <v>0.9804323134429951</v>
+        <v>1.033705568662979</v>
       </c>
       <c r="N14">
-        <v>0.9969878624185919</v>
+        <v>1.011357419695646</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9503391857329812</v>
+        <v>1.015629785966005</v>
       </c>
       <c r="D15">
-        <v>0.9673979071061809</v>
+        <v>1.023963906722703</v>
       </c>
       <c r="E15">
-        <v>0.9648464489938795</v>
+        <v>1.017314015857491</v>
       </c>
       <c r="F15">
-        <v>0.9654336203221532</v>
+        <v>1.030240488896373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833787</v>
+        <v>1.023915340507297</v>
       </c>
       <c r="J15">
-        <v>0.9817698490877276</v>
+        <v>1.022309933560281</v>
       </c>
       <c r="K15">
-        <v>0.9828864859981169</v>
+        <v>1.027560219740042</v>
       </c>
       <c r="L15">
-        <v>0.9803874080110351</v>
+        <v>1.020935690623516</v>
       </c>
       <c r="M15">
-        <v>0.9809624926491798</v>
+        <v>1.033813196524735</v>
       </c>
       <c r="N15">
-        <v>0.9971337795098896</v>
+        <v>1.011385458955995</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9540553891308843</v>
+        <v>1.016327410391852</v>
       </c>
       <c r="D16">
-        <v>0.970598690177424</v>
+        <v>1.02460648350824</v>
       </c>
       <c r="E16">
-        <v>0.9678048951346626</v>
+        <v>1.017908434205112</v>
       </c>
       <c r="F16">
-        <v>0.9691054762905543</v>
+        <v>1.030984368116399</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.023871434968932</v>
       </c>
       <c r="J16">
-        <v>0.9841353359274948</v>
+        <v>1.022782426655572</v>
       </c>
       <c r="K16">
-        <v>0.9854815829495321</v>
+        <v>1.028085100914511</v>
       </c>
       <c r="L16">
-        <v>0.9827423637868733</v>
+        <v>1.021411691318446</v>
       </c>
       <c r="M16">
-        <v>0.9840174871557814</v>
+        <v>1.034439852205829</v>
       </c>
       <c r="N16">
-        <v>0.9979739507925511</v>
+        <v>1.011548578722276</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9563523987172474</v>
+        <v>1.016765180585314</v>
       </c>
       <c r="D17">
-        <v>0.9725799878846497</v>
+        <v>1.025009825113517</v>
       </c>
       <c r="E17">
-        <v>0.9696366756965953</v>
+        <v>1.018281552923018</v>
       </c>
       <c r="F17">
-        <v>0.9713782059169702</v>
+        <v>1.031451357092457</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.023843013862435</v>
       </c>
       <c r="J17">
-        <v>0.9855977623508424</v>
+        <v>1.02307881924232</v>
       </c>
       <c r="K17">
-        <v>0.9870864994095546</v>
+        <v>1.028414419212291</v>
       </c>
       <c r="L17">
-        <v>0.984198886429692</v>
+        <v>1.021710328067462</v>
       </c>
       <c r="M17">
-        <v>0.9859074066603489</v>
+        <v>1.034833126539841</v>
       </c>
       <c r="N17">
-        <v>0.9984931354001366</v>
+        <v>1.011650828170646</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9576803386370552</v>
+        <v>1.017020585694692</v>
       </c>
       <c r="D18">
-        <v>0.9737264142511376</v>
+        <v>1.025245184907689</v>
       </c>
       <c r="E18">
-        <v>0.9706967560552859</v>
+        <v>1.018499278954748</v>
       </c>
       <c r="F18">
-        <v>0.9726932153062608</v>
+        <v>1.031723878568846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.023826118601784</v>
       </c>
       <c r="J18">
-        <v>0.9864433028242079</v>
+        <v>1.023251703773304</v>
       </c>
       <c r="K18">
-        <v>0.9880146176564123</v>
+        <v>1.028606531847662</v>
       </c>
       <c r="L18">
-        <v>0.985041227542665</v>
+        <v>1.021884537369873</v>
       </c>
       <c r="M18">
-        <v>0.9870005563530323</v>
+        <v>1.035062585361173</v>
       </c>
       <c r="N18">
-        <v>0.9987932237507071</v>
+        <v>1.01171044283295</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.958131156508393</v>
+        <v>1.01710768264132</v>
       </c>
       <c r="D19">
-        <v>0.9741157784592441</v>
+        <v>1.02532545305531</v>
       </c>
       <c r="E19">
-        <v>0.9710568220756435</v>
+        <v>1.018573533544294</v>
       </c>
       <c r="F19">
-        <v>0.9731398291459729</v>
+        <v>1.031816824218712</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.023820303822167</v>
       </c>
       <c r="J19">
-        <v>0.9867303652674506</v>
+        <v>1.023310653575343</v>
       </c>
       <c r="K19">
-        <v>0.9883297482129307</v>
+        <v>1.028672041854562</v>
       </c>
       <c r="L19">
-        <v>0.9853272397091446</v>
+        <v>1.02194394155865</v>
       </c>
       <c r="M19">
-        <v>0.9873717581640221</v>
+        <v>1.035140836533132</v>
       </c>
       <c r="N19">
-        <v>0.9988950880988408</v>
+        <v>1.011730765528751</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9561071877777916</v>
+        <v>1.016718205667347</v>
       </c>
       <c r="D20">
-        <v>0.9723683749668438</v>
+        <v>1.024966540297781</v>
       </c>
       <c r="E20">
-        <v>0.9694410143534813</v>
+        <v>1.018241511279632</v>
       </c>
       <c r="F20">
-        <v>0.9711354716524411</v>
+        <v>1.031401239666091</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.023846096030192</v>
       </c>
       <c r="J20">
-        <v>0.9854416355078344</v>
+        <v>1.023047018736898</v>
       </c>
       <c r="K20">
-        <v>0.9869151404370625</v>
+        <v>1.028379083701167</v>
       </c>
       <c r="L20">
-        <v>0.9840433675538237</v>
+        <v>1.021678285150478</v>
       </c>
       <c r="M20">
-        <v>0.985705595346548</v>
+        <v>1.034790924838149</v>
       </c>
       <c r="N20">
-        <v>0.9984377172982768</v>
+        <v>1.011639860431314</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9493847056070744</v>
+        <v>1.015452694973948</v>
       </c>
       <c r="D21">
-        <v>0.9665767334665977</v>
+        <v>1.02380082501687</v>
       </c>
       <c r="E21">
-        <v>0.9640876082771811</v>
+        <v>1.017163158317031</v>
       </c>
       <c r="F21">
-        <v>0.9644915290017572</v>
+        <v>1.03005171586077</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.02392621804881</v>
       </c>
       <c r="J21">
-        <v>0.9811624047314856</v>
+        <v>1.022189959819831</v>
       </c>
       <c r="K21">
-        <v>0.9822202470701313</v>
+        <v>1.027426963211209</v>
       </c>
       <c r="L21">
-        <v>0.97978286170276</v>
+        <v>1.020814839808249</v>
       </c>
       <c r="M21">
-        <v>0.9801783624024608</v>
+        <v>1.033654132711969</v>
       </c>
       <c r="N21">
-        <v>0.9969179584774349</v>
+        <v>1.011344017163625</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9450420451654913</v>
+        <v>1.014657562323476</v>
       </c>
       <c r="D22">
-        <v>0.9628453420562834</v>
+        <v>1.023068769509992</v>
       </c>
       <c r="E22">
-        <v>0.9606402987854504</v>
+        <v>1.016485985348941</v>
       </c>
       <c r="F22">
-        <v>0.9602103119055564</v>
+        <v>1.029204425698047</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.023973741382756</v>
       </c>
       <c r="J22">
-        <v>0.9783993661549293</v>
+        <v>1.021651124695448</v>
       </c>
       <c r="K22">
-        <v>0.9791906081511651</v>
+        <v>1.026828566936165</v>
       </c>
       <c r="L22">
-        <v>0.9770339918731323</v>
+        <v>1.020272132494018</v>
       </c>
       <c r="M22">
-        <v>0.9766134828012198</v>
+        <v>1.032940000555417</v>
       </c>
       <c r="N22">
-        <v>0.9959359571153863</v>
+        <v>1.011157777683047</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9473556271784235</v>
+        <v>1.015079025937756</v>
       </c>
       <c r="D23">
-        <v>0.9648322966144413</v>
+        <v>1.023456763053269</v>
       </c>
       <c r="E23">
-        <v>0.9624758074414901</v>
+        <v>1.016844888856979</v>
       </c>
       <c r="F23">
-        <v>0.9624901282506712</v>
+        <v>1.029653475863672</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.023948818288725</v>
       </c>
       <c r="J23">
-        <v>0.979871246100509</v>
+        <v>1.021936768466199</v>
       </c>
       <c r="K23">
-        <v>0.9808043388524867</v>
+        <v>1.0271457655103</v>
       </c>
       <c r="L23">
-        <v>0.9784981235371294</v>
+        <v>1.020559815364791</v>
       </c>
       <c r="M23">
-        <v>0.9785121378374962</v>
+        <v>1.03331851747302</v>
       </c>
       <c r="N23">
-        <v>0.9964591330809281</v>
+        <v>1.011256528631875</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9562180246232251</v>
+        <v>1.016739431421464</v>
       </c>
       <c r="D24">
-        <v>0.9724640221911033</v>
+        <v>1.024986098541521</v>
       </c>
       <c r="E24">
-        <v>0.969529451083231</v>
+        <v>1.018259604089706</v>
       </c>
       <c r="F24">
-        <v>0.9712451855996271</v>
+        <v>1.031423885157301</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.023844704313072</v>
       </c>
       <c r="J24">
-        <v>0.9855122055314856</v>
+        <v>1.023061388004713</v>
       </c>
       <c r="K24">
-        <v>0.9869925948507334</v>
+        <v>1.028395050214526</v>
       </c>
       <c r="L24">
-        <v>0.9841136621107073</v>
+        <v>1.021692763904882</v>
       </c>
       <c r="M24">
-        <v>0.9857968135783324</v>
+        <v>1.034809993758543</v>
       </c>
       <c r="N24">
-        <v>0.9984627668121149</v>
+        <v>1.01164481636003</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9660405238700763</v>
+        <v>1.018668642350705</v>
       </c>
       <c r="D25">
-        <v>0.9809608956940088</v>
+        <v>1.026764631418412</v>
       </c>
       <c r="E25">
-        <v>0.9773891125394343</v>
+        <v>1.019904919118999</v>
       </c>
       <c r="F25">
-        <v>0.9809910620619161</v>
+        <v>1.03348363322587</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.02371141742819</v>
       </c>
       <c r="J25">
-        <v>0.9917674159135292</v>
+        <v>1.02436659444327</v>
       </c>
       <c r="K25">
-        <v>0.9938621390658112</v>
+        <v>1.029845829691816</v>
       </c>
       <c r="L25">
-        <v>0.9903488768430061</v>
+        <v>1.023008254574207</v>
       </c>
       <c r="M25">
-        <v>0.9938918135127982</v>
+        <v>1.036543460030294</v>
       </c>
       <c r="N25">
-        <v>1.000680980906285</v>
+        <v>1.012094393749036</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02020935029036</v>
+        <v>0.9735446214542707</v>
       </c>
       <c r="D2">
-        <v>1.028186279667556</v>
+        <v>0.9874799495658062</v>
       </c>
       <c r="E2">
-        <v>1.021220136258266</v>
+        <v>0.9834235466018301</v>
       </c>
       <c r="F2">
-        <v>1.035130770811575</v>
+        <v>0.9884683372424655</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.023594999628091</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.025407753437642</v>
+        <v>0.996546464487682</v>
       </c>
       <c r="K2">
-        <v>1.031003829276111</v>
+        <v>0.9991165089657444</v>
       </c>
       <c r="L2">
-        <v>1.024058110239224</v>
+        <v>0.9951187525523233</v>
       </c>
       <c r="M2">
-        <v>1.037928256868433</v>
+        <v>1.000090699106877</v>
       </c>
       <c r="N2">
-        <v>1.012452158818634</v>
+        <v>1.002372208457872</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02132920632262</v>
+        <v>0.9788202229049456</v>
       </c>
       <c r="D3">
-        <v>1.029220324904256</v>
+        <v>0.9920777337129921</v>
       </c>
       <c r="E3">
-        <v>1.02217679549443</v>
+        <v>0.9876816226186581</v>
       </c>
       <c r="F3">
-        <v>1.036329240208038</v>
+        <v>0.993742487421129</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.023504579208683</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.026163808921131</v>
+        <v>0.9999054084118811</v>
       </c>
       <c r="K3">
-        <v>1.031845146685901</v>
+        <v>1.002812995164702</v>
       </c>
       <c r="L3">
-        <v>1.02482076425516</v>
+        <v>0.998474584159646</v>
       </c>
       <c r="M3">
-        <v>1.038935022641682</v>
+        <v>1.004456065413565</v>
       </c>
       <c r="N3">
-        <v>1.012711453180477</v>
+        <v>1.003558554998295</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.022054374107675</v>
+        <v>0.9821593503715633</v>
       </c>
       <c r="D4">
-        <v>1.02989025789283</v>
+        <v>0.9949942506821632</v>
       </c>
       <c r="E4">
-        <v>1.022796603130266</v>
+        <v>0.9903835016516708</v>
       </c>
       <c r="F4">
-        <v>1.037105892393236</v>
+        <v>0.9970884736324743</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.023443335729026</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.026653067329835</v>
+        <v>1.002030699970784</v>
       </c>
       <c r="K4">
-        <v>1.032389772332395</v>
+        <v>1.005153468517406</v>
       </c>
       <c r="L4">
-        <v>1.025314422923699</v>
+        <v>1.000599391914976</v>
       </c>
       <c r="M4">
-        <v>1.039587063615902</v>
+        <v>1.0072221656951</v>
       </c>
       <c r="N4">
-        <v>1.012879013867214</v>
+        <v>1.004308015316331</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022359366053031</v>
+        <v>0.9835460396878459</v>
       </c>
       <c r="D5">
-        <v>1.03017209807532</v>
+        <v>0.9962069182345042</v>
       </c>
       <c r="E5">
-        <v>1.023057358075439</v>
+        <v>0.9915071117202445</v>
       </c>
       <c r="F5">
-        <v>1.037432675626427</v>
+        <v>0.9984798393107767</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.023416932628374</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.026858761222235</v>
+        <v>1.002913087237574</v>
       </c>
       <c r="K5">
-        <v>1.032618789809561</v>
+        <v>1.006125583492017</v>
       </c>
       <c r="L5">
-        <v>1.02552199781915</v>
+        <v>1.001481926827065</v>
       </c>
       <c r="M5">
-        <v>1.03986132463169</v>
+        <v>1.008371584255836</v>
       </c>
       <c r="N5">
-        <v>1.012949403544407</v>
+        <v>1.004618884358318</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022410583268608</v>
+        <v>0.9837778907679597</v>
       </c>
       <c r="D6">
-        <v>1.030219432033327</v>
+        <v>0.9964097588753096</v>
       </c>
       <c r="E6">
-        <v>1.023101150987447</v>
+        <v>0.9916950664405156</v>
       </c>
       <c r="F6">
-        <v>1.03748756032105</v>
+        <v>0.998712578665975</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.023412460900047</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.026893298700969</v>
+        <v>1.003060606407634</v>
       </c>
       <c r="K6">
-        <v>1.032657246189084</v>
+        <v>1.006288126341671</v>
       </c>
       <c r="L6">
-        <v>1.025556852948643</v>
+        <v>1.001629490948561</v>
       </c>
       <c r="M6">
-        <v>1.039907382655753</v>
+        <v>1.008563804089365</v>
       </c>
       <c r="N6">
-        <v>1.012961219178527</v>
+        <v>1.00467083829684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.022058448907757</v>
+        <v>0.9821779455146266</v>
       </c>
       <c r="D7">
-        <v>1.029894023067784</v>
+        <v>0.9950105064532679</v>
       </c>
       <c r="E7">
-        <v>1.022800086612803</v>
+        <v>0.9903985628905239</v>
       </c>
       <c r="F7">
-        <v>1.037110257791373</v>
+        <v>0.9971071243098407</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.023442985510381</v>
+        <v>1.045357539874438</v>
       </c>
       <c r="J7">
-        <v>1.026655815783625</v>
+        <v>1.002042533457592</v>
       </c>
       <c r="K7">
-        <v>1.032392832251586</v>
+        <v>1.005166503787479</v>
       </c>
       <c r="L7">
-        <v>1.025317196389367</v>
+        <v>1.00061122601467</v>
       </c>
       <c r="M7">
-        <v>1.03959072774283</v>
+        <v>1.007237576394115</v>
       </c>
       <c r="N7">
-        <v>1.012879954625311</v>
+        <v>1.004312185491038</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020587698224991</v>
+        <v>0.9753434446742337</v>
       </c>
       <c r="D8">
-        <v>1.028535566922472</v>
+        <v>0.9890462781381789</v>
       </c>
       <c r="E8">
-        <v>1.02154328106708</v>
+        <v>0.9848739584483244</v>
       </c>
       <c r="F8">
-        <v>1.035535558714178</v>
+        <v>0.9902650091538063</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.023565007130014</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.02566325770935</v>
+        <v>0.9976918863760612</v>
       </c>
       <c r="K8">
-        <v>1.031288107421598</v>
+        <v>1.00037669774252</v>
       </c>
       <c r="L8">
-        <v>1.024315817406213</v>
+        <v>0.9962627962640931</v>
       </c>
       <c r="M8">
-        <v>1.038268374782371</v>
+        <v>1.001578482040074</v>
       </c>
       <c r="N8">
-        <v>1.012539834050499</v>
+        <v>1.00277699799884</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.018000199174954</v>
+        <v>0.9626924558234533</v>
       </c>
       <c r="D9">
-        <v>1.026148197175385</v>
+        <v>0.9780601020365122</v>
       </c>
       <c r="E9">
-        <v>1.019334648703178</v>
+        <v>0.9747051310544117</v>
       </c>
       <c r="F9">
-        <v>1.032769622552555</v>
+        <v>0.9776639556473279</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.023759139049229</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.023914545290446</v>
+        <v>0.9896350969595032</v>
       </c>
       <c r="K9">
-        <v>1.029343251318956</v>
+        <v>0.9915194595796473</v>
       </c>
       <c r="L9">
-        <v>1.022552566921314</v>
+        <v>0.9882223796535307</v>
       </c>
       <c r="M9">
-        <v>1.035942774372515</v>
+        <v>0.9911301220727595</v>
       </c>
       <c r="N9">
-        <v>1.01193881860297</v>
+        <v>0.9999253346224948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.01627794640003</v>
+        <v>0.953794170079029</v>
       </c>
       <c r="D10">
-        <v>1.024560915205688</v>
+        <v>0.9703735135185171</v>
       </c>
       <c r="E10">
-        <v>1.017866280673537</v>
+        <v>0.9675967347950291</v>
       </c>
       <c r="F10">
-        <v>1.030931612079897</v>
+        <v>0.9688471708311356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023874603872166</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>1.022748931942025</v>
+        <v>0.9839690402905948</v>
       </c>
       <c r="K10">
-        <v>1.02804788840283</v>
+        <v>0.9852991108448326</v>
       </c>
       <c r="L10">
-        <v>1.021377945132637</v>
+        <v>0.9825767690028779</v>
       </c>
       <c r="M10">
-        <v>1.034395417686236</v>
+        <v>0.9838026403944817</v>
       </c>
       <c r="N10">
-        <v>1.011537020073727</v>
+        <v>0.9979149010947284</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015532832793117</v>
+        <v>0.9498171955291411</v>
       </c>
       <c r="D11">
-        <v>1.023874621531023</v>
+        <v>0.9669487733868505</v>
       </c>
       <c r="E11">
-        <v>1.017231423147907</v>
+        <v>0.9644313995220551</v>
       </c>
       <c r="F11">
-        <v>1.030137137101096</v>
+        <v>0.9649183551573538</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023921309042974</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>1.022244252338499</v>
+        <v>0.9814376410504254</v>
       </c>
       <c r="K11">
-        <v>1.027487265712157</v>
+        <v>0.9825221151708436</v>
       </c>
       <c r="L11">
-        <v>1.020869528558607</v>
+        <v>0.9800567751515238</v>
       </c>
       <c r="M11">
-        <v>1.033726112216236</v>
+        <v>0.9805336374954998</v>
       </c>
       <c r="N11">
-        <v>1.011362772239941</v>
+        <v>0.9970157514527994</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.015256158558723</v>
+        <v>0.9483200516702733</v>
       </c>
       <c r="D12">
-        <v>1.02361985292866</v>
+        <v>0.9656612181861655</v>
       </c>
       <c r="E12">
-        <v>1.016995752314614</v>
+        <v>0.9632416654018289</v>
       </c>
       <c r="F12">
-        <v>1.029842242742463</v>
+        <v>0.9634411707859434</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.023938164268129</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>1.022056797388697</v>
+        <v>0.980484905345505</v>
       </c>
       <c r="K12">
-        <v>1.027279066933559</v>
+        <v>0.9814772515407244</v>
       </c>
       <c r="L12">
-        <v>1.020680710271985</v>
+        <v>0.9791086872174237</v>
       </c>
       <c r="M12">
-        <v>1.033477608559682</v>
+        <v>0.9793039755001769</v>
       </c>
       <c r="N12">
-        <v>1.011298008889888</v>
+        <v>0.9966772166563751</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015315501877299</v>
+        <v>0.948642117508963</v>
       </c>
       <c r="D13">
-        <v>1.023674494811126</v>
+        <v>0.9659381189917331</v>
       </c>
       <c r="E13">
-        <v>1.017046298014399</v>
+        <v>0.963497515048844</v>
       </c>
       <c r="F13">
-        <v>1.029905489135307</v>
+        <v>0.9637588591482269</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.023934571058996</v>
+        <v>1.044363121405789</v>
       </c>
       <c r="J13">
-        <v>1.022097006866215</v>
+        <v>0.9806898470168959</v>
       </c>
       <c r="K13">
-        <v>1.027323724407619</v>
+        <v>0.9817019968801592</v>
       </c>
       <c r="L13">
-        <v>1.020721211068086</v>
+        <v>0.9793126128348153</v>
       </c>
       <c r="M13">
-        <v>1.033530908639985</v>
+        <v>0.9795684558107343</v>
       </c>
       <c r="N13">
-        <v>1.011311902654673</v>
+        <v>0.9967500437080787</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.015509960899997</v>
+        <v>0.9496938553740535</v>
       </c>
       <c r="D14">
-        <v>1.023853559191552</v>
+        <v>0.9668426648447684</v>
       </c>
       <c r="E14">
-        <v>1.017211939595774</v>
+        <v>0.9643333463250156</v>
       </c>
       <c r="F14">
-        <v>1.030112756781235</v>
+        <v>0.9647966217595532</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.023922712353276</v>
+        <v>1.044410650012189</v>
       </c>
       <c r="J14">
-        <v>1.022228757142771</v>
+        <v>0.9813591463840691</v>
       </c>
       <c r="K14">
-        <v>1.027470055092403</v>
+        <v>0.982436023977166</v>
       </c>
       <c r="L14">
-        <v>1.020853920163529</v>
+        <v>0.9799786561095146</v>
       </c>
       <c r="M14">
-        <v>1.033705568662979</v>
+        <v>0.9804323134429954</v>
       </c>
       <c r="N14">
-        <v>1.011357419695646</v>
+        <v>0.9969878624185921</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015629785966005</v>
+        <v>0.9503391857329823</v>
       </c>
       <c r="D15">
-        <v>1.023963906722703</v>
+        <v>0.9673979071061819</v>
       </c>
       <c r="E15">
-        <v>1.017314015857491</v>
+        <v>0.9648464489938804</v>
       </c>
       <c r="F15">
-        <v>1.030240488896373</v>
+        <v>0.9654336203221546</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023915340507297</v>
+        <v>1.044439407833787</v>
       </c>
       <c r="J15">
-        <v>1.022309933560281</v>
+        <v>0.9817698490877288</v>
       </c>
       <c r="K15">
-        <v>1.027560219740042</v>
+        <v>0.9828864859981178</v>
       </c>
       <c r="L15">
-        <v>1.020935690623516</v>
+        <v>0.980387408011036</v>
       </c>
       <c r="M15">
-        <v>1.033813196524735</v>
+        <v>0.9809624926491811</v>
       </c>
       <c r="N15">
-        <v>1.011385458955995</v>
+        <v>0.99713377950989</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.016327410391852</v>
+        <v>0.9540553891308831</v>
       </c>
       <c r="D16">
-        <v>1.02460648350824</v>
+        <v>0.9705986901774233</v>
       </c>
       <c r="E16">
-        <v>1.017908434205112</v>
+        <v>0.9678048951346618</v>
       </c>
       <c r="F16">
-        <v>1.030984368116399</v>
+        <v>0.969105476290553</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023871434968932</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>1.022782426655572</v>
+        <v>0.984135335927494</v>
       </c>
       <c r="K16">
-        <v>1.028085100914511</v>
+        <v>0.9854815829495313</v>
       </c>
       <c r="L16">
-        <v>1.021411691318446</v>
+        <v>0.9827423637868725</v>
       </c>
       <c r="M16">
-        <v>1.034439852205829</v>
+        <v>0.9840174871557803</v>
       </c>
       <c r="N16">
-        <v>1.011548578722276</v>
+        <v>0.9979739507925509</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.016765180585314</v>
+        <v>0.9563523987172473</v>
       </c>
       <c r="D17">
-        <v>1.025009825113517</v>
+        <v>0.9725799878846496</v>
       </c>
       <c r="E17">
-        <v>1.018281552923018</v>
+        <v>0.9696366756965951</v>
       </c>
       <c r="F17">
-        <v>1.031451357092457</v>
+        <v>0.9713782059169698</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.023843013862435</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.02307881924232</v>
+        <v>0.9855977623508421</v>
       </c>
       <c r="K17">
-        <v>1.028414419212291</v>
+        <v>0.9870864994095544</v>
       </c>
       <c r="L17">
-        <v>1.021710328067462</v>
+        <v>0.9841988864296918</v>
       </c>
       <c r="M17">
-        <v>1.034833126539841</v>
+        <v>0.9859074066603488</v>
       </c>
       <c r="N17">
-        <v>1.011650828170646</v>
+        <v>0.9984931354001365</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.017020585694692</v>
+        <v>0.957680338637055</v>
       </c>
       <c r="D18">
-        <v>1.025245184907689</v>
+        <v>0.9737264142511375</v>
       </c>
       <c r="E18">
-        <v>1.018499278954748</v>
+        <v>0.9706967560552856</v>
       </c>
       <c r="F18">
-        <v>1.031723878568846</v>
+        <v>0.9726932153062607</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.023826118601784</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.023251703773304</v>
+        <v>0.9864433028242078</v>
       </c>
       <c r="K18">
-        <v>1.028606531847662</v>
+        <v>0.9880146176564123</v>
       </c>
       <c r="L18">
-        <v>1.021884537369873</v>
+        <v>0.9850412275426645</v>
       </c>
       <c r="M18">
-        <v>1.035062585361173</v>
+        <v>0.9870005563530321</v>
       </c>
       <c r="N18">
-        <v>1.01171044283295</v>
+        <v>0.998793223750707</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.01710768264132</v>
+        <v>0.958131156508393</v>
       </c>
       <c r="D19">
-        <v>1.02532545305531</v>
+        <v>0.974115778459244</v>
       </c>
       <c r="E19">
-        <v>1.018573533544294</v>
+        <v>0.9710568220756435</v>
       </c>
       <c r="F19">
-        <v>1.031816824218712</v>
+        <v>0.9731398291459729</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.023820303822167</v>
+        <v>1.044760460044815</v>
       </c>
       <c r="J19">
-        <v>1.023310653575343</v>
+        <v>0.9867303652674506</v>
       </c>
       <c r="K19">
-        <v>1.028672041854562</v>
+        <v>0.9883297482129308</v>
       </c>
       <c r="L19">
-        <v>1.02194394155865</v>
+        <v>0.9853272397091446</v>
       </c>
       <c r="M19">
-        <v>1.035140836533132</v>
+        <v>0.9873717581640221</v>
       </c>
       <c r="N19">
-        <v>1.011730765528751</v>
+        <v>0.9988950880988408</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.016718205667347</v>
+        <v>0.956107187777792</v>
       </c>
       <c r="D20">
-        <v>1.024966540297781</v>
+        <v>0.9723683749668444</v>
       </c>
       <c r="E20">
-        <v>1.018241511279632</v>
+        <v>0.9694410143534816</v>
       </c>
       <c r="F20">
-        <v>1.031401239666091</v>
+        <v>0.9711354716524414</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.023846096030192</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.023047018736898</v>
+        <v>0.9854416355078347</v>
       </c>
       <c r="K20">
-        <v>1.028379083701167</v>
+        <v>0.986915140437063</v>
       </c>
       <c r="L20">
-        <v>1.021678285150478</v>
+        <v>0.984043367553824</v>
       </c>
       <c r="M20">
-        <v>1.034790924838149</v>
+        <v>0.9857055953465483</v>
       </c>
       <c r="N20">
-        <v>1.011639860431314</v>
+        <v>0.998437717298277</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.015452694973948</v>
+        <v>0.9493847056070749</v>
       </c>
       <c r="D21">
-        <v>1.02380082501687</v>
+        <v>0.9665767334665978</v>
       </c>
       <c r="E21">
-        <v>1.017163158317031</v>
+        <v>0.9640876082771814</v>
       </c>
       <c r="F21">
-        <v>1.03005171586077</v>
+        <v>0.9644915290017578</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.02392621804881</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>1.022189959819831</v>
+        <v>0.981162404731486</v>
       </c>
       <c r="K21">
-        <v>1.027426963211209</v>
+        <v>0.9822202470701317</v>
       </c>
       <c r="L21">
-        <v>1.020814839808249</v>
+        <v>0.9797828617027604</v>
       </c>
       <c r="M21">
-        <v>1.033654132711969</v>
+        <v>0.9801783624024616</v>
       </c>
       <c r="N21">
-        <v>1.011344017163625</v>
+        <v>0.9969179584774348</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.014657562323476</v>
+        <v>0.9450420451654916</v>
       </c>
       <c r="D22">
-        <v>1.023068769509992</v>
+        <v>0.9628453420562836</v>
       </c>
       <c r="E22">
-        <v>1.016485985348941</v>
+        <v>0.9606402987854505</v>
       </c>
       <c r="F22">
-        <v>1.029204425698047</v>
+        <v>0.9602103119055566</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023973741382756</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>1.021651124695448</v>
+        <v>0.9783993661549293</v>
       </c>
       <c r="K22">
-        <v>1.026828566936165</v>
+        <v>0.9791906081511652</v>
       </c>
       <c r="L22">
-        <v>1.020272132494018</v>
+        <v>0.9770339918731324</v>
       </c>
       <c r="M22">
-        <v>1.032940000555417</v>
+        <v>0.9766134828012201</v>
       </c>
       <c r="N22">
-        <v>1.011157777683047</v>
+        <v>0.9959359571153865</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.015079025937756</v>
+        <v>0.9473556271784237</v>
       </c>
       <c r="D23">
-        <v>1.023456763053269</v>
+        <v>0.9648322966144416</v>
       </c>
       <c r="E23">
-        <v>1.016844888856979</v>
+        <v>0.9624758074414904</v>
       </c>
       <c r="F23">
-        <v>1.029653475863672</v>
+        <v>0.9624901282506714</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.023948818288725</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>1.021936768466199</v>
+        <v>0.9798712461005094</v>
       </c>
       <c r="K23">
-        <v>1.0271457655103</v>
+        <v>0.9808043388524872</v>
       </c>
       <c r="L23">
-        <v>1.020559815364791</v>
+        <v>0.9784981235371299</v>
       </c>
       <c r="M23">
-        <v>1.03331851747302</v>
+        <v>0.9785121378374966</v>
       </c>
       <c r="N23">
-        <v>1.011256528631875</v>
+        <v>0.9964591330809284</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.016739431421464</v>
+        <v>0.9562180246232245</v>
       </c>
       <c r="D24">
-        <v>1.024986098541521</v>
+        <v>0.9724640221911028</v>
       </c>
       <c r="E24">
-        <v>1.018259604089706</v>
+        <v>0.9695294510832305</v>
       </c>
       <c r="F24">
-        <v>1.031423885157301</v>
+        <v>0.9712451855996265</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.023844704313072</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.023061388004713</v>
+        <v>0.9855122055314851</v>
       </c>
       <c r="K24">
-        <v>1.028395050214526</v>
+        <v>0.9869925948507329</v>
       </c>
       <c r="L24">
-        <v>1.021692763904882</v>
+        <v>0.9841136621107067</v>
       </c>
       <c r="M24">
-        <v>1.034809993758543</v>
+        <v>0.9857968135783316</v>
       </c>
       <c r="N24">
-        <v>1.01164481636003</v>
+        <v>0.9984627668121149</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.018668642350705</v>
+        <v>0.9660405238700767</v>
       </c>
       <c r="D25">
-        <v>1.026764631418412</v>
+        <v>0.980960895694009</v>
       </c>
       <c r="E25">
-        <v>1.019904919118999</v>
+        <v>0.9773891125394346</v>
       </c>
       <c r="F25">
-        <v>1.03348363322587</v>
+        <v>0.9809910620619164</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02371141742819</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.02436659444327</v>
+        <v>0.9917674159135295</v>
       </c>
       <c r="K25">
-        <v>1.029845829691816</v>
+        <v>0.9938621390658114</v>
       </c>
       <c r="L25">
-        <v>1.023008254574207</v>
+        <v>0.9903488768430063</v>
       </c>
       <c r="M25">
-        <v>1.036543460030294</v>
+        <v>0.9938918135127986</v>
       </c>
       <c r="N25">
-        <v>1.012094393749036</v>
+        <v>1.000680980906285</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9735446214542707</v>
+        <v>1.011508220674231</v>
       </c>
       <c r="D2">
-        <v>0.9874799495658062</v>
+        <v>1.027863848062559</v>
       </c>
       <c r="E2">
-        <v>0.9834235466018301</v>
+        <v>1.016227399146064</v>
       </c>
       <c r="F2">
-        <v>0.9884683372424655</v>
+        <v>1.035442602796119</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045224098310553</v>
+        <v>1.048075283396713</v>
       </c>
       <c r="J2">
-        <v>0.996546464487682</v>
+        <v>1.033350087951721</v>
       </c>
       <c r="K2">
-        <v>0.9991165089657444</v>
+        <v>1.038948177983117</v>
       </c>
       <c r="L2">
-        <v>0.9951187525523233</v>
+        <v>1.027465196521886</v>
       </c>
       <c r="M2">
-        <v>1.000090699106877</v>
+        <v>1.046429298387943</v>
       </c>
       <c r="N2">
-        <v>1.002372208457872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014565837347606</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045318049993087</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038610009641275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9788202229049456</v>
+        <v>1.015726182790741</v>
       </c>
       <c r="D3">
-        <v>0.9920777337129921</v>
+        <v>1.030970657385261</v>
       </c>
       <c r="E3">
-        <v>0.9876816226186581</v>
+        <v>1.019601599205722</v>
       </c>
       <c r="F3">
-        <v>0.993742487421129</v>
+        <v>1.038437024764708</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045318143171977</v>
+        <v>1.048873291798405</v>
       </c>
       <c r="J3">
-        <v>0.9999054084118811</v>
+        <v>1.03579712738839</v>
       </c>
       <c r="K3">
-        <v>1.002812995164702</v>
+        <v>1.041222024232473</v>
       </c>
       <c r="L3">
-        <v>0.998474584159646</v>
+        <v>1.02998966969744</v>
       </c>
       <c r="M3">
-        <v>1.004456065413565</v>
+        <v>1.048600628948031</v>
       </c>
       <c r="N3">
-        <v>1.003558554998295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.01542732975132</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.04703649915252</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.040215154710051</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9821593503715633</v>
+        <v>1.01840456126138</v>
       </c>
       <c r="D4">
-        <v>0.9949942506821632</v>
+        <v>1.032950260416822</v>
       </c>
       <c r="E4">
-        <v>0.9903835016516708</v>
+        <v>1.02174978076183</v>
       </c>
       <c r="F4">
-        <v>0.9970884736324743</v>
+        <v>1.040345991587176</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045357368412754</v>
+        <v>1.049369003352886</v>
       </c>
       <c r="J4">
-        <v>1.002030699970784</v>
+        <v>1.03734891234687</v>
       </c>
       <c r="K4">
-        <v>1.005153468517406</v>
+        <v>1.042666627138524</v>
       </c>
       <c r="L4">
-        <v>1.000599391914976</v>
+        <v>1.031592604942735</v>
       </c>
       <c r="M4">
-        <v>1.0072221656951</v>
+        <v>1.049980691335344</v>
       </c>
       <c r="N4">
-        <v>1.004308015316331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015973216853241</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048128715406596</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.041237507207599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9835460396878459</v>
+        <v>1.019524337053239</v>
       </c>
       <c r="D5">
-        <v>0.9962069182345042</v>
+        <v>1.033782075263323</v>
       </c>
       <c r="E5">
-        <v>0.9915071117202445</v>
+        <v>1.02264984955592</v>
       </c>
       <c r="F5">
-        <v>0.9984798393107767</v>
+        <v>1.041146779590874</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045368675785518</v>
+        <v>1.049574889491214</v>
       </c>
       <c r="J5">
-        <v>1.002913087237574</v>
+        <v>1.03799936913445</v>
       </c>
       <c r="K5">
-        <v>1.006125583492017</v>
+        <v>1.043274364412125</v>
       </c>
       <c r="L5">
-        <v>1.001481926827065</v>
+        <v>1.032264439885308</v>
       </c>
       <c r="M5">
-        <v>1.008371584255836</v>
+        <v>1.050559918907621</v>
       </c>
       <c r="N5">
-        <v>1.004618884358318</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016202519418166</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048587130267148</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.04167438252295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9837778907679597</v>
+        <v>1.019718478529685</v>
       </c>
       <c r="D6">
-        <v>0.9964097588753096</v>
+        <v>1.033929515617426</v>
       </c>
       <c r="E6">
-        <v>0.9916950664405156</v>
+        <v>1.022806765733902</v>
       </c>
       <c r="F6">
-        <v>0.998712578665975</v>
+        <v>1.041286834526249</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04537027023839</v>
+        <v>1.049612050792168</v>
       </c>
       <c r="J6">
-        <v>1.003060606407634</v>
+        <v>1.038114805286321</v>
       </c>
       <c r="K6">
-        <v>1.006288126341671</v>
+        <v>1.043384145271899</v>
       </c>
       <c r="L6">
-        <v>1.001629490948561</v>
+        <v>1.032383025293097</v>
       </c>
       <c r="M6">
-        <v>1.008563804089365</v>
+        <v>1.050662758001428</v>
       </c>
       <c r="N6">
-        <v>1.00467083829684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016243927383274</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.048668519610391</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.041760730676639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9821779455146266</v>
+        <v>1.018438008501625</v>
       </c>
       <c r="D7">
-        <v>0.9950105064532679</v>
+        <v>1.032983497751479</v>
       </c>
       <c r="E7">
-        <v>0.9903985628905239</v>
+        <v>1.021778809906255</v>
       </c>
       <c r="F7">
-        <v>0.9971071243098407</v>
+        <v>1.040372893625749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045357539874438</v>
+        <v>1.049379568845149</v>
       </c>
       <c r="J7">
-        <v>1.002042533457592</v>
+        <v>1.037375622460806</v>
       </c>
       <c r="K7">
-        <v>1.005166503787479</v>
+        <v>1.042696620760323</v>
       </c>
       <c r="L7">
-        <v>1.00061122601467</v>
+        <v>1.03161838623516</v>
       </c>
       <c r="M7">
-        <v>1.007237576394115</v>
+        <v>1.05000445259617</v>
       </c>
       <c r="N7">
-        <v>1.004312185491038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015984600828605</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048147520654859</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.041278786340793</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9753434446742337</v>
+        <v>1.012968114300727</v>
       </c>
       <c r="D8">
-        <v>0.9890462781381789</v>
+        <v>1.02894825799314</v>
       </c>
       <c r="E8">
-        <v>0.9848739584483244</v>
+        <v>1.017396931831548</v>
       </c>
       <c r="F8">
-        <v>0.9902650091538063</v>
+        <v>1.036481217425324</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045260356825638</v>
+        <v>1.048359308162278</v>
       </c>
       <c r="J8">
-        <v>0.9976918863760612</v>
+        <v>1.034206712179526</v>
       </c>
       <c r="K8">
-        <v>1.00037669774252</v>
+        <v>1.039749879890248</v>
       </c>
       <c r="L8">
-        <v>0.9962627962640931</v>
+        <v>1.028346296251568</v>
       </c>
       <c r="M8">
-        <v>1.001578482040074</v>
+        <v>1.047188701615862</v>
       </c>
       <c r="N8">
-        <v>1.00277699799884</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.014870106256003</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045919062503041</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.039199774707701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9626924558234533</v>
+        <v>1.002890372505619</v>
       </c>
       <c r="D9">
-        <v>0.9780601020365122</v>
+        <v>1.021555981839376</v>
       </c>
       <c r="E9">
-        <v>0.9747051310544117</v>
+        <v>1.00936631132519</v>
       </c>
       <c r="F9">
-        <v>0.9776639556473279</v>
+        <v>1.029368359527275</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044923609578788</v>
+        <v>1.046386804424866</v>
       </c>
       <c r="J9">
-        <v>0.9896350969595032</v>
+        <v>1.02834147551411</v>
       </c>
       <c r="K9">
-        <v>0.9915194595796473</v>
+        <v>1.034308748045652</v>
       </c>
       <c r="L9">
-        <v>0.9882223796535307</v>
+        <v>1.022309232713773</v>
       </c>
       <c r="M9">
-        <v>0.9911301220727595</v>
+        <v>1.0420022708746</v>
       </c>
       <c r="N9">
-        <v>0.9999253346224948</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012800781176749</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041814369352361</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.035349340866834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.953794170079029</v>
+        <v>0.9959593754875755</v>
       </c>
       <c r="D10">
-        <v>0.9703735135185171</v>
+        <v>1.016542709056728</v>
       </c>
       <c r="E10">
-        <v>0.9675967347950291</v>
+        <v>1.003888635164163</v>
       </c>
       <c r="F10">
-        <v>0.9688471708311356</v>
+        <v>1.024597551753477</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044587919160615</v>
+        <v>1.044999942825392</v>
       </c>
       <c r="J10">
-        <v>0.9839690402905948</v>
+        <v>1.024334229584241</v>
       </c>
       <c r="K10">
-        <v>0.9852991108448326</v>
+        <v>1.03061956827853</v>
       </c>
       <c r="L10">
-        <v>0.9825767690028779</v>
+        <v>1.018188032268112</v>
       </c>
       <c r="M10">
-        <v>0.9838026403944817</v>
+        <v>1.038536451955236</v>
       </c>
       <c r="N10">
-        <v>0.9979149010947284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011395311604258</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039122804020336</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.032757695991245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9498171955291411</v>
+        <v>0.9935858635116954</v>
       </c>
       <c r="D11">
-        <v>0.9669487733868505</v>
+        <v>1.015068882442617</v>
       </c>
       <c r="E11">
-        <v>0.9644313995220551</v>
+        <v>1.002114171406005</v>
       </c>
       <c r="F11">
-        <v>0.9649183551573538</v>
+        <v>1.023579301222572</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0444161704399</v>
+        <v>1.044704756159879</v>
       </c>
       <c r="J11">
-        <v>0.9814376410504254</v>
+        <v>1.02322793413456</v>
       </c>
       <c r="K11">
-        <v>0.9825221151708436</v>
+        <v>1.029712108903067</v>
       </c>
       <c r="L11">
-        <v>0.9800567751515238</v>
+        <v>1.016996327382794</v>
       </c>
       <c r="M11">
-        <v>0.9805336374954998</v>
+        <v>1.038069837052603</v>
       </c>
       <c r="N11">
-        <v>0.9970157514527994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.011090067856212</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039189381751479</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.032149043030092</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9483200516702733</v>
+        <v>0.9929500314555196</v>
       </c>
       <c r="D12">
-        <v>0.9656612181861655</v>
+        <v>1.014777003149153</v>
       </c>
       <c r="E12">
-        <v>0.9632416654018289</v>
+        <v>1.001686443790369</v>
       </c>
       <c r="F12">
-        <v>0.9634411707859434</v>
+        <v>1.023587813618295</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044348406001364</v>
+        <v>1.044715200244014</v>
       </c>
       <c r="J12">
-        <v>0.980484905345505</v>
+        <v>1.023055784805841</v>
       </c>
       <c r="K12">
-        <v>0.9814772515407244</v>
+        <v>1.029626471247987</v>
       </c>
       <c r="L12">
-        <v>0.9791086872174237</v>
+        <v>1.016781405364148</v>
       </c>
       <c r="M12">
-        <v>0.9793039755001769</v>
+        <v>1.038276643774607</v>
       </c>
       <c r="N12">
-        <v>0.9966772166563751</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011096082512934</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039679048071392</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.032088494009361</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.948642117508963</v>
+        <v>0.9936356102404811</v>
       </c>
       <c r="D13">
-        <v>0.9659381189917331</v>
+        <v>1.01540538293905</v>
       </c>
       <c r="E13">
-        <v>0.963497515048844</v>
+        <v>1.002288136292798</v>
       </c>
       <c r="F13">
-        <v>0.9637588591482269</v>
+        <v>1.024419892280118</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044363121405789</v>
+        <v>1.044976986698005</v>
       </c>
       <c r="J13">
-        <v>0.9806898470168959</v>
+        <v>1.02361817014265</v>
       </c>
       <c r="K13">
-        <v>0.9817019968801592</v>
+        <v>1.030200210490345</v>
       </c>
       <c r="L13">
-        <v>0.9793126128348153</v>
+        <v>1.017327743068847</v>
       </c>
       <c r="M13">
-        <v>0.9795684558107343</v>
+        <v>1.039051222094204</v>
       </c>
       <c r="N13">
-        <v>0.9967500437080787</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011353983269173</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040567869257228</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.032491647755735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9496938553740535</v>
+        <v>0.9947146984463519</v>
       </c>
       <c r="D14">
-        <v>0.9668426648447684</v>
+        <v>1.016263347739392</v>
       </c>
       <c r="E14">
-        <v>0.9643333463250156</v>
+        <v>1.003176223018886</v>
       </c>
       <c r="F14">
-        <v>0.9647966217595532</v>
+        <v>1.025375290542698</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.044410650012189</v>
+        <v>1.04527384266238</v>
       </c>
       <c r="J14">
-        <v>0.9813591463840691</v>
+        <v>1.024344988113433</v>
       </c>
       <c r="K14">
-        <v>0.982436023977166</v>
+        <v>1.030901518504359</v>
       </c>
       <c r="L14">
-        <v>0.9799786561095146</v>
+        <v>1.018055378567346</v>
       </c>
       <c r="M14">
-        <v>0.9804323134429954</v>
+        <v>1.039850386502282</v>
       </c>
       <c r="N14">
-        <v>0.9969878624185921</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011648893110501</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041372715895854</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.032988928031912</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9503391857329823</v>
+        <v>0.9952735088692996</v>
       </c>
       <c r="D15">
-        <v>0.9673979071061819</v>
+        <v>1.016685238512942</v>
       </c>
       <c r="E15">
-        <v>0.9648464489938804</v>
+        <v>1.003624820466059</v>
       </c>
       <c r="F15">
-        <v>0.9654336203221546</v>
+        <v>1.025805389567343</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044439407833787</v>
+        <v>1.045405313139433</v>
       </c>
       <c r="J15">
-        <v>0.9817698490877288</v>
+        <v>1.024691958029448</v>
       </c>
       <c r="K15">
-        <v>0.9828864859981178</v>
+        <v>1.031228990080437</v>
       </c>
       <c r="L15">
-        <v>0.980387408011036</v>
+        <v>1.018407150783023</v>
       </c>
       <c r="M15">
-        <v>0.9809624926491811</v>
+        <v>1.040187208571228</v>
       </c>
       <c r="N15">
-        <v>0.99713377950989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.01177970894817</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.04167643250698</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.033226350424559</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9540553891308831</v>
+        <v>0.9980794865185236</v>
       </c>
       <c r="D16">
-        <v>0.9705986901774233</v>
+        <v>1.018694468685664</v>
       </c>
       <c r="E16">
-        <v>0.9678048951346618</v>
+        <v>1.005824509007114</v>
       </c>
       <c r="F16">
-        <v>0.969105476290553</v>
+        <v>1.027697830488181</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044598761177637</v>
+        <v>1.045958303207437</v>
       </c>
       <c r="J16">
-        <v>0.984135335927494</v>
+        <v>1.026292479585543</v>
       </c>
       <c r="K16">
-        <v>0.9854815829495313</v>
+        <v>1.032698486170406</v>
       </c>
       <c r="L16">
-        <v>0.9827423637868725</v>
+        <v>1.020053019386439</v>
       </c>
       <c r="M16">
-        <v>0.9840174871557803</v>
+        <v>1.041549110011566</v>
       </c>
       <c r="N16">
-        <v>0.9979739507925509</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.012329233978245</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042714214888311</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034268511630694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9563523987172473</v>
+        <v>0.9996689735930968</v>
       </c>
       <c r="D17">
-        <v>0.9725799878846496</v>
+        <v>1.019788783236256</v>
       </c>
       <c r="E17">
-        <v>0.9696366756965951</v>
+        <v>1.007050205453649</v>
       </c>
       <c r="F17">
-        <v>0.9713782059169698</v>
+        <v>1.028645836025206</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044691650831722</v>
+        <v>1.046224613903211</v>
       </c>
       <c r="J17">
-        <v>0.9855977623508421</v>
+        <v>1.027139878603746</v>
       </c>
       <c r="K17">
-        <v>0.9870864994095544</v>
+        <v>1.033458517276849</v>
       </c>
       <c r="L17">
-        <v>0.9841988864296918</v>
+        <v>1.020935738034354</v>
       </c>
       <c r="M17">
-        <v>0.9859074066603488</v>
+        <v>1.042169574559886</v>
       </c>
       <c r="N17">
-        <v>0.9984931354001365</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012596350702269</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.043075816935711</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.034808474399574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.957680338637055</v>
+        <v>1.000340060503894</v>
       </c>
       <c r="D18">
-        <v>0.9737264142511375</v>
+        <v>1.020161980781153</v>
       </c>
       <c r="E18">
-        <v>0.9706967560552856</v>
+        <v>1.007529176916591</v>
       </c>
       <c r="F18">
-        <v>0.9726932153062607</v>
+        <v>1.02881423898868</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044743285667331</v>
+        <v>1.046257914028717</v>
       </c>
       <c r="J18">
-        <v>0.9864433028242078</v>
+        <v>1.027390226915589</v>
       </c>
       <c r="K18">
-        <v>0.9880146176564123</v>
+        <v>1.033641536654191</v>
       </c>
       <c r="L18">
-        <v>0.9850412275426645</v>
+        <v>1.021219200339325</v>
       </c>
       <c r="M18">
-        <v>0.9870005563530321</v>
+        <v>1.042153470153903</v>
       </c>
       <c r="N18">
-        <v>0.998793223750707</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.012632987971665</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042825823505643</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.034926216959317</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.958131156508393</v>
+        <v>1.000212645219204</v>
       </c>
       <c r="D19">
-        <v>0.974115778459244</v>
+        <v>1.019916368665457</v>
       </c>
       <c r="E19">
-        <v>0.9710568220756435</v>
+        <v>1.00736304871489</v>
       </c>
       <c r="F19">
-        <v>0.9731398291459729</v>
+        <v>1.028297768186349</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044760460044815</v>
+        <v>1.046097782003694</v>
       </c>
       <c r="J19">
-        <v>0.9867303652674506</v>
+        <v>1.027133041210633</v>
       </c>
       <c r="K19">
-        <v>0.9883297482129308</v>
+        <v>1.033337203538552</v>
       </c>
       <c r="L19">
-        <v>0.9853272397091446</v>
+        <v>1.020992017110687</v>
       </c>
       <c r="M19">
-        <v>0.9873717581640221</v>
+        <v>1.041583266967182</v>
       </c>
       <c r="N19">
-        <v>0.9988950880988408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012480540092112</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.042050073094887</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034717451469441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.956107187777792</v>
+        <v>0.9978110312410283</v>
       </c>
       <c r="D20">
-        <v>0.9723683749668444</v>
+        <v>1.017902299130779</v>
       </c>
       <c r="E20">
-        <v>0.9694410143534816</v>
+        <v>1.005356727141791</v>
       </c>
       <c r="F20">
-        <v>0.9711354716524414</v>
+        <v>1.025881163737255</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044681948034609</v>
+        <v>1.045386985106831</v>
       </c>
       <c r="J20">
-        <v>0.9854416355078347</v>
+        <v>1.025426595526919</v>
       </c>
       <c r="K20">
-        <v>0.986915140437063</v>
+        <v>1.031637496758181</v>
       </c>
       <c r="L20">
-        <v>0.984043367553824</v>
+        <v>1.019306034425679</v>
       </c>
       <c r="M20">
-        <v>0.9857055953465483</v>
+        <v>1.039483694349555</v>
       </c>
       <c r="N20">
-        <v>0.998437717298277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011785027461663</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039861905177377</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.033519628579342</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9493847056070749</v>
+        <v>0.9924632794798502</v>
       </c>
       <c r="D21">
-        <v>0.9665767334665978</v>
+        <v>1.01400044213846</v>
       </c>
       <c r="E21">
-        <v>0.9640876082771814</v>
+        <v>1.001125006697245</v>
       </c>
       <c r="F21">
-        <v>0.9644915290017578</v>
+        <v>1.022097470200112</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044396763635349</v>
+        <v>1.044261332318358</v>
       </c>
       <c r="J21">
-        <v>0.981162404731486</v>
+        <v>1.022279522827544</v>
       </c>
       <c r="K21">
-        <v>0.9822202470701317</v>
+        <v>1.028721339285414</v>
       </c>
       <c r="L21">
-        <v>0.9797828617027604</v>
+        <v>1.01608509678185</v>
       </c>
       <c r="M21">
-        <v>0.9801783624024616</v>
+        <v>1.036671953639609</v>
       </c>
       <c r="N21">
-        <v>0.9969179584774348</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010665244565055</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.037595775973221</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.031461036801939</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9450420451654916</v>
+        <v>0.9890481602161013</v>
       </c>
       <c r="D22">
-        <v>0.9628453420562836</v>
+        <v>1.011523504567553</v>
       </c>
       <c r="E22">
-        <v>0.9606402987854505</v>
+        <v>0.9984332494224928</v>
       </c>
       <c r="F22">
-        <v>0.9602103119055566</v>
+        <v>1.019726597253039</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044194488544656</v>
+        <v>1.043538362723456</v>
       </c>
       <c r="J22">
-        <v>0.9783993661549293</v>
+        <v>1.02027668183565</v>
       </c>
       <c r="K22">
-        <v>0.9791906081511652</v>
+        <v>1.026870083681805</v>
       </c>
       <c r="L22">
-        <v>0.9770339918731324</v>
+        <v>1.014035807973663</v>
       </c>
       <c r="M22">
-        <v>0.9766134828012201</v>
+        <v>1.034917140348715</v>
       </c>
       <c r="N22">
-        <v>0.9959359571153865</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009954362615255</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.036206951930216</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.030138544880526</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9473556271784237</v>
+        <v>0.9908462777451542</v>
       </c>
       <c r="D23">
-        <v>0.9648322966144416</v>
+        <v>1.012818863568009</v>
       </c>
       <c r="E23">
-        <v>0.9624758074414904</v>
+        <v>0.9998471134084922</v>
       </c>
       <c r="F23">
-        <v>0.9624901282506714</v>
+        <v>1.020970856839423</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044303897290665</v>
+        <v>1.043915866583818</v>
       </c>
       <c r="J23">
-        <v>0.9798712461005094</v>
+        <v>1.021324085328797</v>
       </c>
       <c r="K23">
-        <v>0.9808043388524872</v>
+        <v>1.027833551012513</v>
       </c>
       <c r="L23">
-        <v>0.9784981235371299</v>
+        <v>1.015108717884989</v>
       </c>
       <c r="M23">
-        <v>0.9785121378374966</v>
+        <v>1.035834552126167</v>
       </c>
       <c r="N23">
-        <v>0.9964591330809284</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010323907003344</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036933025828765</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.030810078443908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,78 +1599,102 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9562180246232245</v>
+        <v>0.9978034771674948</v>
       </c>
       <c r="D24">
-        <v>0.9724640221911028</v>
+        <v>1.017862448676352</v>
       </c>
       <c r="E24">
-        <v>0.9695294510832305</v>
+        <v>1.005338440311244</v>
       </c>
       <c r="F24">
-        <v>0.9712451855996265</v>
+        <v>1.025811702743863</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04468634017905</v>
+        <v>1.045361369682173</v>
       </c>
       <c r="J24">
-        <v>0.9855122055314851</v>
+        <v>1.025386343406114</v>
       </c>
       <c r="K24">
-        <v>0.9869925948507329</v>
+        <v>1.031582976680812</v>
       </c>
       <c r="L24">
-        <v>0.9841136621107067</v>
+        <v>1.01927245108184</v>
       </c>
       <c r="M24">
-        <v>0.9857968135783316</v>
+        <v>1.03940020726181</v>
       </c>
       <c r="N24">
-        <v>0.9984627668121149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011760259067875</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039755011277259</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.033453588189061</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>0.9660405238700767</v>
+        <v>1.005578172327714</v>
       </c>
       <c r="D25">
-        <v>0.980960895694009</v>
+        <v>1.02353413344807</v>
       </c>
       <c r="E25">
-        <v>0.9773891125394346</v>
+        <v>1.011506354770516</v>
       </c>
       <c r="F25">
-        <v>0.9809910620619164</v>
+        <v>1.031262719538748</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045030265302785</v>
+        <v>1.046929730258783</v>
       </c>
       <c r="J25">
-        <v>0.9917674159135295</v>
+        <v>1.029919256050709</v>
       </c>
       <c r="K25">
-        <v>0.9938621390658114</v>
+        <v>1.035777775819601</v>
       </c>
       <c r="L25">
-        <v>0.9903488768430063</v>
+        <v>1.023928637241841</v>
       </c>
       <c r="M25">
-        <v>0.9938918135127986</v>
+        <v>1.04339435982293</v>
       </c>
       <c r="N25">
-        <v>1.000680980906285</v>
+        <v>1.013361291635873</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042916111577026</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.036416665829599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_31/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011508220674231</v>
+        <v>1.011132602564788</v>
       </c>
       <c r="D2">
-        <v>1.027863848062559</v>
+        <v>1.026895319796024</v>
       </c>
       <c r="E2">
-        <v>1.016227399146064</v>
+        <v>1.015948481038494</v>
       </c>
       <c r="F2">
-        <v>1.035442602796119</v>
+        <v>1.034869716767754</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048075283396713</v>
+        <v>1.047998577334836</v>
       </c>
       <c r="J2">
-        <v>1.033350087951721</v>
+        <v>1.032985362513313</v>
       </c>
       <c r="K2">
-        <v>1.038948177983117</v>
+        <v>1.037992256961228</v>
       </c>
       <c r="L2">
-        <v>1.027465196521886</v>
+        <v>1.027190011119187</v>
       </c>
       <c r="M2">
-        <v>1.046429298387943</v>
+        <v>1.045863730202064</v>
       </c>
       <c r="N2">
-        <v>1.014565837347606</v>
+        <v>1.015660499027256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045318049993087</v>
+        <v>1.044870443523457</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038610009641275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037942865150469</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.021918757919194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015726182790741</v>
+        <v>1.015067473105368</v>
       </c>
       <c r="D3">
-        <v>1.030970657385261</v>
+        <v>1.029661614443121</v>
       </c>
       <c r="E3">
-        <v>1.019601599205722</v>
+        <v>1.019070844817526</v>
       </c>
       <c r="F3">
-        <v>1.038437024764708</v>
+        <v>1.037620238424587</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.048873291798405</v>
+        <v>1.048690185158379</v>
       </c>
       <c r="J3">
-        <v>1.03579712738839</v>
+        <v>1.035155644505452</v>
       </c>
       <c r="K3">
-        <v>1.041222024232473</v>
+        <v>1.039928530826364</v>
       </c>
       <c r="L3">
-        <v>1.02998966969744</v>
+        <v>1.029465389820881</v>
       </c>
       <c r="M3">
-        <v>1.048600628948031</v>
+        <v>1.047793367336489</v>
       </c>
       <c r="N3">
-        <v>1.01542732975132</v>
+        <v>1.016262802723446</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.04703649915252</v>
+        <v>1.046397611161007</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.040215154710051</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.039309036495409</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022359926038499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01840456126138</v>
+        <v>1.017568711495726</v>
       </c>
       <c r="D4">
-        <v>1.032950260416822</v>
+        <v>1.031426652228598</v>
       </c>
       <c r="E4">
-        <v>1.02174978076183</v>
+        <v>1.021061289992335</v>
       </c>
       <c r="F4">
-        <v>1.040345991587176</v>
+        <v>1.039375956064237</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049369003352886</v>
+        <v>1.049119149603137</v>
       </c>
       <c r="J4">
-        <v>1.03734891234687</v>
+        <v>1.036533439933325</v>
       </c>
       <c r="K4">
-        <v>1.042666627138524</v>
+        <v>1.041160022364402</v>
       </c>
       <c r="L4">
-        <v>1.031592604942735</v>
+        <v>1.030911999179918</v>
       </c>
       <c r="M4">
-        <v>1.049980691335344</v>
+        <v>1.049021286034448</v>
       </c>
       <c r="N4">
-        <v>1.015973216853241</v>
+        <v>1.016645028526145</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048128715406596</v>
+        <v>1.047369417973665</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.041237507207599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.040180781430838</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022638030946445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019524337053239</v>
+        <v>1.018614784603024</v>
       </c>
       <c r="D5">
-        <v>1.033782075263323</v>
+        <v>1.032168987993531</v>
       </c>
       <c r="E5">
-        <v>1.02264984955592</v>
+        <v>1.021895674124228</v>
       </c>
       <c r="F5">
-        <v>1.041146779590874</v>
+        <v>1.040112900875106</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049574889491214</v>
+        <v>1.049297198888175</v>
       </c>
       <c r="J5">
-        <v>1.03799936913445</v>
+        <v>1.037111327012309</v>
       </c>
       <c r="K5">
-        <v>1.043274364412125</v>
+        <v>1.041678798300597</v>
       </c>
       <c r="L5">
-        <v>1.032264439885308</v>
+        <v>1.031518668568061</v>
       </c>
       <c r="M5">
-        <v>1.050559918907621</v>
+        <v>1.04953706864997</v>
       </c>
       <c r="N5">
-        <v>1.016202519418166</v>
+        <v>1.016805735697288</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048587130267148</v>
+        <v>1.047777621376805</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.04167438252295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.040555466159322</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.02275530872638</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019718478529685</v>
+        <v>1.018795883233607</v>
       </c>
       <c r="D6">
-        <v>1.033929515617426</v>
+        <v>1.032300744968236</v>
       </c>
       <c r="E6">
-        <v>1.022806765733902</v>
+        <v>1.022040933274304</v>
       </c>
       <c r="F6">
-        <v>1.041286834526249</v>
+        <v>1.040241726445645</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049612050792168</v>
+        <v>1.049329394869131</v>
       </c>
       <c r="J6">
-        <v>1.038114805286321</v>
+        <v>1.037213916193077</v>
       </c>
       <c r="K6">
-        <v>1.043384145271899</v>
+        <v>1.041772984679058</v>
       </c>
       <c r="L6">
-        <v>1.032383025293097</v>
+        <v>1.031625687179679</v>
       </c>
       <c r="M6">
-        <v>1.050662758001428</v>
+        <v>1.049628747100657</v>
       </c>
       <c r="N6">
-        <v>1.016243927383274</v>
+        <v>1.016834782818301</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.048668519610391</v>
+        <v>1.047850177997131</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.041760730676639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.040631659249393</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022777448093454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018438008501625</v>
+        <v>1.017608613343796</v>
       </c>
       <c r="D7">
-        <v>1.032983497751479</v>
+        <v>1.031464033312896</v>
       </c>
       <c r="E7">
-        <v>1.021778809906255</v>
+        <v>1.021096272680803</v>
       </c>
       <c r="F7">
-        <v>1.040372893625749</v>
+        <v>1.039406448035802</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.049379568845149</v>
+        <v>1.049132333029275</v>
       </c>
       <c r="J7">
-        <v>1.037375622460806</v>
+        <v>1.036566437973416</v>
       </c>
       <c r="K7">
-        <v>1.042696620760323</v>
+        <v>1.041194106413821</v>
       </c>
       <c r="L7">
-        <v>1.03161838623516</v>
+        <v>1.030943662616046</v>
       </c>
       <c r="M7">
-        <v>1.05000445259617</v>
+        <v>1.049048593647933</v>
       </c>
       <c r="N7">
-        <v>1.015984600828605</v>
+        <v>1.016681874321386</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048147520654859</v>
+        <v>1.047391029915081</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.041278786340793</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.040226957389625</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022649082929877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.012968114300727</v>
+        <v>1.012522185372704</v>
       </c>
       <c r="D8">
-        <v>1.02894825799314</v>
+        <v>1.027883596574884</v>
       </c>
       <c r="E8">
-        <v>1.017396931831548</v>
+        <v>1.017056407558306</v>
       </c>
       <c r="F8">
-        <v>1.036481217425324</v>
+        <v>1.035841540977183</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048359308162278</v>
+        <v>1.04825710859007</v>
       </c>
       <c r="J8">
-        <v>1.034206712179526</v>
+        <v>1.033773278045736</v>
       </c>
       <c r="K8">
-        <v>1.039749879890248</v>
+        <v>1.038698662184483</v>
       </c>
       <c r="L8">
-        <v>1.028346296251568</v>
+        <v>1.028010191054915</v>
       </c>
       <c r="M8">
-        <v>1.047188701615862</v>
+        <v>1.046556952807093</v>
       </c>
       <c r="N8">
-        <v>1.014870106256003</v>
+        <v>1.015961034921768</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045919062503041</v>
+        <v>1.045419079230447</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.039199774707701</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038467515735741</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022086310893745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002890372505619</v>
+        <v>1.003142921850463</v>
       </c>
       <c r="D9">
-        <v>1.021555981839376</v>
+        <v>1.021319570215601</v>
       </c>
       <c r="E9">
-        <v>1.00936631132519</v>
+        <v>1.009646270941647</v>
       </c>
       <c r="F9">
-        <v>1.029368359527275</v>
+        <v>1.029325184921827</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046386804424866</v>
+        <v>1.046546317324475</v>
       </c>
       <c r="J9">
-        <v>1.02834147551411</v>
+        <v>1.028585181529669</v>
       </c>
       <c r="K9">
-        <v>1.034308748045652</v>
+        <v>1.034075969281461</v>
       </c>
       <c r="L9">
-        <v>1.022309232713773</v>
+        <v>1.022584759077867</v>
       </c>
       <c r="M9">
-        <v>1.0420022708746</v>
+        <v>1.041959746799681</v>
       </c>
       <c r="N9">
-        <v>1.012800781176749</v>
+        <v>1.014528877898258</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041814369352361</v>
+        <v>1.04178071445866</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.035349340866834</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035195511293768</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021017153753994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9959593754875755</v>
+        <v>0.9967433428712001</v>
       </c>
       <c r="D10">
-        <v>1.016542709056728</v>
+        <v>1.016911494277493</v>
       </c>
       <c r="E10">
-        <v>1.003888635164163</v>
+        <v>1.004640080793731</v>
       </c>
       <c r="F10">
-        <v>1.024597551753477</v>
+        <v>1.024995568303467</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044999942825392</v>
+        <v>1.045357910590439</v>
       </c>
       <c r="J10">
-        <v>1.024334229584241</v>
+        <v>1.025086768843857</v>
       </c>
       <c r="K10">
-        <v>1.03061956827853</v>
+        <v>1.030981975387488</v>
       </c>
       <c r="L10">
-        <v>1.018188032268112</v>
+        <v>1.018926059507224</v>
       </c>
       <c r="M10">
-        <v>1.038536451955236</v>
+        <v>1.038927724045664</v>
       </c>
       <c r="N10">
-        <v>1.011395311604258</v>
+        <v>1.013682519756954</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039122804020336</v>
+        <v>1.039432450905011</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.032757695991245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033026391576394</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020303221891881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9935858635116954</v>
+        <v>0.9945464542614999</v>
       </c>
       <c r="D11">
-        <v>1.015068882442617</v>
+        <v>1.015627612033643</v>
       </c>
       <c r="E11">
-        <v>1.002114171406005</v>
+        <v>1.003018266399648</v>
       </c>
       <c r="F11">
-        <v>1.023579301222572</v>
+        <v>1.024115249825407</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044704756159879</v>
+        <v>1.045122098334649</v>
       </c>
       <c r="J11">
-        <v>1.02322793413456</v>
+        <v>1.024147880264698</v>
       </c>
       <c r="K11">
-        <v>1.029712108903067</v>
+        <v>1.030260711911247</v>
       </c>
       <c r="L11">
-        <v>1.016996327382794</v>
+        <v>1.017883486227143</v>
       </c>
       <c r="M11">
-        <v>1.038069837052603</v>
+        <v>1.038596280066971</v>
       </c>
       <c r="N11">
-        <v>1.011090067856212</v>
+        <v>1.013710617035148</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039189381751479</v>
+        <v>1.039605791828911</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.032149043030092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.032552592647742</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020216863146164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9929500314555196</v>
+        <v>0.993930788431741</v>
       </c>
       <c r="D12">
-        <v>1.014777003149153</v>
+        <v>1.015359290708052</v>
       </c>
       <c r="E12">
-        <v>1.001686443790369</v>
+        <v>1.002603868905986</v>
       </c>
       <c r="F12">
-        <v>1.023587813618295</v>
+        <v>1.024138345253623</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044715200244014</v>
+        <v>1.045133270494325</v>
       </c>
       <c r="J12">
-        <v>1.023055784805841</v>
+        <v>1.023994247927897</v>
       </c>
       <c r="K12">
-        <v>1.029626471247987</v>
+        <v>1.030198030487579</v>
       </c>
       <c r="L12">
-        <v>1.016781405364148</v>
+        <v>1.017681352347788</v>
       </c>
       <c r="M12">
-        <v>1.038276643774607</v>
+        <v>1.038817257402115</v>
       </c>
       <c r="N12">
-        <v>1.011096082512934</v>
+        <v>1.013814387735338</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039679048071392</v>
+        <v>1.04010652251669</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.032088494009361</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.032508275518698</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.02026122561621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9936356102404811</v>
+        <v>0.9945000025573729</v>
       </c>
       <c r="D13">
-        <v>1.01540538293905</v>
+        <v>1.015870513644807</v>
       </c>
       <c r="E13">
-        <v>1.002288136292798</v>
+        <v>1.003096788235813</v>
       </c>
       <c r="F13">
-        <v>1.024419892280118</v>
+        <v>1.02487963774812</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044976986698005</v>
+        <v>1.045343929585047</v>
       </c>
       <c r="J13">
-        <v>1.02361817014265</v>
+        <v>1.024445490126576</v>
       </c>
       <c r="K13">
-        <v>1.030200210490345</v>
+        <v>1.03065681257948</v>
       </c>
       <c r="L13">
-        <v>1.017327743068847</v>
+        <v>1.018121062805599</v>
       </c>
       <c r="M13">
-        <v>1.039051222094204</v>
+        <v>1.039502729197843</v>
       </c>
       <c r="N13">
-        <v>1.011353983269173</v>
+        <v>1.013953801983046</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040567869257228</v>
+        <v>1.04092479582984</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.032491647755735</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.032829901697796</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020416175352226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9947146984463519</v>
+        <v>0.9954371769909506</v>
       </c>
       <c r="D14">
-        <v>1.016263347739392</v>
+        <v>1.01658397965859</v>
       </c>
       <c r="E14">
-        <v>1.003176223018886</v>
+        <v>1.003854933332865</v>
       </c>
       <c r="F14">
-        <v>1.025375290542698</v>
+        <v>1.025724876733221</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.04527384266238</v>
+        <v>1.045582413491538</v>
       </c>
       <c r="J14">
-        <v>1.024344988113433</v>
+        <v>1.025036941746765</v>
       </c>
       <c r="K14">
-        <v>1.030901518504359</v>
+        <v>1.031216347601779</v>
       </c>
       <c r="L14">
-        <v>1.018055378567346</v>
+        <v>1.018721389545693</v>
       </c>
       <c r="M14">
-        <v>1.039850386502282</v>
+        <v>1.040193791057413</v>
       </c>
       <c r="N14">
-        <v>1.011648893110501</v>
+        <v>1.01406949312313</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041372715895854</v>
+        <v>1.041644148421591</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.032988928031912</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033227072655811</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.020575688349253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9952735088692996</v>
+        <v>0.9959318747936664</v>
       </c>
       <c r="D15">
-        <v>1.016685238512942</v>
+        <v>1.016939779157541</v>
       </c>
       <c r="E15">
-        <v>1.003624820466059</v>
+        <v>1.004245597359754</v>
       </c>
       <c r="F15">
-        <v>1.025805389567343</v>
+        <v>1.026105164850013</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045405313139433</v>
+        <v>1.04568862778812</v>
       </c>
       <c r="J15">
-        <v>1.024691958029448</v>
+        <v>1.025322757492305</v>
       </c>
       <c r="K15">
-        <v>1.031228990080437</v>
+        <v>1.031478960046804</v>
       </c>
       <c r="L15">
-        <v>1.018407150783023</v>
+        <v>1.019016404564663</v>
       </c>
       <c r="M15">
-        <v>1.040187208571228</v>
+        <v>1.040481724517705</v>
       </c>
       <c r="N15">
-        <v>1.01177970894817</v>
+        <v>1.014111629898066</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.04167643250698</v>
+        <v>1.041909216580782</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.033226350424559</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.033419202631571</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.020642903317011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9980794865185236</v>
+        <v>0.9984698586281805</v>
       </c>
       <c r="D16">
-        <v>1.018694468685664</v>
+        <v>1.018664482951658</v>
       </c>
       <c r="E16">
-        <v>1.005824509007114</v>
+        <v>1.006207303802454</v>
       </c>
       <c r="F16">
-        <v>1.027697830488181</v>
+        <v>1.027787047345155</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045958303207437</v>
+        <v>1.046141932187417</v>
       </c>
       <c r="J16">
-        <v>1.026292479585543</v>
+        <v>1.026667337395058</v>
       </c>
       <c r="K16">
-        <v>1.032698486170406</v>
+        <v>1.032669014961242</v>
       </c>
       <c r="L16">
-        <v>1.020053019386439</v>
+        <v>1.020429029532544</v>
       </c>
       <c r="M16">
-        <v>1.041549110011566</v>
+        <v>1.041636830605888</v>
       </c>
       <c r="N16">
-        <v>1.012329233978245</v>
+        <v>1.014264924866581</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042714214888311</v>
+        <v>1.042783550836332</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034268511630694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034264080688096</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02090555739433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9996689735930968</v>
+        <v>0.9999391016185565</v>
       </c>
       <c r="D17">
-        <v>1.019788783236256</v>
+        <v>1.019624553137116</v>
       </c>
       <c r="E17">
-        <v>1.007050205453649</v>
+        <v>1.007328252881369</v>
       </c>
       <c r="F17">
-        <v>1.028645836025206</v>
+        <v>1.028638030375539</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046224613903211</v>
+        <v>1.046366355117749</v>
       </c>
       <c r="J17">
-        <v>1.027139878603746</v>
+        <v>1.027399620262649</v>
       </c>
       <c r="K17">
-        <v>1.033458517276849</v>
+        <v>1.033297025124443</v>
       </c>
       <c r="L17">
-        <v>1.020935738034354</v>
+        <v>1.021208999855124</v>
       </c>
       <c r="M17">
-        <v>1.042169574559886</v>
+        <v>1.042161896152601</v>
       </c>
       <c r="N17">
-        <v>1.012596350702269</v>
+        <v>1.014352146549224</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.043075816935711</v>
+        <v>1.043069747179977</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.034808474399574</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034710943856499</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02102557395113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000340060503894</v>
+        <v>1.00059452310128</v>
       </c>
       <c r="D18">
-        <v>1.020161980781153</v>
+        <v>1.019972959192306</v>
       </c>
       <c r="E18">
-        <v>1.007529176916591</v>
+        <v>1.007796999481581</v>
       </c>
       <c r="F18">
-        <v>1.02881423898868</v>
+        <v>1.028791495376449</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046257914028717</v>
+        <v>1.04639907366647</v>
       </c>
       <c r="J18">
-        <v>1.027390226915589</v>
+        <v>1.027635088869543</v>
       </c>
       <c r="K18">
-        <v>1.033641536654191</v>
+        <v>1.033455614836887</v>
       </c>
       <c r="L18">
-        <v>1.021219200339325</v>
+        <v>1.021482490231002</v>
       </c>
       <c r="M18">
-        <v>1.042153470153903</v>
+        <v>1.042131091435443</v>
       </c>
       <c r="N18">
-        <v>1.012632987971665</v>
+        <v>1.014342390229774</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042825823505643</v>
+        <v>1.042808129527242</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.034926216959317</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034810279922393</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021019219686748</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000212645219204</v>
+        <v>1.000531881362768</v>
       </c>
       <c r="D19">
-        <v>1.019916368665457</v>
+        <v>1.019790139346442</v>
       </c>
       <c r="E19">
-        <v>1.00736304871489</v>
+        <v>1.007692961521677</v>
       </c>
       <c r="F19">
-        <v>1.028297768186349</v>
+        <v>1.028324884094227</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046097782003694</v>
+        <v>1.046269703481661</v>
       </c>
       <c r="J19">
-        <v>1.027133041210633</v>
+        <v>1.027440300089648</v>
       </c>
       <c r="K19">
-        <v>1.033337203538552</v>
+        <v>1.033213034320364</v>
       </c>
       <c r="L19">
-        <v>1.020992017110687</v>
+        <v>1.021316374410163</v>
       </c>
       <c r="M19">
-        <v>1.041583266967182</v>
+        <v>1.041609949619013</v>
       </c>
       <c r="N19">
-        <v>1.012480540092112</v>
+        <v>1.014236541275633</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.042050073094887</v>
+        <v>1.042071176893197</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034717451469441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034645801240974</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.020909659853927</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9978110312410283</v>
+        <v>0.9984213982893321</v>
       </c>
       <c r="D20">
-        <v>1.017902299130779</v>
+        <v>1.018084979476507</v>
       </c>
       <c r="E20">
-        <v>1.005356727141791</v>
+        <v>1.005952738048131</v>
       </c>
       <c r="F20">
-        <v>1.025881163737255</v>
+        <v>1.026140942035727</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045386985106831</v>
+        <v>1.045678550136685</v>
       </c>
       <c r="J20">
-        <v>1.025426595526919</v>
+        <v>1.026013308304079</v>
       </c>
       <c r="K20">
-        <v>1.031637496758181</v>
+        <v>1.031817109634464</v>
       </c>
       <c r="L20">
-        <v>1.019306034425679</v>
+        <v>1.019891717147794</v>
       </c>
       <c r="M20">
-        <v>1.039483694349555</v>
+        <v>1.039739197842691</v>
       </c>
       <c r="N20">
-        <v>1.011785027461663</v>
+        <v>1.013842241588233</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039861905177377</v>
+        <v>1.040064109218048</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.033519628579342</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.033663161175642</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.020500837727537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9924632794798502</v>
+        <v>0.9936379023741472</v>
       </c>
       <c r="D21">
-        <v>1.01400044213846</v>
+        <v>1.014772435084618</v>
       </c>
       <c r="E21">
-        <v>1.001125006697245</v>
+        <v>1.002228493194961</v>
       </c>
       <c r="F21">
-        <v>1.022097470200112</v>
+        <v>1.022798891216101</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044261332318358</v>
+        <v>1.044771639348547</v>
       </c>
       <c r="J21">
-        <v>1.022279522827544</v>
+        <v>1.023404049753672</v>
       </c>
       <c r="K21">
-        <v>1.028721339285414</v>
+        <v>1.029479241594414</v>
       </c>
       <c r="L21">
-        <v>1.01608509678185</v>
+        <v>1.017167768728544</v>
       </c>
       <c r="M21">
-        <v>1.036671953639609</v>
+        <v>1.037360832952991</v>
       </c>
       <c r="N21">
-        <v>1.010665244565055</v>
+        <v>1.013539898138826</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.037595775973221</v>
+        <v>1.038140979761887</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.031461036801939</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.032013782590715</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019958247236289</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9890481602161013</v>
+        <v>0.9905840143077252</v>
       </c>
       <c r="D22">
-        <v>1.011523504567553</v>
+        <v>1.012671541602399</v>
       </c>
       <c r="E22">
-        <v>0.9984332494224928</v>
+        <v>0.999861702396224</v>
       </c>
       <c r="F22">
-        <v>1.019726597253039</v>
+        <v>1.02071065750726</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043538362723456</v>
+        <v>1.044189089754536</v>
       </c>
       <c r="J22">
-        <v>1.02027668183565</v>
+        <v>1.02174312073433</v>
       </c>
       <c r="K22">
-        <v>1.026870083681805</v>
+        <v>1.02799608405496</v>
       </c>
       <c r="L22">
-        <v>1.014035807973663</v>
+        <v>1.015435899487076</v>
       </c>
       <c r="M22">
-        <v>1.034917140348715</v>
+        <v>1.035882702206583</v>
       </c>
       <c r="N22">
-        <v>1.009954362615255</v>
+        <v>1.013342084190032</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.036206951930216</v>
+        <v>1.036971133577839</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.030138544880526</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.030950270229654</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019614305621966</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9908462777451542</v>
+        <v>0.9921760788850137</v>
       </c>
       <c r="D23">
-        <v>1.012818863568009</v>
+        <v>1.013756343049379</v>
       </c>
       <c r="E23">
-        <v>0.9998471134084922</v>
+        <v>1.001089623155028</v>
       </c>
       <c r="F23">
-        <v>1.020970856839423</v>
+        <v>1.021795720637421</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043915866583818</v>
+        <v>1.044485842628899</v>
       </c>
       <c r="J23">
-        <v>1.021324085328797</v>
+        <v>1.022595589135876</v>
       </c>
       <c r="K23">
-        <v>1.027833551012513</v>
+        <v>1.028753505115056</v>
       </c>
       <c r="L23">
-        <v>1.015108717884989</v>
+        <v>1.016327213456397</v>
       </c>
       <c r="M23">
-        <v>1.035834552126167</v>
+        <v>1.036644312461656</v>
       </c>
       <c r="N23">
-        <v>1.010323907003344</v>
+        <v>1.013396765690751</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036933025828765</v>
+        <v>1.037573899745211</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.030810078443908</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.031475177777044</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019785589015394</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,102 +1803,120 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9978034771674948</v>
+        <v>0.9984221651715698</v>
       </c>
       <c r="D24">
-        <v>1.017862448676352</v>
+        <v>1.018052977097655</v>
       </c>
       <c r="E24">
-        <v>1.005338440311244</v>
+        <v>1.005942541746153</v>
       </c>
       <c r="F24">
-        <v>1.025811702743863</v>
+        <v>1.02607784258776</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045361369682173</v>
+        <v>1.045657018402144</v>
       </c>
       <c r="J24">
-        <v>1.025386343406114</v>
+        <v>1.025981088130956</v>
       </c>
       <c r="K24">
-        <v>1.031582976680812</v>
+        <v>1.031770309664853</v>
       </c>
       <c r="L24">
-        <v>1.01927245108184</v>
+        <v>1.019866097225868</v>
       </c>
       <c r="M24">
-        <v>1.03940020726181</v>
+        <v>1.039661972494891</v>
       </c>
       <c r="N24">
-        <v>1.011760259067875</v>
+        <v>1.013822200272561</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039755011277259</v>
+        <v>1.039962181092961</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.033453588189061</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.033599915829812</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.020479497703691</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005578172327714</v>
+        <v>1.005628142016519</v>
       </c>
       <c r="D25">
-        <v>1.02353413344807</v>
+        <v>1.023064702977865</v>
       </c>
       <c r="E25">
-        <v>1.011506354770516</v>
+        <v>1.011605952381147</v>
       </c>
       <c r="F25">
-        <v>1.031262719538748</v>
+        <v>1.031050128793867</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046929730258783</v>
+        <v>1.047012877150601</v>
       </c>
       <c r="J25">
-        <v>1.029919256050709</v>
+        <v>1.029967570007583</v>
       </c>
       <c r="K25">
-        <v>1.035777775819601</v>
+        <v>1.035315217485342</v>
       </c>
       <c r="L25">
-        <v>1.023928637241841</v>
+        <v>1.02402673339019</v>
       </c>
       <c r="M25">
-        <v>1.04339435982293</v>
+        <v>1.043184821485406</v>
       </c>
       <c r="N25">
-        <v>1.013361291635873</v>
+        <v>1.014882077726756</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042916111577026</v>
+        <v>1.04275027656654</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036416665829599</v>
+        <v>1.036103162687253</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021308745332344</v>
       </c>
     </row>
   </sheetData>
